--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q335"/>
+  <dimension ref="A1:Q341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18129,6 +18129,348 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>383.95</v>
+      </c>
+      <c r="C336" t="n">
+        <v>373.465</v>
+      </c>
+      <c r="D336" t="n">
+        <v>370.3672727272727</v>
+      </c>
+      <c r="E336" t="n">
+        <v>372.1938461538462</v>
+      </c>
+      <c r="F336" t="n">
+        <v>365.9742857142857</v>
+      </c>
+      <c r="G336" t="n">
+        <v>363.65</v>
+      </c>
+      <c r="H336" t="n">
+        <v>363.1472727272728</v>
+      </c>
+      <c r="I336" t="n">
+        <v>367.56</v>
+      </c>
+      <c r="J336" t="n">
+        <v>374.2042857142857</v>
+      </c>
+      <c r="K336" t="n">
+        <v>369.61</v>
+      </c>
+      <c r="L336" t="n">
+        <v>366.07</v>
+      </c>
+      <c r="M336" t="n">
+        <v>370.79</v>
+      </c>
+      <c r="N336" t="n">
+        <v>372.02</v>
+      </c>
+      <c r="O336" t="n">
+        <v>377</v>
+      </c>
+      <c r="P336" t="n">
+        <v>361.36</v>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>394.05</v>
+      </c>
+      <c r="C337" t="n">
+        <v>381.405</v>
+      </c>
+      <c r="D337" t="n">
+        <v>389.4218181818182</v>
+      </c>
+      <c r="E337" t="n">
+        <v>375.4423076923077</v>
+      </c>
+      <c r="F337" t="n">
+        <v>377.6242857142857</v>
+      </c>
+      <c r="G337" t="n">
+        <v>372.0366666666667</v>
+      </c>
+      <c r="H337" t="n">
+        <v>370.1118181818182</v>
+      </c>
+      <c r="I337" t="n">
+        <v>370.1866666666667</v>
+      </c>
+      <c r="J337" t="n">
+        <v>374.2942857142857</v>
+      </c>
+      <c r="K337" t="n">
+        <v>372.3566666666667</v>
+      </c>
+      <c r="L337" t="n">
+        <v>367.8133333333333</v>
+      </c>
+      <c r="M337" t="n">
+        <v>374.4733333333333</v>
+      </c>
+      <c r="N337" t="n">
+        <v>380.54</v>
+      </c>
+      <c r="O337" t="n">
+        <v>394.64</v>
+      </c>
+      <c r="P337" t="n">
+        <v>373.93</v>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>387.46</v>
+      </c>
+      <c r="C338" t="n">
+        <v>374.72</v>
+      </c>
+      <c r="D338" t="n">
+        <v>370.6372727272728</v>
+      </c>
+      <c r="E338" t="n">
+        <v>372.3615384615384</v>
+      </c>
+      <c r="F338" t="n">
+        <v>364.7128571428572</v>
+      </c>
+      <c r="G338" t="n">
+        <v>366.0733333333333</v>
+      </c>
+      <c r="H338" t="n">
+        <v>363.6872727272727</v>
+      </c>
+      <c r="I338" t="n">
+        <v>369.1033333333334</v>
+      </c>
+      <c r="J338" t="n">
+        <v>372.9428571428572</v>
+      </c>
+      <c r="K338" t="n">
+        <v>370.0333333333334</v>
+      </c>
+      <c r="L338" t="n">
+        <v>366.3066666666667</v>
+      </c>
+      <c r="M338" t="n">
+        <v>371.4766666666667</v>
+      </c>
+      <c r="N338" t="n">
+        <v>372.68</v>
+      </c>
+      <c r="O338" t="n">
+        <v>375.71</v>
+      </c>
+      <c r="P338" t="n">
+        <v>361.19</v>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>390.34</v>
+      </c>
+      <c r="C339" t="n">
+        <v>374.42</v>
+      </c>
+      <c r="D339" t="n">
+        <v>389.4618181818182</v>
+      </c>
+      <c r="E339" t="n">
+        <v>377.6253846153846</v>
+      </c>
+      <c r="F339" t="n">
+        <v>371.93</v>
+      </c>
+      <c r="G339" t="n">
+        <v>376.9566666666666</v>
+      </c>
+      <c r="H339" t="n">
+        <v>377.5318181818182</v>
+      </c>
+      <c r="I339" t="n">
+        <v>373.3966666666666</v>
+      </c>
+      <c r="J339" t="n">
+        <v>377.33</v>
+      </c>
+      <c r="K339" t="n">
+        <v>376.9566666666666</v>
+      </c>
+      <c r="L339" t="n">
+        <v>372.7533333333333</v>
+      </c>
+      <c r="M339" t="n">
+        <v>377.2033333333333</v>
+      </c>
+      <c r="N339" t="n">
+        <v>380.98</v>
+      </c>
+      <c r="O339" t="n">
+        <v>393.32</v>
+      </c>
+      <c r="P339" t="n">
+        <v>366.46</v>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>377.55</v>
+      </c>
+      <c r="C340" t="n">
+        <v>368.225</v>
+      </c>
+      <c r="D340" t="n">
+        <v>367.7636363636364</v>
+      </c>
+      <c r="E340" t="n">
+        <v>366.6446153846153</v>
+      </c>
+      <c r="F340" t="n">
+        <v>365.95</v>
+      </c>
+      <c r="G340" t="n">
+        <v>366.5166666666667</v>
+      </c>
+      <c r="H340" t="n">
+        <v>365.8736363636364</v>
+      </c>
+      <c r="I340" t="n">
+        <v>369.0166666666667</v>
+      </c>
+      <c r="J340" t="n">
+        <v>371.51</v>
+      </c>
+      <c r="K340" t="n">
+        <v>367.7566666666667</v>
+      </c>
+      <c r="L340" t="n">
+        <v>367.9533333333333</v>
+      </c>
+      <c r="M340" t="n">
+        <v>370.2133333333333</v>
+      </c>
+      <c r="N340" t="n">
+        <v>376.17</v>
+      </c>
+      <c r="O340" t="n">
+        <v>388.75</v>
+      </c>
+      <c r="P340" t="n">
+        <v>332.45</v>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>382.3</v>
+      </c>
+      <c r="C341" t="n">
+        <v>375.1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>377.95</v>
+      </c>
+      <c r="E341" t="n">
+        <v>376.21</v>
+      </c>
+      <c r="F341" t="n">
+        <v>369.24</v>
+      </c>
+      <c r="G341" t="n">
+        <v>369.19</v>
+      </c>
+      <c r="H341" t="n">
+        <v>369.4</v>
+      </c>
+      <c r="I341" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="J341" t="n">
+        <v>376.18</v>
+      </c>
+      <c r="K341" t="n">
+        <v>370.77</v>
+      </c>
+      <c r="L341" t="n">
+        <v>371.87</v>
+      </c>
+      <c r="M341" t="n">
+        <v>375.47</v>
+      </c>
+      <c r="N341" t="n">
+        <v>378.38</v>
+      </c>
+      <c r="O341" t="n">
+        <v>386.82</v>
+      </c>
+      <c r="P341" t="n">
+        <v>365.33</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18140,7 +18482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21648,6 +21990,66 @@
       </c>
       <c r="B350" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21816,28 +22218,28 @@
         <v>0.0424</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2776420930862937</v>
+        <v>0.2709969858180458</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04565504733477765</v>
+        <v>0.04514879461358057</v>
       </c>
       <c r="M2" t="n">
-        <v>7.231892225961003</v>
+        <v>7.180894938014986</v>
       </c>
       <c r="N2" t="n">
-        <v>82.0739167168921</v>
+        <v>81.02679607318339</v>
       </c>
       <c r="O2" t="n">
-        <v>9.059465586716035</v>
+        <v>9.001488547633851</v>
       </c>
       <c r="P2" t="n">
-        <v>380.4686066311309</v>
+        <v>380.535562294951</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -21893,28 +22295,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3389379054562121</v>
+        <v>0.3366888696363974</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07159056203430636</v>
+        <v>0.07314775790246686</v>
       </c>
       <c r="M3" t="n">
-        <v>6.961324941208073</v>
+        <v>6.875529176482718</v>
       </c>
       <c r="N3" t="n">
-        <v>76.17299821393235</v>
+        <v>74.95620475865924</v>
       </c>
       <c r="O3" t="n">
-        <v>8.727714375134669</v>
+        <v>8.657725149175114</v>
       </c>
       <c r="P3" t="n">
-        <v>366.5088223741387</v>
+        <v>366.5318894673835</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -21970,28 +22372,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3156658992195154</v>
+        <v>0.3230665678314013</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05378442680487017</v>
+        <v>0.05736461971291273</v>
       </c>
       <c r="M4" t="n">
-        <v>7.766871791043311</v>
+        <v>7.773511859867235</v>
       </c>
       <c r="N4" t="n">
-        <v>90.27366298186932</v>
+        <v>90.12831469299051</v>
       </c>
       <c r="O4" t="n">
-        <v>9.501245338473758</v>
+        <v>9.493593349885517</v>
       </c>
       <c r="P4" t="n">
-        <v>367.668004736924</v>
+        <v>367.5930441101783</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22047,28 +22449,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2314138011023696</v>
+        <v>0.2312319657193905</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03484344894457014</v>
+        <v>0.03604225614877343</v>
       </c>
       <c r="M5" t="n">
-        <v>6.918723698959313</v>
+        <v>6.838756063761381</v>
       </c>
       <c r="N5" t="n">
-        <v>75.21963205468373</v>
+        <v>73.94614387191419</v>
       </c>
       <c r="O5" t="n">
-        <v>8.672925230548442</v>
+        <v>8.599194373423256</v>
       </c>
       <c r="P5" t="n">
-        <v>367.570723585984</v>
+        <v>367.5726655957022</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22124,28 +22526,28 @@
         <v>0.074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.136189608971762</v>
+        <v>0.1420173664864539</v>
       </c>
       <c r="J6" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01502281742869227</v>
+        <v>0.01683797118718311</v>
       </c>
       <c r="M6" t="n">
-        <v>6.344713925340271</v>
+        <v>6.288994323637815</v>
       </c>
       <c r="N6" t="n">
-        <v>62.47251094988365</v>
+        <v>61.65176074590472</v>
       </c>
       <c r="O6" t="n">
-        <v>7.903955399031782</v>
+        <v>7.851863520585717</v>
       </c>
       <c r="P6" t="n">
-        <v>364.2511053585823</v>
+        <v>364.1914239279412</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22201,28 +22603,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2168056169541587</v>
+        <v>0.2232570539985433</v>
       </c>
       <c r="J7" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03364337006381579</v>
+        <v>0.03673804559927418</v>
       </c>
       <c r="M7" t="n">
-        <v>6.633541369171021</v>
+        <v>6.576185565253308</v>
       </c>
       <c r="N7" t="n">
-        <v>69.89839844766024</v>
+        <v>68.96815138104498</v>
       </c>
       <c r="O7" t="n">
-        <v>8.360526206385591</v>
+        <v>8.304706580069219</v>
       </c>
       <c r="P7" t="n">
-        <v>361.8211968263985</v>
+        <v>361.7558160648246</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22278,28 +22680,28 @@
         <v>0.0585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2189551724355422</v>
+        <v>0.2291646694355659</v>
       </c>
       <c r="J8" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02685319135451536</v>
+        <v>0.03028338917930884</v>
       </c>
       <c r="M8" t="n">
-        <v>7.84981276501633</v>
+        <v>7.773913891132277</v>
       </c>
       <c r="N8" t="n">
-        <v>91.10886651284079</v>
+        <v>89.91132128128838</v>
       </c>
       <c r="O8" t="n">
-        <v>9.545096464302537</v>
+        <v>9.482158049794803</v>
       </c>
       <c r="P8" t="n">
-        <v>360.0075612245635</v>
+        <v>359.9049651536388</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22355,28 +22757,28 @@
         <v>0.0803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2054460801241222</v>
+        <v>0.216146260906947</v>
       </c>
       <c r="J9" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02959490900699258</v>
+        <v>0.03384576452920496</v>
       </c>
       <c r="M9" t="n">
-        <v>6.752852400614996</v>
+        <v>6.667688217045891</v>
       </c>
       <c r="N9" t="n">
-        <v>72.46322374874011</v>
+        <v>71.19106092529265</v>
       </c>
       <c r="O9" t="n">
-        <v>8.512533333194067</v>
+        <v>8.437479536288823</v>
       </c>
       <c r="P9" t="n">
-        <v>362.0006462038282</v>
+        <v>361.8925815295474</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22432,28 +22834,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1827116465201455</v>
+        <v>0.1921344217644941</v>
       </c>
       <c r="J10" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02723789134015464</v>
+        <v>0.03113424217064575</v>
       </c>
       <c r="M10" t="n">
-        <v>6.245879284093369</v>
+        <v>6.170794647270482</v>
       </c>
       <c r="N10" t="n">
-        <v>60.89661540549418</v>
+        <v>59.83806301960598</v>
       </c>
       <c r="O10" t="n">
-        <v>7.803628348755096</v>
+        <v>7.735506642722633</v>
       </c>
       <c r="P10" t="n">
-        <v>367.3473253763393</v>
+        <v>367.2506237358256</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22509,28 +22911,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.172587063013183</v>
+        <v>0.1848725152853356</v>
       </c>
       <c r="J11" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02241156344882378</v>
+        <v>0.0265568049926066</v>
       </c>
       <c r="M11" t="n">
-        <v>6.483189708596345</v>
+        <v>6.412295630512697</v>
       </c>
       <c r="N11" t="n">
-        <v>65.3356335399116</v>
+        <v>64.34727736420764</v>
       </c>
       <c r="O11" t="n">
-        <v>8.083046055783154</v>
+        <v>8.02167547113492</v>
       </c>
       <c r="P11" t="n">
-        <v>363.792533726721</v>
+        <v>363.666272790102</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22586,28 +22988,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2026193973686819</v>
+        <v>0.2097686590356156</v>
       </c>
       <c r="J12" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02668924717278531</v>
+        <v>0.02966532307491543</v>
       </c>
       <c r="M12" t="n">
-        <v>6.797182979771263</v>
+        <v>6.708361362917215</v>
       </c>
       <c r="N12" t="n">
-        <v>74.57908374908274</v>
+        <v>73.25846172569798</v>
       </c>
       <c r="O12" t="n">
-        <v>8.635918234274961</v>
+        <v>8.559115709329907</v>
       </c>
       <c r="P12" t="n">
-        <v>361.8699227553714</v>
+        <v>361.7960063207473</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22663,28 +23065,28 @@
         <v>0.0643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2716509376876122</v>
+        <v>0.2803834582148364</v>
       </c>
       <c r="J13" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04719941110491699</v>
+        <v>0.05197379341364561</v>
       </c>
       <c r="M13" t="n">
-        <v>6.766636102179578</v>
+        <v>6.682200111631206</v>
       </c>
       <c r="N13" t="n">
-        <v>75.38423683491695</v>
+        <v>74.07658525516665</v>
       </c>
       <c r="O13" t="n">
-        <v>8.682409621465515</v>
+        <v>8.606775543440566</v>
       </c>
       <c r="P13" t="n">
-        <v>364.1555722979556</v>
+        <v>364.065897340512</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22740,28 +23142,28 @@
         <v>0.055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3315472265299164</v>
+        <v>0.3385232102755751</v>
       </c>
       <c r="J14" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04810854109557061</v>
+        <v>0.05192425403298673</v>
       </c>
       <c r="M14" t="n">
-        <v>7.854553624303367</v>
+        <v>7.766601802908998</v>
       </c>
       <c r="N14" t="n">
-        <v>109.0161022073671</v>
+        <v>107.0943412056892</v>
       </c>
       <c r="O14" t="n">
-        <v>10.4410776363059</v>
+        <v>10.34863958236488</v>
       </c>
       <c r="P14" t="n">
-        <v>366.6226907833428</v>
+        <v>366.5505821135118</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -22817,28 +23219,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4959383090896308</v>
+        <v>0.5086300393788802</v>
       </c>
       <c r="J15" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05309491682676881</v>
+        <v>0.05785594172207009</v>
       </c>
       <c r="M15" t="n">
-        <v>11.99976527055333</v>
+        <v>11.89768754891835</v>
       </c>
       <c r="N15" t="n">
-        <v>228.8632141930845</v>
+        <v>224.9697172551893</v>
       </c>
       <c r="O15" t="n">
-        <v>15.12822574504639</v>
+        <v>14.99899054120607</v>
       </c>
       <c r="P15" t="n">
-        <v>370.5586015350984</v>
+        <v>370.4309723911105</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -22894,28 +23296,28 @@
         <v>0.0308</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08979434799105249</v>
+        <v>0.05495737624428168</v>
       </c>
       <c r="J16" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001652043339865572</v>
+        <v>0.0006333623734599003</v>
       </c>
       <c r="M16" t="n">
-        <v>12.32817083597548</v>
+        <v>12.26215457825868</v>
       </c>
       <c r="N16" t="n">
-        <v>250.8853198707684</v>
+        <v>250.6618444673201</v>
       </c>
       <c r="O16" t="n">
-        <v>15.83935983146947</v>
+        <v>15.83230382690151</v>
       </c>
       <c r="P16" t="n">
-        <v>366.4229712030891</v>
+        <v>366.7764909355582</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -22952,7 +23354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q335"/>
+  <dimension ref="A1:Q341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49241,6 +49643,528 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-36.72374760659089,175.7171093731638</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-36.72373433865603,175.71801733065303</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-36.72365658314276,175.71890703186696</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-36.72348038318434,175.71976506139535</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-36.723320405015535,175.72063986079743</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-36.72312535102972,175.72150575277684</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-36.72292450022583,175.72236890293456</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-36.7226859332011,175.7232171128908</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-36.72243351970751,175.72404407143824</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-36.7221514901131,175.72484746449223</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-36.721814275727134,175.7256378125921</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-36.721393021616244,175.7263550130981</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-36.72093633824041,175.72703598825134</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-36.720451180439106,175.72762843442112</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-36.71987966031578,175.72814661837532</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-36.72365788925695,175.71709057965262</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-36.723663808504604,175.71800255580465</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-36.7234886144401,175.7188631132863</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-36.72345230014654,175.7197548423428</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-36.72322084694798,175.7205986234276</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-36.72305351232919,175.72147670126722</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-36.72286464592778,175.7223455438716</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-36.72266333671706,175.7232083927335</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-36.72243277194457,175.72404368224866</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-36.72213006015726,175.72483210118946</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-36.721801086665444,175.72562722263658</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-36.7213665696768,175.72633013068076</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-36.72087919120309,175.7269723466938</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-36.72036032724972,175.72746648888486</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-36.71983464649157,175.72801755364128</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-36.723716427597296,175.71710284194776</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-36.72372319062857,175.7180149953317</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-36.72365420305209,175.71890640954587</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-36.72347893347982,175.7197645338665</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-36.7233311848762,175.72064432586834</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-36.723104593186854,175.7214973583164</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-36.72291985938897,175.7223670917749</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-36.72267265633305,175.72321198924442</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-36.722444000257894,175.72404952627093</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-36.72214818719531,175.72484509660399</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-36.72181248524273,175.72563637494974</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-36.72138809030491,175.7263503743837</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>-36.72093191135862,175.72703105826815</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-36.720457824455536,175.7276402773917</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-36.71988026909362,175.72814836388187</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-36.72369084483279,175.71709748300583</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-36.7237258554957,175.71801555357578</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-36.72348826183402,175.718863021091</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-36.72343342738681,175.71974797479558</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-36.72326950893177,175.72061877941044</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-36.723011368476314,175.72145965835773</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-36.72280087738104,175.72232065725845</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-36.722635721977056,175.72319773600054</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-36.72240754978056,175.72403055482678</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-36.722094170177265,175.72480637140595</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-36.72176371344821,175.72559721440797</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-36.721346964117814,175.7263116884297</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>-36.7208762399466,175.72696906004316</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>-36.72036712579592,175.72747860724536</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-36.71986139696803,175.72809425319147</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-36.72380445717563,175.71712128194935</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-36.723780885000814,175.71802708132563</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-36.72367953458926,175.71891303297207</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-36.723528356431274,175.71978251825624</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-36.72332061255532,175.7206399467614</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-36.723100795672174,175.72149582260408</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-36.72290106946826,175.72235975871507</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-36.722673401902334,175.72321227696534</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-36.722455905118245,175.72405572241908</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-36.722165950130496,175.72485783099765</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-36.72180002750556,175.72562637220054</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-36.72139716296006,175.72635890871797</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-36.72090850254042,175.727004989124</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>-36.72039066317669,175.72752056249445</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-36.71998318797378,175.7284434575409</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-36.72376226338249,175.71711244339562</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-36.723719815130195,175.71801428822263</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-36.723589740257374,175.71888955450922</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-36.723445663425615,175.71975242732753</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-36.72329249701727,175.72062830117497</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-36.72307789637256,175.72148656214674</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-36.72287076339517,175.7223479313057</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-36.722658490516686,175.7232065225482</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-36.722417104529974,175.72403552780202</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-36.722142439598066,175.724840976106</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-36.72177039624413,175.72560258024964</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-36.72135941209216,175.72632339779435</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-36.72089367918802,175.7269884811642</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-36.72040060346618,175.7275382810208</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>-36.71986544355501,175.72810585567134</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -22063,7 +22063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22154,35 +22154,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22241,27 +22246,28 @@
       <c r="P2" t="n">
         <v>380.535562294951</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.71782384295008 -36.7271581932847, 175.7161126143341 -36.718988893994364)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7178238429501</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.7271581932847</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.7161126143341</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.71898889399436</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.7169682286421</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.72307354363953</v>
       </c>
     </row>
@@ -22318,27 +22324,28 @@
       <c r="P3" t="n">
         <v>366.5318894673835</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.71871231393067 -36.72705178322515, 175.71700102659872 -36.71888249118328)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.7187123139307</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.72705178322515</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.7170010265987</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.71888249118328</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.7178566702647</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.72296713720421</v>
       </c>
     </row>
@@ -22395,27 +22402,28 @@
       <c r="P4" t="n">
         <v>367.5930441101783</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.71976072917286 -36.72692142109148, 175.7176410011523 -36.7188142490898)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7197607291729</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.72692142109148</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.7176410011523</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.7188142490898</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7187008651626</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.72286783509064</v>
       </c>
     </row>
@@ -22472,27 +22480,28 @@
       <c r="P5" t="n">
         <v>367.5726655957022</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.72093596691545 -36.726698000413016, 175.7180427129058 -36.7187468566424)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.7209359669154</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.72669800041302</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.7180427129058</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.7187468566424</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.7194893399106</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.7227224285277</v>
       </c>
     </row>
@@ -22549,27 +22558,28 @@
       <c r="P6" t="n">
         <v>364.1914239279412</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.72193535371082 -36.72644792200821, 175.71867974278766 -36.718587828217146)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.7219353537108</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.72644792200821</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.7186797427877</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.71858782821715</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.7203075482493</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.72251787511268</v>
       </c>
     </row>
@@ -22626,27 +22636,28 @@
       <c r="P7" t="n">
         <v>361.7558160648246</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.72276549633816 -36.72624030277211, 175.7195795085287 -36.718361793403396)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.7227654963382</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.72624030277211</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.7195795085287</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.7183617934034</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.7211725024334</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.72230104808776</v>
       </c>
     </row>
@@ -22703,27 +22714,28 @@
       <c r="P8" t="n">
         <v>359.9049651536388</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.72358695171081 -36.72604543056389, 175.72050217397205 -36.71814093528476)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.7235869517108</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.72604543056389</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.7205021739721</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.71814093528476</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.7220445628414</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.72209318292433</v>
       </c>
     </row>
@@ -22780,27 +22792,28 @@
       <c r="P9" t="n">
         <v>361.8925815295474</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.72443741368332 -36.72584794068717, 175.72138403908525 -36.71793556792921)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.7244374136833</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.72584794068717</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.7213840390853</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.71793556792921</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.7229107263843</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.72189175430819</v>
       </c>
     </row>
@@ -22857,27 +22870,28 @@
       <c r="P10" t="n">
         <v>367.2506237358256</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.72566232241542 -36.725542573059215, 175.72168473216652 -36.71790013150686)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.7256623224154</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.72554257305922</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.7216847321665</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.71790013150686</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.723673527291</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.72172135228304</v>
       </c>
     </row>
@@ -22934,27 +22948,28 @@
       <c r="P11" t="n">
         <v>363.666272790102</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.72691493447144 -36.725035227614654, 175.72176921998695 -36.71785741671749)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.7269149344714</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.72503522761465</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.721769219987</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.71785741671749</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.7243420772292</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.72144632216607</v>
       </c>
     </row>
@@ -23011,27 +23026,28 @@
       <c r="P12" t="n">
         <v>361.7960063207473</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.72786160321192 -36.72458372692671, 175.7222729079244 -36.71762322940062)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.7278616032119</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.72458372692671</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.7222729079244</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.71762322940062</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.7250672555681</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.72110347816367</v>
       </c>
     </row>
@@ -23088,27 +23104,28 @@
       <c r="P13" t="n">
         <v>364.065897340512</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.72885993933636 -36.72405582736254, 175.7226441647965 -36.71744783200046)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.7288599393364</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.72405582736254</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.7226441647965</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.71744783200046</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.7257520520664</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.7207518296815</v>
       </c>
     </row>
@@ -23165,27 +23182,28 @@
       <c r="P14" t="n">
         <v>366.5505821135118</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.7298149461408 -36.72343158721356, 175.72294110585776 -36.717259079966176)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.7298149461408</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.72343158721356</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.7229411058578</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.71725907996618</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.7263780259993</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.72034533358987</v>
       </c>
     </row>
@@ -23242,27 +23260,28 @@
       <c r="P15" t="n">
         <v>370.4309723911105</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.7310896049245 -36.72239282727039, 175.72263835953663 -36.71765148896357)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.7310896049245</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.72239282727039</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.7226383595366</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.71765148896357</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.7268639822306</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.72002215811698</v>
       </c>
     </row>
@@ -23319,27 +23338,28 @@
       <c r="P16" t="n">
         <v>366.7764909355582</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.73185700851235 -36.721173646561155, 175.72240255886925 -36.71787611789657)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.7318570085123</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.72117364656116</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.7224025588692</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.71787611789657</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.7271297836908</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.71952488222887</v>
       </c>
     </row>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q341"/>
+  <dimension ref="A1:Q343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18471,6 +18471,98 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>393.85</v>
+      </c>
+      <c r="C342" t="n">
+        <v>387.05</v>
+      </c>
+      <c r="D342" t="n">
+        <v>390.9627272727273</v>
+      </c>
+      <c r="E342" t="n">
+        <v>390.2184615384616</v>
+      </c>
+      <c r="F342" t="n">
+        <v>378.7171428571429</v>
+      </c>
+      <c r="G342" t="n">
+        <v>379.1566666666666</v>
+      </c>
+      <c r="H342" t="n">
+        <v>375.8427272727273</v>
+      </c>
+      <c r="I342" t="n">
+        <v>377.1666666666666</v>
+      </c>
+      <c r="J342" t="n">
+        <v>380.1071428571428</v>
+      </c>
+      <c r="K342" t="n">
+        <v>378.1966666666667</v>
+      </c>
+      <c r="L342" t="n">
+        <v>381.2633333333333</v>
+      </c>
+      <c r="M342" t="n">
+        <v>387.8533333333333</v>
+      </c>
+      <c r="N342" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="O342" t="n">
+        <v>409.78</v>
+      </c>
+      <c r="P342" t="n">
+        <v>386.27</v>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>377.58</v>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="O343" t="n">
+        <v>386.73</v>
+      </c>
+      <c r="P343" t="n">
+        <v>365.58</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18482,7 +18574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22050,6 +22142,26 @@
       </c>
       <c r="B356" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -22223,28 +22335,28 @@
         <v>0.0424</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2709969858180458</v>
+        <v>0.268507893516961</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04514879461358057</v>
+        <v>0.04474017103229955</v>
       </c>
       <c r="M2" t="n">
-        <v>7.180894938014986</v>
+        <v>7.188209561748152</v>
       </c>
       <c r="N2" t="n">
-        <v>81.02679607318339</v>
+        <v>80.946781809236</v>
       </c>
       <c r="O2" t="n">
-        <v>9.001488547633851</v>
+        <v>8.99704294805999</v>
       </c>
       <c r="P2" t="n">
-        <v>380.535562294951</v>
+        <v>380.5609206384387</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22301,28 +22413,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3366888696363974</v>
+        <v>0.3444232829247179</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07314775790246686</v>
+        <v>0.07632892958643611</v>
       </c>
       <c r="M3" t="n">
-        <v>6.875529176482718</v>
+        <v>6.892584118356542</v>
       </c>
       <c r="N3" t="n">
-        <v>74.95620475865924</v>
+        <v>75.17028766320352</v>
       </c>
       <c r="O3" t="n">
-        <v>8.657725149175114</v>
+        <v>8.670080026343674</v>
       </c>
       <c r="P3" t="n">
-        <v>366.5318894673835</v>
+        <v>366.4523304574552</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22379,28 +22491,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3230665678314013</v>
+        <v>0.3330065817700804</v>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05736461971291273</v>
+        <v>0.06063729315330568</v>
       </c>
       <c r="M4" t="n">
-        <v>7.773511859867235</v>
+        <v>7.800137097375808</v>
       </c>
       <c r="N4" t="n">
-        <v>90.12831469299051</v>
+        <v>90.58548812227926</v>
       </c>
       <c r="O4" t="n">
-        <v>9.493593349885517</v>
+        <v>9.517640890592546</v>
       </c>
       <c r="P4" t="n">
-        <v>367.5930441101783</v>
+        <v>367.4909321516145</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22457,28 +22569,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2312319657193905</v>
+        <v>0.242276850729581</v>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03604225614877343</v>
+        <v>0.03920321239763913</v>
       </c>
       <c r="M5" t="n">
-        <v>6.838756063761381</v>
+        <v>6.86759471222175</v>
       </c>
       <c r="N5" t="n">
-        <v>73.94614387191419</v>
+        <v>74.6348146262969</v>
       </c>
       <c r="O5" t="n">
-        <v>8.599194373423256</v>
+        <v>8.639144322575987</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5726655957022</v>
+        <v>367.4573317498293</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22535,28 +22647,28 @@
         <v>0.074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1420173664864539</v>
+        <v>0.1490701461849357</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01683797118718311</v>
+        <v>0.01852291842543163</v>
       </c>
       <c r="M6" t="n">
-        <v>6.288994323637815</v>
+        <v>6.302110567430353</v>
       </c>
       <c r="N6" t="n">
-        <v>61.65176074590472</v>
+        <v>61.83943668666245</v>
       </c>
       <c r="O6" t="n">
-        <v>7.851863520585717</v>
+        <v>7.863805483775807</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1914239279412</v>
+        <v>364.1182065500957</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22613,28 +22725,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2232570539985433</v>
+        <v>0.2305775023796436</v>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03673804559927418</v>
+        <v>0.03909670391370568</v>
       </c>
       <c r="M7" t="n">
-        <v>6.576185565253308</v>
+        <v>6.593073892653601</v>
       </c>
       <c r="N7" t="n">
-        <v>68.96815138104498</v>
+        <v>69.1814173123043</v>
       </c>
       <c r="O7" t="n">
-        <v>8.304706580069219</v>
+        <v>8.317536733450854</v>
       </c>
       <c r="P7" t="n">
-        <v>361.7558160648246</v>
+        <v>361.6807911220486</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22691,28 +22803,28 @@
         <v>0.0585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2291646694355659</v>
+        <v>0.2355380410364187</v>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03028338917930884</v>
+        <v>0.03202627367542565</v>
       </c>
       <c r="M8" t="n">
-        <v>7.773913891132277</v>
+        <v>7.779873182866813</v>
       </c>
       <c r="N8" t="n">
-        <v>89.91132128128838</v>
+        <v>89.94498307134855</v>
       </c>
       <c r="O8" t="n">
-        <v>9.482158049794803</v>
+        <v>9.48393289049161</v>
       </c>
       <c r="P8" t="n">
-        <v>359.9049651536388</v>
+        <v>359.8402040513748</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22769,28 +22881,28 @@
         <v>0.0803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.216146260906947</v>
+        <v>0.2224705831805027</v>
       </c>
       <c r="J9" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03384576452920496</v>
+        <v>0.03585895149847063</v>
       </c>
       <c r="M9" t="n">
-        <v>6.667688217045891</v>
+        <v>6.675800444812948</v>
       </c>
       <c r="N9" t="n">
-        <v>71.19106092529265</v>
+        <v>71.26766713455085</v>
       </c>
       <c r="O9" t="n">
-        <v>8.437479536288823</v>
+        <v>8.442017953934405</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8925815295474</v>
+        <v>361.8279620709167</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22847,28 +22959,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1921344217644941</v>
+        <v>0.1973550756349804</v>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03113424217064575</v>
+        <v>0.03289378265574927</v>
       </c>
       <c r="M10" t="n">
-        <v>6.170794647270482</v>
+        <v>6.176698721574327</v>
       </c>
       <c r="N10" t="n">
-        <v>59.83806301960598</v>
+        <v>59.8459741451033</v>
       </c>
       <c r="O10" t="n">
-        <v>7.735506642722633</v>
+        <v>7.736017977299645</v>
       </c>
       <c r="P10" t="n">
-        <v>367.2506237358256</v>
+        <v>367.1964083775133</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22925,28 +23037,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1848725152853356</v>
+        <v>0.1915007437867499</v>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0265568049926066</v>
+        <v>0.02849398161269168</v>
       </c>
       <c r="M11" t="n">
-        <v>6.412295630512697</v>
+        <v>6.421525710221566</v>
       </c>
       <c r="N11" t="n">
-        <v>64.34727736420764</v>
+        <v>64.45104114953701</v>
       </c>
       <c r="O11" t="n">
-        <v>8.02167547113492</v>
+        <v>8.028140578585866</v>
       </c>
       <c r="P11" t="n">
-        <v>363.666272790102</v>
+        <v>363.5973332591449</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23003,28 +23115,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2097686590356156</v>
+        <v>0.2193214948009408</v>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02966532307491543</v>
+        <v>0.03227576777312724</v>
       </c>
       <c r="M12" t="n">
-        <v>6.708361362917215</v>
+        <v>6.735716821010858</v>
       </c>
       <c r="N12" t="n">
-        <v>73.25846172569798</v>
+        <v>73.67403542916391</v>
       </c>
       <c r="O12" t="n">
-        <v>8.559115709329907</v>
+        <v>8.583358050854217</v>
       </c>
       <c r="P12" t="n">
-        <v>361.7960063207473</v>
+        <v>361.6963436702515</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23081,28 +23193,28 @@
         <v>0.0643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2803834582148364</v>
+        <v>0.2914590860722069</v>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05197379341364561</v>
+        <v>0.05563353477328148</v>
       </c>
       <c r="M13" t="n">
-        <v>6.682200111631206</v>
+        <v>6.717251013462371</v>
       </c>
       <c r="N13" t="n">
-        <v>74.07658525516665</v>
+        <v>74.7489296316533</v>
       </c>
       <c r="O13" t="n">
-        <v>8.606775543440566</v>
+        <v>8.645746331673935</v>
       </c>
       <c r="P13" t="n">
-        <v>364.065897340512</v>
+        <v>363.950895205437</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23159,28 +23271,28 @@
         <v>0.055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3385232102755751</v>
+        <v>0.3453271907077711</v>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05192425403298673</v>
+        <v>0.05427018551980511</v>
       </c>
       <c r="M14" t="n">
-        <v>7.766601802908998</v>
+        <v>7.77661114119244</v>
       </c>
       <c r="N14" t="n">
-        <v>107.0943412056892</v>
+        <v>107.1097087545394</v>
       </c>
       <c r="O14" t="n">
-        <v>10.34863958236488</v>
+        <v>10.34938204698905</v>
       </c>
       <c r="P14" t="n">
-        <v>366.5505821135118</v>
+        <v>366.4796135991305</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23237,28 +23349,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5086300393788802</v>
+        <v>0.5303208722163516</v>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K15" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05785594172207009</v>
+        <v>0.06278920985687397</v>
       </c>
       <c r="M15" t="n">
-        <v>11.89768754891835</v>
+        <v>11.92625117943043</v>
       </c>
       <c r="N15" t="n">
-        <v>224.9697172551893</v>
+        <v>225.899679338965</v>
       </c>
       <c r="O15" t="n">
-        <v>14.99899054120607</v>
+        <v>15.02995939245895</v>
       </c>
       <c r="P15" t="n">
-        <v>370.4309723911105</v>
+        <v>370.210624076098</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23315,28 +23427,28 @@
         <v>0.0308</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05495737624428168</v>
+        <v>0.06539300959404588</v>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006333623734599003</v>
+        <v>0.0009050276888875608</v>
       </c>
       <c r="M16" t="n">
-        <v>12.26215457825868</v>
+        <v>12.25414300321184</v>
       </c>
       <c r="N16" t="n">
-        <v>250.6618444673201</v>
+        <v>250.0694491693739</v>
       </c>
       <c r="O16" t="n">
-        <v>15.83230382690151</v>
+        <v>15.81358432390879</v>
       </c>
       <c r="P16" t="n">
-        <v>366.7764909355582</v>
+        <v>366.6696005074838</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23374,7 +23486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q341"/>
+  <dimension ref="A1:Q343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50185,6 +50297,136 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-36.72365966583788,175.71709095180083</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-36.72361366458485,175.717992051539</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-36.72347503109195,175.71885956167375</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-36.723324559880794,175.71970835942753</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-36.72321150765549,175.7205947550597</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-36.72299252366294,175.721452037551</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-36.7228153936718,175.72232632245024</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-36.72260328971055,175.7231852201595</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-36.72238447594981,175.72401854556028</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-36.72208449548586,175.7247994355555</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-36.721699331629864,175.72554552014068</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-36.72127048086158,175.7262397434753</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-36.72081909286884,175.72690541858543</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>-36.72028234988971,175.7273274951124</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>-36.719790456166656,175.7278908506132</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-36.72380419068852,175.71712122612686</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-36.72094183830535,175.7270421133828</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-36.72040106700292,175.72753910727343</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-36.71986454829251,175.72810328875093</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q343"/>
+  <dimension ref="A1:Q344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18563,6 +18563,63 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>386.53</v>
+      </c>
+      <c r="C344" t="n">
+        <v>374.915</v>
+      </c>
+      <c r="D344" t="n">
+        <v>384.5436363636364</v>
+      </c>
+      <c r="E344" t="n">
+        <v>375.3346153846153</v>
+      </c>
+      <c r="F344" t="n">
+        <v>371.11</v>
+      </c>
+      <c r="G344" t="n">
+        <v>368.0466666666667</v>
+      </c>
+      <c r="H344" t="n">
+        <v>359.9036363636364</v>
+      </c>
+      <c r="I344" t="n">
+        <v>367.9566666666667</v>
+      </c>
+      <c r="J344" t="n">
+        <v>373.43</v>
+      </c>
+      <c r="K344" t="n">
+        <v>373.6466666666667</v>
+      </c>
+      <c r="L344" t="n">
+        <v>368.8233333333333</v>
+      </c>
+      <c r="M344" t="n">
+        <v>375.5333333333333</v>
+      </c>
+      <c r="N344" t="n">
+        <v>377.51</v>
+      </c>
+      <c r="O344" t="n">
+        <v>394.07</v>
+      </c>
+      <c r="P344" t="n">
+        <v>363.11</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18574,7 +18631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22162,6 +22219,16 @@
       </c>
       <c r="B358" t="n">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -22335,28 +22402,28 @@
         <v>0.0424</v>
       </c>
       <c r="I2" t="n">
-        <v>0.268507893516961</v>
+        <v>0.267839850247153</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K2" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04474017103229955</v>
+        <v>0.04484390600253252</v>
       </c>
       <c r="M2" t="n">
-        <v>7.188209561748152</v>
+        <v>7.167051918998384</v>
       </c>
       <c r="N2" t="n">
-        <v>80.946781809236</v>
+        <v>80.67271953399323</v>
       </c>
       <c r="O2" t="n">
-        <v>8.99704294805999</v>
+        <v>8.981799348348483</v>
       </c>
       <c r="P2" t="n">
-        <v>380.5609206384387</v>
+        <v>380.5677361656312</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22413,28 +22480,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3444232829247179</v>
+        <v>0.3441409385838259</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07632892958643611</v>
+        <v>0.07669739399286934</v>
       </c>
       <c r="M3" t="n">
-        <v>6.892584118356542</v>
+        <v>6.871228983309093</v>
       </c>
       <c r="N3" t="n">
-        <v>75.17028766320352</v>
+        <v>74.92280922252557</v>
       </c>
       <c r="O3" t="n">
-        <v>8.670080026343674</v>
+        <v>8.65579627894081</v>
       </c>
       <c r="P3" t="n">
-        <v>366.4523304574552</v>
+        <v>366.4552558093605</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22491,28 +22558,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3330065817700804</v>
+        <v>0.3386052426715936</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06063729315330568</v>
+        <v>0.0628158978211939</v>
       </c>
       <c r="M4" t="n">
-        <v>7.800137097375808</v>
+        <v>7.803092368596043</v>
       </c>
       <c r="N4" t="n">
-        <v>90.58548812227926</v>
+        <v>90.5183971446404</v>
       </c>
       <c r="O4" t="n">
-        <v>9.517640890592546</v>
+        <v>9.514115678539987</v>
       </c>
       <c r="P4" t="n">
-        <v>367.4909321516145</v>
+        <v>367.4329941273294</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22569,28 +22636,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.242276850729581</v>
+        <v>0.243353437732181</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K5" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03920321239763913</v>
+        <v>0.03979392108273838</v>
       </c>
       <c r="M5" t="n">
-        <v>6.86759471222175</v>
+        <v>6.849298792107007</v>
       </c>
       <c r="N5" t="n">
-        <v>74.6348146262969</v>
+        <v>74.39063055075775</v>
       </c>
       <c r="O5" t="n">
-        <v>8.639144322575987</v>
+        <v>8.625000321783052</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4573317498293</v>
+        <v>367.4460067312206</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22647,28 +22714,28 @@
         <v>0.074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1490701461849357</v>
+        <v>0.1511173559939783</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01852291842543163</v>
+        <v>0.01914060997911748</v>
       </c>
       <c r="M6" t="n">
-        <v>6.302110567430353</v>
+        <v>6.290670739909171</v>
       </c>
       <c r="N6" t="n">
-        <v>61.83943668666245</v>
+        <v>61.66413614976356</v>
       </c>
       <c r="O6" t="n">
-        <v>7.863805483775807</v>
+        <v>7.852651536249623</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1182065500957</v>
+        <v>364.0967938462235</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22725,28 +22792,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2305775023796436</v>
+        <v>0.2308369812653207</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K7" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03909670391370568</v>
+        <v>0.03942977599056152</v>
       </c>
       <c r="M7" t="n">
-        <v>6.593073892653601</v>
+        <v>6.573135206018137</v>
       </c>
       <c r="N7" t="n">
-        <v>69.1814173123043</v>
+        <v>68.95879255206754</v>
       </c>
       <c r="O7" t="n">
-        <v>8.317536733450854</v>
+        <v>8.304143095591956</v>
       </c>
       <c r="P7" t="n">
-        <v>361.6807911220486</v>
+        <v>361.6781121004911</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22803,28 +22870,28 @@
         <v>0.0585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2355380410364187</v>
+        <v>0.2317046040648409</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K8" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03202627367542565</v>
+        <v>0.03118608347308438</v>
       </c>
       <c r="M8" t="n">
-        <v>7.779873182866813</v>
+        <v>7.774824021954655</v>
       </c>
       <c r="N8" t="n">
-        <v>89.94498307134855</v>
+        <v>89.76709923057118</v>
       </c>
       <c r="O8" t="n">
-        <v>9.48393289049161</v>
+        <v>9.474550080640832</v>
       </c>
       <c r="P8" t="n">
-        <v>359.8402040513748</v>
+        <v>359.879449068849</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22881,28 +22948,28 @@
         <v>0.0803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2224705831805027</v>
+        <v>0.2227213103136026</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K9" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03585895149847063</v>
+        <v>0.03617265804995673</v>
       </c>
       <c r="M9" t="n">
-        <v>6.675800444812948</v>
+        <v>6.65429432042059</v>
       </c>
       <c r="N9" t="n">
-        <v>71.26766713455085</v>
+        <v>71.02575593492921</v>
       </c>
       <c r="O9" t="n">
-        <v>8.442017953934405</v>
+        <v>8.427677968155239</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8279620709167</v>
+        <v>361.8253807589529</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22959,28 +23026,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1973550756349804</v>
+        <v>0.1981078912756439</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K10" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03289378265574927</v>
+        <v>0.03335391478718908</v>
       </c>
       <c r="M10" t="n">
-        <v>6.176698721574327</v>
+        <v>6.159605779932765</v>
       </c>
       <c r="N10" t="n">
-        <v>59.8459741451033</v>
+        <v>59.64744574910814</v>
       </c>
       <c r="O10" t="n">
-        <v>7.736017977299645</v>
+        <v>7.723175884900469</v>
       </c>
       <c r="P10" t="n">
-        <v>367.1964083775133</v>
+        <v>367.1885325581806</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23037,28 +23104,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1915007437867499</v>
+        <v>0.1949734883958912</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K11" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02849398161269168</v>
+        <v>0.02967043369238331</v>
       </c>
       <c r="M11" t="n">
-        <v>6.421525710221566</v>
+        <v>6.415682734297954</v>
       </c>
       <c r="N11" t="n">
-        <v>64.45104114953701</v>
+        <v>64.3195073602357</v>
       </c>
       <c r="O11" t="n">
-        <v>8.028140578585866</v>
+        <v>8.019944348948794</v>
       </c>
       <c r="P11" t="n">
-        <v>363.5973332591449</v>
+        <v>363.5609552630676</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23115,28 +23182,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2193214948009408</v>
+        <v>0.2203184837729761</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03227576777312724</v>
+        <v>0.03278217489938517</v>
       </c>
       <c r="M12" t="n">
-        <v>6.735716821010858</v>
+        <v>6.718194776275062</v>
       </c>
       <c r="N12" t="n">
-        <v>73.67403542916391</v>
+        <v>73.43310964805833</v>
       </c>
       <c r="O12" t="n">
-        <v>8.583358050854217</v>
+        <v>8.569312087213206</v>
       </c>
       <c r="P12" t="n">
-        <v>361.6963436702515</v>
+        <v>361.6858691742366</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23193,28 +23260,28 @@
         <v>0.0643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2914590860722069</v>
+        <v>0.2941792364194686</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K13" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05563353477328148</v>
+        <v>0.05695174458363661</v>
       </c>
       <c r="M13" t="n">
-        <v>6.717251013462371</v>
+        <v>6.708932530895782</v>
       </c>
       <c r="N13" t="n">
-        <v>74.7489296316533</v>
+        <v>74.55140413345413</v>
       </c>
       <c r="O13" t="n">
-        <v>8.645746331673935</v>
+        <v>8.634315498836843</v>
       </c>
       <c r="P13" t="n">
-        <v>363.950895205437</v>
+        <v>363.922446575525</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23271,28 +23338,28 @@
         <v>0.055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3453271907077711</v>
+        <v>0.3467450220617013</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K14" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05427018551980511</v>
+        <v>0.05504506283651467</v>
       </c>
       <c r="M14" t="n">
-        <v>7.77661114119244</v>
+        <v>7.75753327209824</v>
       </c>
       <c r="N14" t="n">
-        <v>107.1097087545394</v>
+        <v>106.7627783953737</v>
       </c>
       <c r="O14" t="n">
-        <v>10.34938204698905</v>
+        <v>10.33260753127562</v>
       </c>
       <c r="P14" t="n">
-        <v>366.4796135991305</v>
+        <v>366.4647056213588</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23349,28 +23416,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5303208722163516</v>
+        <v>0.5378124233796605</v>
       </c>
       <c r="J15" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K15" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06278920985687397</v>
+        <v>0.06482216505675364</v>
       </c>
       <c r="M15" t="n">
-        <v>11.92625117943043</v>
+        <v>11.92207457362577</v>
       </c>
       <c r="N15" t="n">
-        <v>225.899679338965</v>
+        <v>225.4254797923483</v>
       </c>
       <c r="O15" t="n">
-        <v>15.02995939245895</v>
+        <v>15.01417596114912</v>
       </c>
       <c r="P15" t="n">
-        <v>370.210624076098</v>
+        <v>370.1339622315992</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23427,28 +23494,28 @@
         <v>0.0308</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06539300959404588</v>
+        <v>0.06183567317108787</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K16" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0009050276888875608</v>
+        <v>0.0008147573283676657</v>
       </c>
       <c r="M16" t="n">
-        <v>12.25414300321184</v>
+        <v>12.22762287703017</v>
       </c>
       <c r="N16" t="n">
-        <v>250.0694491693739</v>
+        <v>249.2957877095103</v>
       </c>
       <c r="O16" t="n">
-        <v>15.81358432390879</v>
+        <v>15.78910344856573</v>
       </c>
       <c r="P16" t="n">
-        <v>366.6696005074838</v>
+        <v>366.7063213038301</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23486,7 +23553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q343"/>
+  <dimension ref="A1:Q344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50427,6 +50494,93 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-36.72372468869824,175.71710457244032</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-36.72372145846492,175.71801463247309</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-36.72353161635399,175.71887435692545</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-36.72345323114947,175.71975518112254</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-36.72327651645236,175.72062168195512</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-36.723087689963414,175.7214905226658</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-36.72295237649762,175.72237978209375</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-36.72268252078796,175.7232157960139</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-36.72243995284266,175.72404741970456</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-36.72211999535919,175.72482488566072</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-36.7217934455833,175.72562108734854</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-36.72135895726235,175.7263229699521</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-36.72089951462571,175.72699497977203</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-36.72036326298574,175.727471721813</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-36.719873393483496,175.7281286499272</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q344"/>
+  <dimension ref="A1:Q346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18620,6 +18620,120 @@
         </is>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>393.59</v>
+      </c>
+      <c r="C345" t="n">
+        <v>377.52</v>
+      </c>
+      <c r="D345" t="n">
+        <v>374.4918181818182</v>
+      </c>
+      <c r="E345" t="n">
+        <v>374.54</v>
+      </c>
+      <c r="F345" t="n">
+        <v>371.7928571428571</v>
+      </c>
+      <c r="G345" t="n">
+        <v>367.54</v>
+      </c>
+      <c r="H345" t="n">
+        <v>359.6918181818182</v>
+      </c>
+      <c r="I345" t="n">
+        <v>362.72</v>
+      </c>
+      <c r="J345" t="n">
+        <v>371.7328571428571</v>
+      </c>
+      <c r="K345" t="n">
+        <v>364.7</v>
+      </c>
+      <c r="L345" t="n">
+        <v>358.53</v>
+      </c>
+      <c r="M345" t="n">
+        <v>365.98</v>
+      </c>
+      <c r="N345" t="n">
+        <v>376.15</v>
+      </c>
+      <c r="O345" t="n">
+        <v>396.9</v>
+      </c>
+      <c r="P345" t="n">
+        <v>348.97</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>384.95</v>
+      </c>
+      <c r="C346" t="n">
+        <v>372.885</v>
+      </c>
+      <c r="D346" t="n">
+        <v>367.2445454545455</v>
+      </c>
+      <c r="E346" t="n">
+        <v>361.1246153846154</v>
+      </c>
+      <c r="F346" t="n">
+        <v>360.3728571428572</v>
+      </c>
+      <c r="G346" t="n">
+        <v>356.85</v>
+      </c>
+      <c r="H346" t="n">
+        <v>357.6145454545455</v>
+      </c>
+      <c r="I346" t="n">
+        <v>361.46</v>
+      </c>
+      <c r="J346" t="n">
+        <v>359.7528571428572</v>
+      </c>
+      <c r="K346" t="n">
+        <v>361.27</v>
+      </c>
+      <c r="L346" t="n">
+        <v>354.44</v>
+      </c>
+      <c r="M346" t="n">
+        <v>360.08</v>
+      </c>
+      <c r="N346" t="n">
+        <v>362.47</v>
+      </c>
+      <c r="O346" t="n">
+        <v>358.57</v>
+      </c>
+      <c r="P346" t="n">
+        <v>358.57</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18631,7 +18745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22229,6 +22343,26 @@
       </c>
       <c r="B359" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -22402,28 +22536,28 @@
         <v>0.0424</v>
       </c>
       <c r="I2" t="n">
-        <v>0.267839850247153</v>
+        <v>0.270246661721988</v>
       </c>
       <c r="J2" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04484390600253252</v>
+        <v>0.04618062499231668</v>
       </c>
       <c r="M2" t="n">
-        <v>7.167051918998384</v>
+        <v>7.147147584402325</v>
       </c>
       <c r="N2" t="n">
-        <v>80.67271953399323</v>
+        <v>80.27193744304279</v>
       </c>
       <c r="O2" t="n">
-        <v>8.981799348348483</v>
+        <v>8.959460778587225</v>
       </c>
       <c r="P2" t="n">
-        <v>380.5677361656312</v>
+        <v>380.543150814683</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22480,28 +22614,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3441409385838259</v>
+        <v>0.3439334562065778</v>
       </c>
       <c r="J3" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07669739399286934</v>
+        <v>0.07754517030570207</v>
       </c>
       <c r="M3" t="n">
-        <v>6.871228983309093</v>
+        <v>6.84137138774647</v>
       </c>
       <c r="N3" t="n">
-        <v>74.92280922252557</v>
+        <v>74.46700651643022</v>
       </c>
       <c r="O3" t="n">
-        <v>8.65579627894081</v>
+        <v>8.629426777974897</v>
       </c>
       <c r="P3" t="n">
-        <v>366.4552558093605</v>
+        <v>366.4574270141546</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22558,28 +22692,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3386052426715936</v>
+        <v>0.3316499186052689</v>
       </c>
       <c r="J4" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0628158978211939</v>
+        <v>0.06102327744724512</v>
       </c>
       <c r="M4" t="n">
-        <v>7.803092368596043</v>
+        <v>7.784846549050648</v>
       </c>
       <c r="N4" t="n">
-        <v>90.5183971446404</v>
+        <v>90.1858114765639</v>
       </c>
       <c r="O4" t="n">
-        <v>9.514115678539987</v>
+        <v>9.496621055752614</v>
       </c>
       <c r="P4" t="n">
-        <v>367.4329941273294</v>
+        <v>367.5051836723478</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22636,28 +22770,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.243353437732181</v>
+        <v>0.2356077190336962</v>
       </c>
       <c r="J5" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03979392108273838</v>
+        <v>0.03762218883927282</v>
       </c>
       <c r="M5" t="n">
-        <v>6.849298792107007</v>
+        <v>6.851991752967004</v>
       </c>
       <c r="N5" t="n">
-        <v>74.39063055075775</v>
+        <v>74.42348411872334</v>
       </c>
       <c r="O5" t="n">
-        <v>8.625000321783052</v>
+        <v>8.626904666143201</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4460067312206</v>
+        <v>367.5277464793924</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22714,28 +22848,28 @@
         <v>0.074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1511173559939783</v>
+        <v>0.1486380985955951</v>
       </c>
       <c r="J6" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01914060997911748</v>
+        <v>0.01869912821180808</v>
       </c>
       <c r="M6" t="n">
-        <v>6.290670739909171</v>
+        <v>6.287761855333815</v>
       </c>
       <c r="N6" t="n">
-        <v>61.66413614976356</v>
+        <v>61.4941652233189</v>
       </c>
       <c r="O6" t="n">
-        <v>7.852651536249623</v>
+        <v>7.841821550081263</v>
       </c>
       <c r="P6" t="n">
-        <v>364.0967938462235</v>
+        <v>364.1228350694479</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22792,28 +22926,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2308369812653207</v>
+        <v>0.2240467760082666</v>
       </c>
       <c r="J7" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03942977599056152</v>
+        <v>0.03750503660022475</v>
       </c>
       <c r="M7" t="n">
-        <v>6.573135206018137</v>
+        <v>6.56525693831014</v>
       </c>
       <c r="N7" t="n">
-        <v>68.95879255206754</v>
+        <v>68.88724049049338</v>
       </c>
       <c r="O7" t="n">
-        <v>8.304143095591956</v>
+        <v>8.299833762822805</v>
       </c>
       <c r="P7" t="n">
-        <v>361.6781121004911</v>
+        <v>361.7484368886979</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22870,28 +23004,28 @@
         <v>0.0585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2317046040648409</v>
+        <v>0.2226364189083317</v>
       </c>
       <c r="J8" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K8" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03118608347308438</v>
+        <v>0.02912703138550876</v>
       </c>
       <c r="M8" t="n">
-        <v>7.774824021954655</v>
+        <v>7.772034607931575</v>
       </c>
       <c r="N8" t="n">
-        <v>89.76709923057118</v>
+        <v>89.52171847973504</v>
       </c>
       <c r="O8" t="n">
-        <v>9.474550080640832</v>
+        <v>9.461591751905967</v>
       </c>
       <c r="P8" t="n">
-        <v>359.879449068849</v>
+        <v>359.9725370764493</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22948,28 +23082,28 @@
         <v>0.0803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2227213103136026</v>
+        <v>0.2156414296493259</v>
       </c>
       <c r="J9" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K9" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03617265804995673</v>
+        <v>0.03433535011690014</v>
       </c>
       <c r="M9" t="n">
-        <v>6.65429432042059</v>
+        <v>6.648672816114559</v>
       </c>
       <c r="N9" t="n">
-        <v>71.02575593492921</v>
+        <v>70.74878019568747</v>
       </c>
       <c r="O9" t="n">
-        <v>8.427677968155239</v>
+        <v>8.411229410477844</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8253807589529</v>
+        <v>361.898469314411</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23026,28 +23160,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1981078912756439</v>
+        <v>0.1895270148168393</v>
       </c>
       <c r="J10" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K10" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03335391478718908</v>
+        <v>0.03075244016089107</v>
       </c>
       <c r="M10" t="n">
-        <v>6.159605779932765</v>
+        <v>6.162124404847273</v>
       </c>
       <c r="N10" t="n">
-        <v>59.64744574910814</v>
+        <v>59.77260526561562</v>
       </c>
       <c r="O10" t="n">
-        <v>7.723175884900469</v>
+        <v>7.731274491674424</v>
       </c>
       <c r="P10" t="n">
-        <v>367.1885325581806</v>
+        <v>367.2785810221365</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23104,28 +23238,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1949734883958912</v>
+        <v>0.1874394804472885</v>
       </c>
       <c r="J11" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K11" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02967043369238331</v>
+        <v>0.02776443976190301</v>
       </c>
       <c r="M11" t="n">
-        <v>6.415682734297954</v>
+        <v>6.41246045233744</v>
       </c>
       <c r="N11" t="n">
-        <v>64.3195073602357</v>
+        <v>64.11396093259019</v>
       </c>
       <c r="O11" t="n">
-        <v>8.019944348948794</v>
+        <v>8.007119390429381</v>
       </c>
       <c r="P11" t="n">
-        <v>363.5609552630676</v>
+        <v>363.6400866887312</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23182,28 +23316,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2203184837729761</v>
+        <v>0.2056891402109946</v>
       </c>
       <c r="J12" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K12" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03278217489938517</v>
+        <v>0.02878027456789034</v>
       </c>
       <c r="M12" t="n">
-        <v>6.718194776275062</v>
+        <v>6.741707636204941</v>
       </c>
       <c r="N12" t="n">
-        <v>73.43310964805833</v>
+        <v>73.7486368895416</v>
       </c>
       <c r="O12" t="n">
-        <v>8.569312087213206</v>
+        <v>8.587702654932901</v>
       </c>
       <c r="P12" t="n">
-        <v>361.6858691742366</v>
+        <v>361.8399610023034</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23260,28 +23394,28 @@
         <v>0.0643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2941792364194686</v>
+        <v>0.2829396451693397</v>
       </c>
       <c r="J13" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05695174458363661</v>
+        <v>0.05324169691998104</v>
       </c>
       <c r="M13" t="n">
-        <v>6.708932530895782</v>
+        <v>6.718455659379923</v>
       </c>
       <c r="N13" t="n">
-        <v>74.55140413345413</v>
+        <v>74.58521591871337</v>
       </c>
       <c r="O13" t="n">
-        <v>8.634315498836843</v>
+        <v>8.636273265634511</v>
       </c>
       <c r="P13" t="n">
-        <v>363.922446575525</v>
+        <v>364.0403152429819</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23338,28 +23472,28 @@
         <v>0.055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3467450220617013</v>
+        <v>0.3386350196818494</v>
       </c>
       <c r="J14" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K14" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05504506283651467</v>
+        <v>0.05305815114258705</v>
       </c>
       <c r="M14" t="n">
-        <v>7.75753327209824</v>
+        <v>7.751058276540096</v>
       </c>
       <c r="N14" t="n">
-        <v>106.7627783953737</v>
+        <v>106.6074937983051</v>
       </c>
       <c r="O14" t="n">
-        <v>10.33260753127562</v>
+        <v>10.32509049831066</v>
       </c>
       <c r="P14" t="n">
-        <v>366.4647056213588</v>
+        <v>366.5502448043423</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23416,28 +23550,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5378124233796605</v>
+        <v>0.5286349099024309</v>
       </c>
       <c r="J15" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K15" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06482216505675364</v>
+        <v>0.06285594294717545</v>
       </c>
       <c r="M15" t="n">
-        <v>11.92207457362577</v>
+        <v>11.97419805962923</v>
       </c>
       <c r="N15" t="n">
-        <v>225.4254797923483</v>
+        <v>226.8025912591919</v>
       </c>
       <c r="O15" t="n">
-        <v>15.01417596114912</v>
+        <v>15.05996650923208</v>
       </c>
       <c r="P15" t="n">
-        <v>370.1339622315992</v>
+        <v>370.2282807889904</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23494,28 +23628,28 @@
         <v>0.0308</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06183567317108787</v>
+        <v>0.04244298186010709</v>
       </c>
       <c r="J16" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K16" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0008147573283676657</v>
+        <v>0.000386957933046328</v>
       </c>
       <c r="M16" t="n">
-        <v>12.22762287703017</v>
+        <v>12.23155607039739</v>
       </c>
       <c r="N16" t="n">
-        <v>249.2957877095103</v>
+        <v>249.1624836576842</v>
       </c>
       <c r="O16" t="n">
-        <v>15.78910344856573</v>
+        <v>15.78488149013746</v>
       </c>
       <c r="P16" t="n">
-        <v>366.7063213038301</v>
+        <v>366.9069898153094</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23553,7 +23687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q344"/>
+  <dimension ref="A1:Q346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32570,7 +32704,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-36.723169036721075,175.72152341926378</t>
+          <t>-36.72316903672107,175.72152341926378</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -42306,7 +42440,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>-36.72257392574702,175.72317388840867</t>
+          <t>-36.722573925747014,175.72317388840867</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -42743,7 +42877,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>-36.72214413006787,175.7248421880171</t>
+          <t>-36.72214413006786,175.7248421880171</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -49681,7 +49815,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-36.72373460514275,175.71801738647744</t>
+          <t>-36.723734605142745,175.71801738647744</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -50581,6 +50715,180 @@
         </is>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-36.723661975393085,175.7170914355936</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-36.72369831853508,175.71800978505593</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-36.723620224652606,175.7188975252362</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-36.72346010062105,175.71975768083325</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-36.72327068092128,175.72061926485344</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-36.723092029980286,175.72149227776498</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-36.72295419689313,175.7223804925324</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-36.72272757037486,175.72323318101232</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-36.722454053514866,175.72405475871093</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-36.7221897987539,175.72487492828242</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-36.72187131903652,175.72568361469874</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-36.72142756472809,175.72638750663393</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-36.72090863668839,175.72700513851734</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-36.72034868731146,175.7274457407877</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>-36.71992402940707,175.7282738350676</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-36.7237387236868,175.71710751241787</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-36.72373949073244,175.71801840992526</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-36.723684110453696,175.7189142294219</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-36.72357607697367,175.7197998831858</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-36.72336827345506,175.72065968814968</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-36.72318359861735,175.7215293080975</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-36.72297204926928,175.72238745971174</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-36.72273840980387,175.72323736403874</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-36.722553589051074,175.72410656426908</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-36.72221656018274,175.72489411379814</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-36.72190226161867,175.72570845963708</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-36.72146993568287,175.7264273636101</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-36.72100039385273,175.72710732367818</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-36.72054610219661,175.7277976330206</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-36.719889651431096,175.72817526522124</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q346"/>
+  <dimension ref="A1:Q347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18734,6 +18734,63 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>383.29</v>
+      </c>
+      <c r="C347" t="n">
+        <v>373.63</v>
+      </c>
+      <c r="D347" t="n">
+        <v>366.21</v>
+      </c>
+      <c r="E347" t="n">
+        <v>369.7615384615385</v>
+      </c>
+      <c r="F347" t="n">
+        <v>361.8685714285714</v>
+      </c>
+      <c r="G347" t="n">
+        <v>358.8766666666667</v>
+      </c>
+      <c r="H347" t="n">
+        <v>356.97</v>
+      </c>
+      <c r="I347" t="n">
+        <v>361.4366666666667</v>
+      </c>
+      <c r="J347" t="n">
+        <v>366.8385714285714</v>
+      </c>
+      <c r="K347" t="n">
+        <v>366.2966666666666</v>
+      </c>
+      <c r="L347" t="n">
+        <v>360.9033333333333</v>
+      </c>
+      <c r="M347" t="n">
+        <v>365.9133333333333</v>
+      </c>
+      <c r="N347" t="n">
+        <v>367.73</v>
+      </c>
+      <c r="O347" t="n">
+        <v>370.14</v>
+      </c>
+      <c r="P347" t="n">
+        <v>373.81</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18745,7 +18802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22363,6 +22420,16 @@
       </c>
       <c r="B361" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -22536,28 +22603,28 @@
         <v>0.0424</v>
       </c>
       <c r="I2" t="n">
-        <v>0.270246661721988</v>
+        <v>0.2673598830367835</v>
       </c>
       <c r="J2" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04618062499231668</v>
+        <v>0.04552625943038935</v>
       </c>
       <c r="M2" t="n">
-        <v>7.147147584402325</v>
+        <v>7.137875904105126</v>
       </c>
       <c r="N2" t="n">
-        <v>80.27193744304279</v>
+        <v>80.06073409569035</v>
       </c>
       <c r="O2" t="n">
-        <v>8.959460778587225</v>
+        <v>8.947666405029322</v>
       </c>
       <c r="P2" t="n">
-        <v>380.543150814683</v>
+        <v>380.5727489115072</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22614,28 +22681,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3439334562065778</v>
+        <v>0.3428128990397457</v>
       </c>
       <c r="J3" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07754517030570207</v>
+        <v>0.0775504005614337</v>
       </c>
       <c r="M3" t="n">
-        <v>6.84137138774647</v>
+        <v>6.824544612058405</v>
       </c>
       <c r="N3" t="n">
-        <v>74.46700651643022</v>
+        <v>74.23352064957419</v>
       </c>
       <c r="O3" t="n">
-        <v>8.629426777974897</v>
+        <v>8.615887687845879</v>
       </c>
       <c r="P3" t="n">
-        <v>366.4574270141546</v>
+        <v>366.4690964247092</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22692,28 +22759,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3316499186052689</v>
+        <v>0.3252258596824195</v>
       </c>
       <c r="J4" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06102327744724512</v>
+        <v>0.05899626646201073</v>
       </c>
       <c r="M4" t="n">
-        <v>7.784846549050648</v>
+        <v>7.790100364691614</v>
       </c>
       <c r="N4" t="n">
-        <v>90.1858114765639</v>
+        <v>90.20840160169065</v>
       </c>
       <c r="O4" t="n">
-        <v>9.496621055752614</v>
+        <v>9.497810358271566</v>
       </c>
       <c r="P4" t="n">
-        <v>367.5051836723478</v>
+        <v>367.5720091953987</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22770,28 +22837,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2356077190336962</v>
+        <v>0.2330831208412053</v>
       </c>
       <c r="J5" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03762218883927282</v>
+        <v>0.03706403984599183</v>
       </c>
       <c r="M5" t="n">
-        <v>6.851991752967004</v>
+        <v>6.843050710799925</v>
       </c>
       <c r="N5" t="n">
-        <v>74.42348411872334</v>
+        <v>74.2236558649314</v>
       </c>
       <c r="O5" t="n">
-        <v>8.626904666143201</v>
+        <v>8.615315192430943</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5277464793924</v>
+        <v>367.5544419184822</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22848,28 +22915,28 @@
         <v>0.074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1486380985955951</v>
+        <v>0.1447336240973668</v>
       </c>
       <c r="J6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K6" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01869912821180808</v>
+        <v>0.01782645373742664</v>
       </c>
       <c r="M6" t="n">
-        <v>6.287761855333815</v>
+        <v>6.28847867886495</v>
       </c>
       <c r="N6" t="n">
-        <v>61.4941652233189</v>
+        <v>61.41235371737864</v>
       </c>
       <c r="O6" t="n">
-        <v>7.841821550081263</v>
+        <v>7.836603455412213</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1228350694479</v>
+        <v>364.1638903352517</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22926,28 +22993,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2240467760082666</v>
+        <v>0.2186743047538244</v>
       </c>
       <c r="J7" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K7" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03750503660022475</v>
+        <v>0.03589535569837166</v>
       </c>
       <c r="M7" t="n">
-        <v>6.56525693831014</v>
+        <v>6.57168846694877</v>
       </c>
       <c r="N7" t="n">
-        <v>68.88724049049338</v>
+        <v>68.90565468158668</v>
       </c>
       <c r="O7" t="n">
-        <v>8.299833762822805</v>
+        <v>8.300942999538467</v>
       </c>
       <c r="P7" t="n">
-        <v>361.7484368886979</v>
+        <v>361.8041953697827</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23004,28 +23071,28 @@
         <v>0.0585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2226364189083317</v>
+        <v>0.2171528492863597</v>
       </c>
       <c r="J8" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02912703138550876</v>
+        <v>0.0278513318052791</v>
       </c>
       <c r="M8" t="n">
-        <v>7.772034607931575</v>
+        <v>7.776116332448043</v>
       </c>
       <c r="N8" t="n">
-        <v>89.52171847973504</v>
+        <v>89.4785470432831</v>
       </c>
       <c r="O8" t="n">
-        <v>9.461591751905967</v>
+        <v>9.459310072266534</v>
       </c>
       <c r="P8" t="n">
-        <v>359.9725370764493</v>
+        <v>360.028972879134</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23082,28 +23149,28 @@
         <v>0.0803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2156414296493259</v>
+        <v>0.2117630818292553</v>
       </c>
       <c r="J9" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K9" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03433535011690014</v>
+        <v>0.03331032362579245</v>
       </c>
       <c r="M9" t="n">
-        <v>6.648672816114559</v>
+        <v>6.647657655887348</v>
       </c>
       <c r="N9" t="n">
-        <v>70.74878019568747</v>
+        <v>70.63274131023391</v>
       </c>
       <c r="O9" t="n">
-        <v>8.411229410477844</v>
+        <v>8.404328724546293</v>
       </c>
       <c r="P9" t="n">
-        <v>361.898469314411</v>
+        <v>361.938612201846</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23160,28 +23227,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1895270148168393</v>
+        <v>0.1860511057265846</v>
       </c>
       <c r="J10" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03075244016089107</v>
+        <v>0.02981505698425035</v>
       </c>
       <c r="M10" t="n">
-        <v>6.162124404847273</v>
+        <v>6.159256598171564</v>
       </c>
       <c r="N10" t="n">
-        <v>59.77260526561562</v>
+        <v>59.66729136160321</v>
       </c>
       <c r="O10" t="n">
-        <v>7.731274491674424</v>
+        <v>7.724460587096242</v>
       </c>
       <c r="P10" t="n">
-        <v>367.2785810221365</v>
+        <v>367.315135587766</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23238,28 +23305,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1874394804472885</v>
+        <v>0.1859702803508466</v>
       </c>
       <c r="J11" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02776443976190301</v>
+        <v>0.02752135928450017</v>
       </c>
       <c r="M11" t="n">
-        <v>6.41246045233744</v>
+        <v>6.398630675681458</v>
       </c>
       <c r="N11" t="n">
-        <v>64.11396093259019</v>
+        <v>63.91428070531703</v>
       </c>
       <c r="O11" t="n">
-        <v>8.007119390429381</v>
+        <v>7.994640748984098</v>
       </c>
       <c r="P11" t="n">
-        <v>363.6400866887312</v>
+        <v>363.6555546949677</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23316,28 +23383,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2056891402109946</v>
+        <v>0.2015039091522453</v>
       </c>
       <c r="J12" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02878027456789034</v>
+        <v>0.02779353213051938</v>
       </c>
       <c r="M12" t="n">
-        <v>6.741707636204941</v>
+        <v>6.738682240387187</v>
       </c>
       <c r="N12" t="n">
-        <v>73.7486368895416</v>
+        <v>73.63253737776695</v>
       </c>
       <c r="O12" t="n">
-        <v>8.587702654932901</v>
+        <v>8.580940355099024</v>
       </c>
       <c r="P12" t="n">
-        <v>361.8399610023034</v>
+        <v>361.8841498799993</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23394,28 +23461,28 @@
         <v>0.0643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2829396451693397</v>
+        <v>0.2793480020677996</v>
       </c>
       <c r="J13" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K13" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05324169691998104</v>
+        <v>0.05224043831902792</v>
       </c>
       <c r="M13" t="n">
-        <v>6.718455659379923</v>
+        <v>6.713453278198937</v>
       </c>
       <c r="N13" t="n">
-        <v>74.58521591871337</v>
+        <v>74.43462114729429</v>
       </c>
       <c r="O13" t="n">
-        <v>8.636273265634511</v>
+        <v>8.627550124299152</v>
       </c>
       <c r="P13" t="n">
-        <v>364.0403152429819</v>
+        <v>364.0780701602291</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23472,28 +23539,28 @@
         <v>0.055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3386350196818494</v>
+        <v>0.3336347057766053</v>
       </c>
       <c r="J14" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K14" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05305815114258705</v>
+        <v>0.05182860384402388</v>
       </c>
       <c r="M14" t="n">
-        <v>7.751058276540096</v>
+        <v>7.750084057604282</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6074937983051</v>
+        <v>106.4422746583714</v>
       </c>
       <c r="O14" t="n">
-        <v>10.32509049831066</v>
+        <v>10.3170865392499</v>
       </c>
       <c r="P14" t="n">
-        <v>366.5502448043423</v>
+        <v>366.6030895025954</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23550,28 +23617,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5286349099024309</v>
+        <v>0.5187040060725769</v>
       </c>
       <c r="J15" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K15" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06285594294717545</v>
+        <v>0.06090841123843294</v>
       </c>
       <c r="M15" t="n">
-        <v>11.97419805962923</v>
+        <v>11.97789446099652</v>
       </c>
       <c r="N15" t="n">
-        <v>226.8025912591919</v>
+        <v>226.6564549812694</v>
       </c>
       <c r="O15" t="n">
-        <v>15.05996650923208</v>
+        <v>15.0551139145896</v>
       </c>
       <c r="P15" t="n">
-        <v>370.2282807889904</v>
+        <v>370.3304493671655</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23628,28 +23695,28 @@
         <v>0.0308</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04244298186010709</v>
+        <v>0.04629495524068367</v>
       </c>
       <c r="J16" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K16" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000386957933046328</v>
+        <v>0.000463339506168392</v>
       </c>
       <c r="M16" t="n">
-        <v>12.23155607039739</v>
+        <v>12.21158860254037</v>
       </c>
       <c r="N16" t="n">
-        <v>249.1624836576842</v>
+        <v>248.420755034441</v>
       </c>
       <c r="O16" t="n">
-        <v>15.78488149013746</v>
+        <v>15.76136907233763</v>
       </c>
       <c r="P16" t="n">
-        <v>366.9069898153094</v>
+        <v>366.8670193983438</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23687,7 +23754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q346"/>
+  <dimension ref="A1:Q347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50889,6 +50956,93 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-36.723753469307546,175.71711060125637</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-36.72373287297913,175.7180170236187</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-36.72369323012743,175.71891661394065</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-36.7235014105492,175.71977271298576</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-36.723355491446796,175.72065439377377</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-36.723166238552714,175.72152228768422</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-36.722977588584136,175.72238962151994</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-36.72273861053404,175.7232374415022</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-36.722494717571266,175.72407592323512</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-36.72217734129451,175.7248659974202</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-36.7218533637619,175.7256691977594</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-36.721428043496026,175.72638795699498</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-36.720965112966475,175.7270680331561</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-36.72048651217081,175.72769141334197</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-36.7198350762185,175.72801878576215</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -18802,7 +18802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22430,6 +22430,16 @@
       </c>
       <c r="B362" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q347"/>
+  <dimension ref="A1:Q348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18791,6 +18791,63 @@
         </is>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>398.73</v>
+      </c>
+      <c r="C348" t="n">
+        <v>384.04</v>
+      </c>
+      <c r="D348" t="n">
+        <v>372.8236363636364</v>
+      </c>
+      <c r="E348" t="n">
+        <v>377.3030769230769</v>
+      </c>
+      <c r="F348" t="n">
+        <v>366.5028571428572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>367.3933333333333</v>
+      </c>
+      <c r="H348" t="n">
+        <v>368.9336363636364</v>
+      </c>
+      <c r="I348" t="n">
+        <v>362.5533333333333</v>
+      </c>
+      <c r="J348" t="n">
+        <v>367.0228571428572</v>
+      </c>
+      <c r="K348" t="n">
+        <v>367.1333333333333</v>
+      </c>
+      <c r="L348" t="n">
+        <v>366.4066666666667</v>
+      </c>
+      <c r="M348" t="n">
+        <v>361.9566666666667</v>
+      </c>
+      <c r="N348" t="n">
+        <v>375.28</v>
+      </c>
+      <c r="O348" t="n">
+        <v>378.08</v>
+      </c>
+      <c r="P348" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18802,7 +18859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B363"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22440,6 +22497,16 @@
       </c>
       <c r="B363" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -22613,28 +22680,28 @@
         <v>0.0424</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2673598830367835</v>
+        <v>0.2749394356576789</v>
       </c>
       <c r="J2" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K2" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04552625943038935</v>
+        <v>0.04811423908402901</v>
       </c>
       <c r="M2" t="n">
-        <v>7.137875904105126</v>
+        <v>7.149982068258927</v>
       </c>
       <c r="N2" t="n">
-        <v>80.06073409569035</v>
+        <v>80.20911841381678</v>
       </c>
       <c r="O2" t="n">
-        <v>8.947666405029322</v>
+        <v>8.955954355277655</v>
       </c>
       <c r="P2" t="n">
-        <v>380.5727489115072</v>
+        <v>380.4946507559102</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22691,28 +22758,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3428128990397457</v>
+        <v>0.3483602361912165</v>
       </c>
       <c r="J3" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0775504005614337</v>
+        <v>0.08013852245958109</v>
       </c>
       <c r="M3" t="n">
-        <v>6.824544612058405</v>
+        <v>6.83104475720523</v>
       </c>
       <c r="N3" t="n">
-        <v>74.23352064957419</v>
+        <v>74.23262468518413</v>
       </c>
       <c r="O3" t="n">
-        <v>8.615887687845879</v>
+        <v>8.615835692791741</v>
       </c>
       <c r="P3" t="n">
-        <v>366.4690964247092</v>
+        <v>366.4110330607982</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22769,28 +22836,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3252258596824195</v>
+        <v>0.323136130662206</v>
       </c>
       <c r="J4" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K4" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05899626646201073</v>
+        <v>0.05863985032665719</v>
       </c>
       <c r="M4" t="n">
-        <v>7.790100364691614</v>
+        <v>7.774173843500106</v>
       </c>
       <c r="N4" t="n">
-        <v>90.20840160169065</v>
+        <v>89.94187696078748</v>
       </c>
       <c r="O4" t="n">
-        <v>9.497810358271566</v>
+        <v>9.483769132617446</v>
       </c>
       <c r="P4" t="n">
-        <v>367.5720091953987</v>
+        <v>367.5938597752668</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22847,28 +22914,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2330831208412053</v>
+        <v>0.2354803893968835</v>
       </c>
       <c r="J5" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03706403984599183</v>
+        <v>0.0380253647768295</v>
       </c>
       <c r="M5" t="n">
-        <v>6.843050710799925</v>
+        <v>6.831363589637339</v>
       </c>
       <c r="N5" t="n">
-        <v>74.2236558649314</v>
+        <v>74.02021903655991</v>
       </c>
       <c r="O5" t="n">
-        <v>8.615315192430943</v>
+        <v>8.603500394406913</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5544419184822</v>
+        <v>367.5289617591754</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22925,28 +22992,28 @@
         <v>0.074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1447336240973668</v>
+        <v>0.1438188159435472</v>
       </c>
       <c r="J6" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01782645373742664</v>
+        <v>0.01771868306278768</v>
       </c>
       <c r="M6" t="n">
-        <v>6.28847867886495</v>
+        <v>6.272598662205025</v>
       </c>
       <c r="N6" t="n">
-        <v>61.41235371737864</v>
+        <v>61.21505476701655</v>
       </c>
       <c r="O6" t="n">
-        <v>7.836603455412213</v>
+        <v>7.824005033677864</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1638903352517</v>
+        <v>364.1735601435872</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23003,28 +23070,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2186743047538244</v>
+        <v>0.2186088625526383</v>
       </c>
       <c r="J7" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03589535569837166</v>
+        <v>0.03610097186169969</v>
       </c>
       <c r="M7" t="n">
-        <v>6.57168846694877</v>
+        <v>6.551089036576888</v>
       </c>
       <c r="N7" t="n">
-        <v>68.90565468158668</v>
+        <v>68.68624514118265</v>
       </c>
       <c r="O7" t="n">
-        <v>8.300942999538467</v>
+        <v>8.287716521526461</v>
       </c>
       <c r="P7" t="n">
-        <v>361.8041953697827</v>
+        <v>361.8048780888839</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23081,28 +23148,28 @@
         <v>0.0585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2171528492863597</v>
+        <v>0.2191843952830734</v>
       </c>
       <c r="J8" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0278513318052791</v>
+        <v>0.02853219585591416</v>
       </c>
       <c r="M8" t="n">
-        <v>7.776116332448043</v>
+        <v>7.760962428186903</v>
       </c>
       <c r="N8" t="n">
-        <v>89.4785470432831</v>
+        <v>89.22197858799483</v>
       </c>
       <c r="O8" t="n">
-        <v>9.459310072266534</v>
+        <v>9.44573864702993</v>
       </c>
       <c r="P8" t="n">
-        <v>360.028972879134</v>
+        <v>360.0079545453107</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23159,28 +23226,28 @@
         <v>0.0803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2117630818292553</v>
+        <v>0.2086224598822344</v>
       </c>
       <c r="J9" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K9" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03331032362579245</v>
+        <v>0.03253649984396745</v>
       </c>
       <c r="M9" t="n">
-        <v>6.647657655887348</v>
+        <v>6.642453361026211</v>
       </c>
       <c r="N9" t="n">
-        <v>70.63274131023391</v>
+        <v>70.47548511090935</v>
       </c>
       <c r="O9" t="n">
-        <v>8.404328724546293</v>
+        <v>8.394967844542904</v>
       </c>
       <c r="P9" t="n">
-        <v>361.938612201846</v>
+        <v>361.9712924641299</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23237,28 +23304,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1860511057265846</v>
+        <v>0.1827145958659199</v>
       </c>
       <c r="J10" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K10" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02981505698425035</v>
+        <v>0.02893376866183961</v>
       </c>
       <c r="M10" t="n">
-        <v>6.159256598171564</v>
+        <v>6.155516728424559</v>
       </c>
       <c r="N10" t="n">
-        <v>59.66729136160321</v>
+        <v>59.55512227877117</v>
       </c>
       <c r="O10" t="n">
-        <v>7.724460587096242</v>
+        <v>7.717196529749075</v>
       </c>
       <c r="P10" t="n">
-        <v>367.315135587766</v>
+        <v>367.3504065617309</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23315,28 +23382,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1859702803508466</v>
+        <v>0.1850601015454917</v>
       </c>
       <c r="J11" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K11" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02752135928450017</v>
+        <v>0.02744357056275959</v>
       </c>
       <c r="M11" t="n">
-        <v>6.398630675681458</v>
+        <v>6.381901196634286</v>
       </c>
       <c r="N11" t="n">
-        <v>63.91428070531703</v>
+        <v>63.70599433070775</v>
       </c>
       <c r="O11" t="n">
-        <v>7.994640748984098</v>
+        <v>7.98160349370399</v>
       </c>
       <c r="P11" t="n">
-        <v>363.6555546949677</v>
+        <v>363.6651853495022</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23393,28 +23460,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2015039091522453</v>
+        <v>0.2010198699620306</v>
       </c>
       <c r="J12" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K12" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02779353213051938</v>
+        <v>0.02785285411409877</v>
       </c>
       <c r="M12" t="n">
-        <v>6.738682240387187</v>
+        <v>6.718530531883594</v>
       </c>
       <c r="N12" t="n">
-        <v>73.63253737776695</v>
+        <v>73.38963993028895</v>
       </c>
       <c r="O12" t="n">
-        <v>8.580940355099024</v>
+        <v>8.566775351921454</v>
       </c>
       <c r="P12" t="n">
-        <v>361.8841498799993</v>
+        <v>361.889285743893</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23471,28 +23538,28 @@
         <v>0.0643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2793480020677996</v>
+        <v>0.2731700869793671</v>
       </c>
       <c r="J13" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K13" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05224043831902792</v>
+        <v>0.05021121949194396</v>
       </c>
       <c r="M13" t="n">
-        <v>6.713453278198937</v>
+        <v>6.720925409488407</v>
       </c>
       <c r="N13" t="n">
-        <v>74.43462114729429</v>
+        <v>74.47781282595267</v>
       </c>
       <c r="O13" t="n">
-        <v>8.627550124299152</v>
+        <v>8.630052886625473</v>
       </c>
       <c r="P13" t="n">
-        <v>364.0780701602291</v>
+        <v>364.1433413425118</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23549,28 +23616,28 @@
         <v>0.055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3336347057766053</v>
+        <v>0.3336269738929447</v>
       </c>
       <c r="J14" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K14" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05182860384402388</v>
+        <v>0.05216446652988682</v>
       </c>
       <c r="M14" t="n">
-        <v>7.750084057604282</v>
+        <v>7.724288448906109</v>
       </c>
       <c r="N14" t="n">
-        <v>106.4422746583714</v>
+        <v>106.0874675317313</v>
       </c>
       <c r="O14" t="n">
-        <v>10.3170865392499</v>
+        <v>10.29987706391349</v>
       </c>
       <c r="P14" t="n">
-        <v>366.6030895025954</v>
+        <v>366.6031716296794</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23627,28 +23694,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5187040060725769</v>
+        <v>0.5145625894671975</v>
       </c>
       <c r="J15" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K15" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06090841123843294</v>
+        <v>0.0603952911010508</v>
       </c>
       <c r="M15" t="n">
-        <v>11.97789446099652</v>
+        <v>11.95312370958661</v>
       </c>
       <c r="N15" t="n">
-        <v>226.6564549812694</v>
+        <v>225.9248795111986</v>
       </c>
       <c r="O15" t="n">
-        <v>15.0551139145896</v>
+        <v>15.03079770042823</v>
       </c>
       <c r="P15" t="n">
-        <v>370.3304493671655</v>
+        <v>370.3732835205383</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23705,28 +23772,28 @@
         <v>0.0308</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04629495524068367</v>
+        <v>0.04876960138146289</v>
       </c>
       <c r="J16" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K16" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000463339506168392</v>
+        <v>0.0005176774634736425</v>
       </c>
       <c r="M16" t="n">
-        <v>12.21158860254037</v>
+        <v>12.18375773149842</v>
       </c>
       <c r="N16" t="n">
-        <v>248.420755034441</v>
+        <v>247.6170850372459</v>
       </c>
       <c r="O16" t="n">
-        <v>15.76136907233763</v>
+        <v>15.73585348931687</v>
       </c>
       <c r="P16" t="n">
-        <v>366.8670193983438</v>
+        <v>366.8412072271308</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23764,7 +23831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q347"/>
+  <dimension ref="A1:Q348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51053,6 +51120,93 @@
         </is>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-36.723616317262575,175.7170818713892</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-36.72364040208703,175.7179976525715</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-36.72363492992705,175.71890137021347</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-36.72343621374566,175.7197489887144</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-36.72331588797305,175.7206379898168</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-36.72309328630096,175.72149278582003</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-36.72287477139102,175.72234949548687</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-36.72272900416177,175.7232337343226</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-36.72249318643789,175.7240751263218</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-36.722170813481426,175.72486131757503</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-36.72181172870001,175.72563576749525</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-36.721456458369545,175.72641468593432</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-36.720914472125045,175.72701163712773</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-36.72044561800577,175.7276185193775</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-36.71984227414275,175.72803942378897</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q348"/>
+  <dimension ref="A1:Q349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18848,6 +18848,63 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="C349" t="n">
+        <v>377.91</v>
+      </c>
+      <c r="D349" t="n">
+        <v>384.2427272727273</v>
+      </c>
+      <c r="E349" t="n">
+        <v>376.2484615384615</v>
+      </c>
+      <c r="F349" t="n">
+        <v>374.8571428571428</v>
+      </c>
+      <c r="G349" t="n">
+        <v>371.7766666666666</v>
+      </c>
+      <c r="H349" t="n">
+        <v>371.8627272727272</v>
+      </c>
+      <c r="I349" t="n">
+        <v>363.9966666666666</v>
+      </c>
+      <c r="J349" t="n">
+        <v>372.1771428571428</v>
+      </c>
+      <c r="K349" t="n">
+        <v>365.8366666666666</v>
+      </c>
+      <c r="L349" t="n">
+        <v>369.3333333333333</v>
+      </c>
+      <c r="M349" t="n">
+        <v>372.6733333333333</v>
+      </c>
+      <c r="N349" t="n">
+        <v>377.01</v>
+      </c>
+      <c r="O349" t="n">
+        <v>397.34</v>
+      </c>
+      <c r="P349" t="n">
+        <v>339.86</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18859,7 +18916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22507,6 +22564,16 @@
       </c>
       <c r="B364" t="n">
         <v>-0.2</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -22680,28 +22747,28 @@
         <v>0.0424</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2749394356576789</v>
+        <v>0.2796290690300524</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K2" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04811423908402901</v>
+        <v>0.04994534908143955</v>
       </c>
       <c r="M2" t="n">
-        <v>7.149982068258927</v>
+        <v>7.148362196398724</v>
       </c>
       <c r="N2" t="n">
-        <v>80.20911841381678</v>
+        <v>80.09777669802567</v>
       </c>
       <c r="O2" t="n">
-        <v>8.955954355277655</v>
+        <v>8.949736124491363</v>
       </c>
       <c r="P2" t="n">
-        <v>380.4946507559102</v>
+        <v>380.4460006642531</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22758,28 +22825,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3483602361912165</v>
+        <v>0.3498901660173216</v>
       </c>
       <c r="J3" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08013852245958109</v>
+        <v>0.08128193416920426</v>
       </c>
       <c r="M3" t="n">
-        <v>6.83104475720523</v>
+        <v>6.816646347975054</v>
       </c>
       <c r="N3" t="n">
-        <v>74.23262468518413</v>
+        <v>74.00971425616258</v>
       </c>
       <c r="O3" t="n">
-        <v>8.615835692791741</v>
+        <v>8.602889878184108</v>
       </c>
       <c r="P3" t="n">
-        <v>366.4110330607982</v>
+        <v>366.394907711077</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22836,28 +22903,28 @@
         <v>0.0574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.323136130662206</v>
+        <v>0.3284735455877794</v>
       </c>
       <c r="J4" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05863985032665719</v>
+        <v>0.06073036665743392</v>
       </c>
       <c r="M4" t="n">
-        <v>7.774173843500106</v>
+        <v>7.776976078064455</v>
       </c>
       <c r="N4" t="n">
-        <v>89.94187696078748</v>
+        <v>89.86331506184342</v>
       </c>
       <c r="O4" t="n">
-        <v>9.483769132617446</v>
+        <v>9.479626314462159</v>
       </c>
       <c r="P4" t="n">
-        <v>367.5938597752668</v>
+        <v>367.5376547712362</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22914,28 +22981,28 @@
         <v>0.0722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2354803893968835</v>
+        <v>0.2371504532094315</v>
       </c>
       <c r="J5" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0380253647768295</v>
+        <v>0.03878977999244737</v>
       </c>
       <c r="M5" t="n">
-        <v>6.831363589637339</v>
+        <v>6.816251722246593</v>
       </c>
       <c r="N5" t="n">
-        <v>74.02021903655991</v>
+        <v>73.7949555055376</v>
       </c>
       <c r="O5" t="n">
-        <v>8.603500394406913</v>
+        <v>8.590399030635165</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5289617591754</v>
+        <v>367.5110850029911</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22992,28 +23059,28 @@
         <v>0.074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1438188159435472</v>
+        <v>0.1482636032503858</v>
       </c>
       <c r="J6" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K6" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01771868306278768</v>
+        <v>0.01888682149701859</v>
       </c>
       <c r="M6" t="n">
-        <v>6.272598662205025</v>
+        <v>6.273234690064271</v>
       </c>
       <c r="N6" t="n">
-        <v>61.21505476701655</v>
+        <v>61.16916055238907</v>
       </c>
       <c r="O6" t="n">
-        <v>7.824005033677864</v>
+        <v>7.821071573153456</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1735601435872</v>
+        <v>364.1262380183022</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23070,28 +23137,28 @@
         <v>0.08169999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2186088625526383</v>
+        <v>0.2212502966678188</v>
       </c>
       <c r="J7" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K7" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03610097186169969</v>
+        <v>0.03715327166164617</v>
       </c>
       <c r="M7" t="n">
-        <v>6.551089036576888</v>
+        <v>6.543922293632541</v>
       </c>
       <c r="N7" t="n">
-        <v>68.68624514118265</v>
+        <v>68.52484592147161</v>
       </c>
       <c r="O7" t="n">
-        <v>8.287716521526461</v>
+        <v>8.277973539548892</v>
       </c>
       <c r="P7" t="n">
-        <v>361.8048780888839</v>
+        <v>361.7771255042357</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23148,28 +23215,28 @@
         <v>0.0585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2191843952830734</v>
+        <v>0.2230236122699515</v>
       </c>
       <c r="J8" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K8" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02853219585591416</v>
+        <v>0.02966490627173612</v>
       </c>
       <c r="M8" t="n">
-        <v>7.760962428186903</v>
+        <v>7.754764875598503</v>
       </c>
       <c r="N8" t="n">
-        <v>89.22197858799483</v>
+        <v>89.05297352616478</v>
       </c>
       <c r="O8" t="n">
-        <v>9.44573864702993</v>
+        <v>9.436788305677137</v>
       </c>
       <c r="P8" t="n">
-        <v>360.0079545453107</v>
+        <v>359.9679472313605</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23226,28 +23293,28 @@
         <v>0.0803</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2086224598822344</v>
+        <v>0.2064080222310923</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K9" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03253649984396745</v>
+        <v>0.03206508274246278</v>
       </c>
       <c r="M9" t="n">
-        <v>6.642453361026211</v>
+        <v>6.632097633317123</v>
       </c>
       <c r="N9" t="n">
-        <v>70.47548511090935</v>
+        <v>70.27895001912671</v>
       </c>
       <c r="O9" t="n">
-        <v>8.394967844542904</v>
+        <v>8.383254142582503</v>
       </c>
       <c r="P9" t="n">
-        <v>361.9712924641299</v>
+        <v>361.9945035850317</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23304,28 +23371,28 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1827145958659199</v>
+        <v>0.1827409459466712</v>
       </c>
       <c r="J10" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K10" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02893376866183961</v>
+        <v>0.02913521130733931</v>
       </c>
       <c r="M10" t="n">
-        <v>6.155516728424559</v>
+        <v>6.135134110861739</v>
       </c>
       <c r="N10" t="n">
-        <v>59.55512227877117</v>
+        <v>59.35661058698957</v>
       </c>
       <c r="O10" t="n">
-        <v>7.717196529749075</v>
+        <v>7.704324148618721</v>
       </c>
       <c r="P10" t="n">
-        <v>367.3504065617309</v>
+        <v>367.350126023071</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23382,28 +23449,28 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1850601015454917</v>
+        <v>0.1832685925366292</v>
       </c>
       <c r="J11" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K11" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02744357056275959</v>
+        <v>0.02710607504208251</v>
       </c>
       <c r="M11" t="n">
-        <v>6.381901196634286</v>
+        <v>6.369726649616045</v>
       </c>
       <c r="N11" t="n">
-        <v>63.70599433070775</v>
+        <v>63.51663684996469</v>
       </c>
       <c r="O11" t="n">
-        <v>7.98160349370399</v>
+        <v>7.969732545698425</v>
       </c>
       <c r="P11" t="n">
-        <v>363.6651853495022</v>
+        <v>363.6842720850739</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23460,28 +23527,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2010198699620306</v>
+        <v>0.2024798199261439</v>
       </c>
       <c r="J12" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K12" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02785285411409877</v>
+        <v>0.02843808844108087</v>
       </c>
       <c r="M12" t="n">
-        <v>6.718530531883594</v>
+        <v>6.703958762717331</v>
       </c>
       <c r="N12" t="n">
-        <v>73.38963993028895</v>
+        <v>73.16217468299487</v>
       </c>
       <c r="O12" t="n">
-        <v>8.566775351921454</v>
+        <v>8.553489035650591</v>
       </c>
       <c r="P12" t="n">
-        <v>361.889285743893</v>
+        <v>361.8736900291833</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23538,28 +23605,28 @@
         <v>0.0643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2731700869793671</v>
+        <v>0.2740774236522574</v>
       </c>
       <c r="J13" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05021121949194396</v>
+        <v>0.05086118795353356</v>
       </c>
       <c r="M13" t="n">
-        <v>6.720925409488407</v>
+        <v>6.703276690591792</v>
       </c>
       <c r="N13" t="n">
-        <v>74.47781282595267</v>
+        <v>74.23658667407365</v>
       </c>
       <c r="O13" t="n">
-        <v>8.630052886625473</v>
+        <v>8.616065614540876</v>
       </c>
       <c r="P13" t="n">
-        <v>364.1433413425118</v>
+        <v>364.1336883254814</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23616,28 +23683,28 @@
         <v>0.055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3336269738929447</v>
+        <v>0.3347288769830482</v>
       </c>
       <c r="J14" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K14" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05216446652988682</v>
+        <v>0.05283488108824519</v>
       </c>
       <c r="M14" t="n">
-        <v>7.724288448906109</v>
+        <v>7.704279624973327</v>
       </c>
       <c r="N14" t="n">
-        <v>106.0874675317313</v>
+        <v>105.7441574697022</v>
       </c>
       <c r="O14" t="n">
-        <v>10.29987706391349</v>
+        <v>10.28319782313372</v>
       </c>
       <c r="P14" t="n">
-        <v>366.6031716296794</v>
+        <v>366.5913859126377</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23694,28 +23761,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5145625894671975</v>
+        <v>0.5242922889637283</v>
       </c>
       <c r="J15" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K15" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0603952911010508</v>
+        <v>0.06283171307473678</v>
       </c>
       <c r="M15" t="n">
-        <v>11.95312370958661</v>
+        <v>11.96166846508137</v>
       </c>
       <c r="N15" t="n">
-        <v>225.9248795111986</v>
+        <v>225.7516224463723</v>
       </c>
       <c r="O15" t="n">
-        <v>15.03079770042823</v>
+        <v>15.02503319285426</v>
       </c>
       <c r="P15" t="n">
-        <v>370.3732835205383</v>
+        <v>370.2719123883994</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23772,28 +23839,28 @@
         <v>0.0308</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04876960138146289</v>
+        <v>0.02993209235561731</v>
       </c>
       <c r="J16" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K16" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005176774634736425</v>
+        <v>0.000194328498993368</v>
       </c>
       <c r="M16" t="n">
-        <v>12.18375773149842</v>
+        <v>12.2283595802807</v>
       </c>
       <c r="N16" t="n">
-        <v>247.6170850372459</v>
+        <v>249.4689218415313</v>
       </c>
       <c r="O16" t="n">
-        <v>15.73585348931687</v>
+        <v>15.79458520637789</v>
       </c>
       <c r="P16" t="n">
-        <v>366.8412072271308</v>
+        <v>367.0390992735298</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23831,7 +23898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q348"/>
+  <dimension ref="A1:Q349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51207,6 +51274,93 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-36.72365300365939,175.717089556245</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-36.723694854207736,175.71800905933924</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-36.723534268913276,175.71887505048622</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-36.72344533092455,175.7197523063348</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-36.72324449427989,175.72060841824074</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-36.72305573944326,175.72147760190933</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-36.72284959836401,175.7223396713343</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-36.72271658756694,175.72322894265614</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-36.72245036217734,175.72405283747247</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-36.722180930291245,175.72486857040317</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-36.721789587214936,175.7256179893323</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-36.72137949641719,175.72634229041196</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-36.720902868325346,175.7269987146046</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-36.72034642112832,175.72744170133586</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-36.71995665259475,175.72836737382212</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -22738,13 +22738,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0397</v>
+        <v>0.0433</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0424</v>
+        <v>0.0553</v>
       </c>
       <c r="I2" t="n">
         <v>0.2796290690300524</v>
@@ -22819,10 +22819,10 @@
         <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0721</v>
+        <v>0.0708</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="I3" t="n">
         <v>0.3498899248974092</v>
@@ -22894,13 +22894,13 @@
         <v>0.8569108269545356</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0496</v>
+        <v>0.0885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0574</v>
+        <v>0.1281</v>
       </c>
       <c r="I4" t="n">
         <v>0.3284255015323747</v>
@@ -22972,13 +22972,13 @@
         <v>0.7855793278098713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0611</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0722</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>0.2371212590241749</v>
@@ -23050,13 +23050,13 @@
         <v>0.7140347412856217</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.1095</v>
       </c>
       <c r="H6" t="n">
-        <v>0.074</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.1482569298711598</v>
@@ -23128,13 +23128,13 @@
         <v>0.6424901547611735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.0878</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.1244</v>
       </c>
       <c r="I7" t="n">
         <v>0.2212289303149499</v>
@@ -23206,13 +23206,13 @@
         <v>0.5709488238134274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0532</v>
+        <v>0.0542</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0585</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.2229784946061873</v>
@@ -23287,10 +23287,10 @@
         <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0677</v>
+        <v>0.0605</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0803</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>0.2063841995665953</v>
@@ -23362,13 +23362,13 @@
         <v>0.4278596507682033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0677</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>0.1827392398499712</v>
@@ -23440,13 +23440,13 @@
         <v>0.356732265930051</v>
       </c>
       <c r="F11" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0694</v>
+        <v>0.0722</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.0955</v>
       </c>
       <c r="I11" t="n">
         <v>0.1832384514706197</v>
@@ -23518,13 +23518,13 @@
         <v>0.2851876794069201</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0573</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.066</v>
+        <v>0.0951</v>
       </c>
       <c r="I12" t="n">
         <v>0.2025108747523095</v>
@@ -23596,13 +23596,13 @@
         <v>0.2137982499965762</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0539</v>
+        <v>0.0644</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0643</v>
+        <v>0.0852</v>
       </c>
       <c r="I13" t="n">
         <v>0.2741057735993083</v>
@@ -23674,13 +23674,13 @@
         <v>0.1422536634723929</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0484</v>
+        <v>0.0587</v>
       </c>
       <c r="H14" t="n">
-        <v>0.055</v>
+        <v>0.0864</v>
       </c>
       <c r="I14" t="n">
         <v>0.3347288769830484</v>
@@ -23752,13 +23752,13 @@
         <v>0.07154458652286706</v>
       </c>
       <c r="F15" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0248</v>
+        <v>0.0349</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0283</v>
+        <v>0.0476</v>
       </c>
       <c r="I15" t="n">
         <v>0.5242922889637283</v>
@@ -23833,10 +23833,10 @@
         <v>0.025</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0245</v>
+        <v>0.0234</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0308</v>
+        <v>0.0274</v>
       </c>
       <c r="I16" t="n">
         <v>0.02993209235561749</v>

--- a/data/nzd0157/nzd0157.xlsx
+++ b/data/nzd0157/nzd0157.xlsx
@@ -578,10 +578,10 @@
         <v>365.37</v>
       </c>
       <c r="G3" t="n">
-        <v>363.18</v>
+        <v>362.85</v>
       </c>
       <c r="H3" t="n">
-        <v>354.49</v>
+        <v>353.59</v>
       </c>
       <c r="I3" t="n">
         <v>356.22</v>
@@ -635,10 +635,10 @@
         <v>354.83</v>
       </c>
       <c r="G4" t="n">
-        <v>355.77</v>
+        <v>355.73</v>
       </c>
       <c r="H4" t="n">
-        <v>349.7</v>
+        <v>349.6</v>
       </c>
       <c r="I4" t="n">
         <v>348.79</v>
@@ -692,10 +692,10 @@
         <v>367.75</v>
       </c>
       <c r="G5" t="n">
-        <v>366.42</v>
+        <v>366.7</v>
       </c>
       <c r="H5" t="n">
-        <v>368.22</v>
+        <v>368.97</v>
       </c>
       <c r="I5" t="n">
         <v>363.04</v>
@@ -749,10 +749,10 @@
         <v>371.25</v>
       </c>
       <c r="G6" t="n">
-        <v>367.66</v>
+        <v>367.48</v>
       </c>
       <c r="H6" t="n">
-        <v>365.47</v>
+        <v>364.99</v>
       </c>
       <c r="I6" t="n">
         <v>368.63</v>
@@ -806,10 +806,10 @@
         <v>374.7</v>
       </c>
       <c r="G7" t="n">
-        <v>367.22</v>
+        <v>366.99</v>
       </c>
       <c r="H7" t="n">
-        <v>368.99</v>
+        <v>368.37</v>
       </c>
       <c r="I7" t="n">
         <v>371.25</v>
@@ -863,10 +863,10 @@
         <v>366.09</v>
       </c>
       <c r="G8" t="n">
-        <v>364.28</v>
+        <v>363.96</v>
       </c>
       <c r="H8" t="n">
-        <v>357.26</v>
+        <v>356.39</v>
       </c>
       <c r="I8" t="n">
         <v>362.16</v>
@@ -920,10 +920,10 @@
         <v>357.36</v>
       </c>
       <c r="G9" t="n">
-        <v>354.93</v>
+        <v>355.19</v>
       </c>
       <c r="H9" t="n">
-        <v>352.96</v>
+        <v>353.65</v>
       </c>
       <c r="I9" t="n">
         <v>357.06</v>
@@ -977,10 +977,10 @@
         <v>360.27</v>
       </c>
       <c r="G10" t="n">
-        <v>355.13</v>
+        <v>355.2</v>
       </c>
       <c r="H10" t="n">
-        <v>356.92</v>
+        <v>357.1</v>
       </c>
       <c r="I10" t="n">
         <v>354.6</v>
@@ -1034,10 +1034,10 @@
         <v>371.53</v>
       </c>
       <c r="G11" t="n">
-        <v>368.24</v>
+        <v>368.8</v>
       </c>
       <c r="H11" t="n">
-        <v>369.65</v>
+        <v>371.15</v>
       </c>
       <c r="I11" t="n">
         <v>373.61</v>
@@ -1089,10 +1089,10 @@
         <v>368.31</v>
       </c>
       <c r="G12" t="n">
-        <v>360.95</v>
+        <v>361.28</v>
       </c>
       <c r="H12" t="n">
-        <v>361.28</v>
+        <v>362.18</v>
       </c>
       <c r="I12" t="n">
         <v>360.69</v>
@@ -1146,10 +1146,10 @@
         <v>384.95</v>
       </c>
       <c r="G13" t="n">
-        <v>369.93</v>
+        <v>369.83</v>
       </c>
       <c r="H13" t="n">
-        <v>368.68</v>
+        <v>368.43</v>
       </c>
       <c r="I13" t="n">
         <v>372.18</v>
@@ -1197,10 +1197,10 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>368.32</v>
+        <v>368.27</v>
       </c>
       <c r="H14" t="n">
-        <v>360.7</v>
+        <v>360.57</v>
       </c>
       <c r="I14" t="n">
         <v>362.84</v>
@@ -1254,10 +1254,10 @@
         <v>379.55</v>
       </c>
       <c r="G15" t="n">
-        <v>374.5</v>
+        <v>374.69</v>
       </c>
       <c r="H15" t="n">
-        <v>379.96</v>
+        <v>380.48</v>
       </c>
       <c r="I15" t="n">
         <v>377.16</v>
@@ -1303,10 +1303,10 @@
         <v>368.14</v>
       </c>
       <c r="G16" t="n">
-        <v>368.14</v>
+        <v>367.95</v>
       </c>
       <c r="H16" t="n">
-        <v>363.43</v>
+        <v>362.91</v>
       </c>
       <c r="I16" t="n">
         <v>366.45</v>
@@ -1360,10 +1360,10 @@
         <v>354.84</v>
       </c>
       <c r="G17" t="n">
-        <v>377.87</v>
+        <v>378.25</v>
       </c>
       <c r="H17" t="n">
-        <v>383.49</v>
+        <v>384.51</v>
       </c>
       <c r="I17" t="n">
         <v>366.55</v>
@@ -1432,10 +1432,10 @@
         <v>367.89</v>
       </c>
       <c r="G19" t="n">
-        <v>362.79</v>
+        <v>363.09</v>
       </c>
       <c r="H19" t="n">
-        <v>366.52</v>
+        <v>367.34</v>
       </c>
       <c r="I19" t="n">
         <v>362.8</v>
@@ -1489,10 +1489,10 @@
         <v>369.46</v>
       </c>
       <c r="G20" t="n">
-        <v>366.9</v>
+        <v>366.74</v>
       </c>
       <c r="H20" t="n">
-        <v>366.71</v>
+        <v>366.27</v>
       </c>
       <c r="I20" t="n">
         <v>370.27</v>
@@ -1546,10 +1546,10 @@
         <v>359.65</v>
       </c>
       <c r="G21" t="n">
-        <v>356.04</v>
+        <v>355.77</v>
       </c>
       <c r="H21" t="n">
-        <v>352.04</v>
+        <v>351.33</v>
       </c>
       <c r="I21" t="n">
         <v>356.16</v>
@@ -1603,10 +1603,10 @@
         <v>368.18</v>
       </c>
       <c r="G22" t="n">
-        <v>372.68</v>
+        <v>372.84</v>
       </c>
       <c r="H22" t="n">
-        <v>370.24</v>
+        <v>370.66</v>
       </c>
       <c r="I22" t="n">
         <v>368.88</v>
@@ -1658,10 +1658,10 @@
         <v>361.76</v>
       </c>
       <c r="G23" t="n">
-        <v>356.52</v>
+        <v>356.33</v>
       </c>
       <c r="H23" t="n">
-        <v>353.75</v>
+        <v>353.23</v>
       </c>
       <c r="I23" t="n">
         <v>358.51</v>
@@ -1705,10 +1705,10 @@
         <v>362.92</v>
       </c>
       <c r="G24" t="n">
-        <v>360.86</v>
+        <v>360.54</v>
       </c>
       <c r="H24" t="n">
-        <v>354.03</v>
+        <v>353.16</v>
       </c>
       <c r="I24" t="n">
         <v>351.47</v>
@@ -1762,10 +1762,10 @@
         <v>381.79</v>
       </c>
       <c r="G25" t="n">
-        <v>376.88</v>
+        <v>376.64</v>
       </c>
       <c r="H25" t="n">
-        <v>377.45</v>
+        <v>376.8</v>
       </c>
       <c r="I25" t="n">
         <v>376.71</v>
@@ -1819,10 +1819,10 @@
         <v>366.19</v>
       </c>
       <c r="G26" t="n">
-        <v>364.4</v>
+        <v>364.53</v>
       </c>
       <c r="H26" t="n">
-        <v>361.55</v>
+        <v>361.91</v>
       </c>
       <c r="I26" t="n">
         <v>360.98</v>
@@ -1862,10 +1862,10 @@
         <v>377.19</v>
       </c>
       <c r="G27" t="n">
-        <v>375.27</v>
+        <v>375.32</v>
       </c>
       <c r="H27" t="n">
-        <v>374.17</v>
+        <v>374.31</v>
       </c>
       <c r="I27" t="n">
         <v>377.35</v>
@@ -1919,10 +1919,10 @@
         <v>366.25</v>
       </c>
       <c r="G28" t="n">
-        <v>367.51</v>
+        <v>367.37</v>
       </c>
       <c r="H28" t="n">
-        <v>361.52</v>
+        <v>361.14</v>
       </c>
       <c r="I28" t="n">
         <v>366.89</v>
@@ -1968,10 +1968,10 @@
         <v>369.59</v>
       </c>
       <c r="G29" t="n">
-        <v>365.53</v>
+        <v>365.26</v>
       </c>
       <c r="H29" t="n">
-        <v>366.69</v>
+        <v>365.98</v>
       </c>
       <c r="I29" t="n">
         <v>367.32</v>
@@ -2021,10 +2021,10 @@
         <v>365.3</v>
       </c>
       <c r="G30" t="n">
-        <v>367.58</v>
+        <v>367.49</v>
       </c>
       <c r="H30" t="n">
-        <v>364.77</v>
+        <v>364.54</v>
       </c>
       <c r="I30" t="n">
         <v>365.85</v>
@@ -2070,10 +2070,10 @@
         <v>355.94</v>
       </c>
       <c r="G31" t="n">
-        <v>350.48</v>
+        <v>350.5</v>
       </c>
       <c r="H31" t="n">
-        <v>354.88</v>
+        <v>354.94</v>
       </c>
       <c r="I31" t="n">
         <v>358.35</v>
@@ -2127,10 +2127,10 @@
         <v>366.49</v>
       </c>
       <c r="G32" t="n">
-        <v>364.45</v>
+        <v>364.64</v>
       </c>
       <c r="H32" t="n">
-        <v>369.83</v>
+        <v>370.33</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         <v>363.86</v>
       </c>
       <c r="G33" t="n">
-        <v>363.14</v>
+        <v>362.99</v>
       </c>
       <c r="H33" t="n">
-        <v>360.23</v>
+        <v>359.83</v>
       </c>
       <c r="I33" t="n">
         <v>362.17</v>
@@ -2233,10 +2233,10 @@
         <v>362.6</v>
       </c>
       <c r="G34" t="n">
-        <v>360.83</v>
+        <v>360.64</v>
       </c>
       <c r="H34" t="n">
-        <v>359.59</v>
+        <v>359.07</v>
       </c>
       <c r="I34" t="n">
         <v>362.1</v>
@@ -2288,10 +2288,10 @@
         <v>359.67</v>
       </c>
       <c r="G35" t="n">
-        <v>360.13</v>
+        <v>360.58</v>
       </c>
       <c r="H35" t="n">
-        <v>362.29</v>
+        <v>363.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2331,10 +2331,10 @@
         <v>362.92</v>
       </c>
       <c r="G36" t="n">
-        <v>363.12</v>
+        <v>363.46</v>
       </c>
       <c r="H36" t="n">
-        <v>368.91</v>
+        <v>369.83</v>
       </c>
       <c r="I36" t="n">
         <v>366.15</v>
@@ -2388,10 +2388,10 @@
         <v>374.05</v>
       </c>
       <c r="G37" t="n">
-        <v>366.48</v>
+        <v>366.25</v>
       </c>
       <c r="H37" t="n">
-        <v>364.7</v>
+        <v>364.07</v>
       </c>
       <c r="I37" t="n">
         <v>364.44</v>
@@ -2445,10 +2445,10 @@
         <v>359.61</v>
       </c>
       <c r="G38" t="n">
-        <v>361.25</v>
+        <v>361.2</v>
       </c>
       <c r="H38" t="n">
-        <v>360.14</v>
+        <v>360.01</v>
       </c>
       <c r="I38" t="n">
         <v>360.74</v>
@@ -2502,10 +2502,10 @@
         <v>375.11</v>
       </c>
       <c r="G39" t="n">
-        <v>373.36</v>
+        <v>373.54</v>
       </c>
       <c r="H39" t="n">
-        <v>377.61</v>
+        <v>378.09</v>
       </c>
       <c r="I39" t="n">
         <v>376.89</v>
@@ -2555,10 +2555,10 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>354.12</v>
+        <v>353.92</v>
       </c>
       <c r="H40" t="n">
-        <v>350.55</v>
+        <v>350.01</v>
       </c>
       <c r="I40" t="n">
         <v>353.39</v>
@@ -2606,10 +2606,10 @@
         <v>364.34</v>
       </c>
       <c r="G41" t="n">
-        <v>360.13</v>
+        <v>360.38</v>
       </c>
       <c r="H41" t="n">
-        <v>356.95</v>
+        <v>357.63</v>
       </c>
       <c r="I41" t="n">
         <v>361.96</v>
@@ -2663,10 +2663,10 @@
         <v>366.97</v>
       </c>
       <c r="G42" t="n">
-        <v>369.68</v>
+        <v>369.92</v>
       </c>
       <c r="H42" t="n">
-        <v>366.74</v>
+        <v>367.38</v>
       </c>
       <c r="I42" t="n">
         <v>368.47</v>
@@ -2720,10 +2720,10 @@
         <v>380.41</v>
       </c>
       <c r="G43" t="n">
-        <v>380.67</v>
+        <v>380.87</v>
       </c>
       <c r="H43" t="n">
-        <v>382.69</v>
+        <v>383.23</v>
       </c>
       <c r="I43" t="n">
         <v>381.96</v>
@@ -2777,10 +2777,10 @@
         <v>375.89</v>
       </c>
       <c r="G44" t="n">
-        <v>378.34</v>
+        <v>378.24</v>
       </c>
       <c r="H44" t="n">
-        <v>370.81</v>
+        <v>370.52</v>
       </c>
       <c r="I44" t="n">
         <v>371.22</v>
@@ -2834,10 +2834,10 @@
         <v>358.42</v>
       </c>
       <c r="G45" t="n">
-        <v>356.5</v>
+        <v>356.58</v>
       </c>
       <c r="H45" t="n">
-        <v>352.01</v>
+        <v>352.22</v>
       </c>
       <c r="I45" t="n">
         <v>355.52</v>
@@ -2887,10 +2887,10 @@
         <v>369.93</v>
       </c>
       <c r="G46" t="n">
-        <v>366.42</v>
+        <v>366.04</v>
       </c>
       <c r="H46" t="n">
-        <v>359.66</v>
+        <v>358.64</v>
       </c>
       <c r="I46" t="n">
         <v>365.99</v>
@@ -2944,10 +2944,10 @@
         <v>363.58</v>
       </c>
       <c r="G47" t="n">
-        <v>359.7</v>
+        <v>359.44</v>
       </c>
       <c r="H47" t="n">
-        <v>358.02</v>
+        <v>357.31</v>
       </c>
       <c r="I47" t="n">
         <v>362.07</v>
@@ -2993,10 +2993,10 @@
         <v>364.88</v>
       </c>
       <c r="G48" t="n">
-        <v>365.07</v>
+        <v>365.17</v>
       </c>
       <c r="H48" t="n">
-        <v>369.3</v>
+        <v>369.57</v>
       </c>
       <c r="I48" t="n">
         <v>371.07</v>
@@ -3050,10 +3050,10 @@
         <v>363.2</v>
       </c>
       <c r="G49" t="n">
-        <v>360.97</v>
+        <v>361.33</v>
       </c>
       <c r="H49" t="n">
-        <v>368.29</v>
+        <v>369.25</v>
       </c>
       <c r="I49" t="n">
         <v>370.77</v>
@@ -3107,10 +3107,10 @@
         <v>361.41</v>
       </c>
       <c r="G50" t="n">
-        <v>357.48</v>
+        <v>357.49</v>
       </c>
       <c r="H50" t="n">
-        <v>352.84</v>
+        <v>352.86</v>
       </c>
       <c r="I50" t="n">
         <v>357.32</v>
@@ -3211,10 +3211,10 @@
         <v>376.42</v>
       </c>
       <c r="G52" t="n">
-        <v>371.45</v>
+        <v>371.21</v>
       </c>
       <c r="H52" t="n">
-        <v>368.56</v>
+        <v>367.91</v>
       </c>
       <c r="I52" t="n">
         <v>372.07</v>
@@ -3258,10 +3258,10 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>371.55</v>
+        <v>371.83</v>
       </c>
       <c r="H53" t="n">
-        <v>370.13</v>
+        <v>370.88</v>
       </c>
       <c r="I53" t="n">
         <v>375.13</v>
@@ -3315,10 +3315,10 @@
         <v>374.24</v>
       </c>
       <c r="G54" t="n">
-        <v>375.37</v>
+        <v>375.31</v>
       </c>
       <c r="H54" t="n">
-        <v>373.06</v>
+        <v>372.91</v>
       </c>
       <c r="I54" t="n">
         <v>373.48</v>
@@ -3372,10 +3372,10 @@
         <v>374.74</v>
       </c>
       <c r="G55" t="n">
-        <v>373.29</v>
+        <v>373.48</v>
       </c>
       <c r="H55" t="n">
-        <v>375.93</v>
+        <v>376.45</v>
       </c>
       <c r="I55" t="n">
         <v>379.7</v>
@@ -3419,10 +3419,10 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>340.72</v>
+        <v>341.09</v>
       </c>
       <c r="H56" t="n">
-        <v>342.23</v>
+        <v>343.23</v>
       </c>
       <c r="I56" t="n">
         <v>356.3</v>
@@ -3511,10 +3511,10 @@
         <v>357.92</v>
       </c>
       <c r="G58" t="n">
-        <v>359.67</v>
+        <v>359.55</v>
       </c>
       <c r="H58" t="n">
-        <v>354.71</v>
+        <v>354.38</v>
       </c>
       <c r="I58" t="n">
         <v>359.37</v>
@@ -3556,10 +3556,10 @@
         <v>361.83</v>
       </c>
       <c r="G59" t="n">
-        <v>360.75</v>
+        <v>360.69</v>
       </c>
       <c r="H59" t="n">
-        <v>360.17</v>
+        <v>360.02</v>
       </c>
       <c r="I59" t="n">
         <v>358.84</v>
@@ -3613,10 +3613,10 @@
         <v>369.11</v>
       </c>
       <c r="G60" t="n">
-        <v>367.64</v>
+        <v>367.89</v>
       </c>
       <c r="H60" t="n">
-        <v>369.33</v>
+        <v>370.01</v>
       </c>
       <c r="I60" t="n">
         <v>365.03</v>
@@ -3666,10 +3666,10 @@
         <v>348.79</v>
       </c>
       <c r="G61" t="n">
-        <v>352.78</v>
+        <v>353.19</v>
       </c>
       <c r="H61" t="n">
-        <v>348.41</v>
+        <v>349.51</v>
       </c>
       <c r="I61" t="n">
         <v>358</v>
@@ -3723,10 +3723,10 @@
         <v>360.79</v>
       </c>
       <c r="G62" t="n">
-        <v>360.75</v>
+        <v>360.49</v>
       </c>
       <c r="H62" t="n">
-        <v>355.64</v>
+        <v>354.95</v>
       </c>
       <c r="I62" t="n">
         <v>355.13</v>
@@ -3809,10 +3809,10 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>364.81</v>
+        <v>364.64</v>
       </c>
       <c r="H64" t="n">
-        <v>355.61</v>
+        <v>355.15</v>
       </c>
       <c r="I64" t="n">
         <v>358.64</v>
@@ -3860,10 +3860,10 @@
         <v>371.7</v>
       </c>
       <c r="G65" t="n">
-        <v>369.51</v>
+        <v>369.71</v>
       </c>
       <c r="H65" t="n">
-        <v>369.35</v>
+        <v>369.87</v>
       </c>
       <c r="I65" t="n">
         <v>369.84</v>
@@ -3911,10 +3911,10 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>364.56</v>
+        <v>364.34</v>
       </c>
       <c r="H66" t="n">
-        <v>360.07</v>
+        <v>359.48</v>
       </c>
       <c r="I66" t="n">
         <v>362.45</v>
@@ -3956,10 +3956,10 @@
         <v>370.32</v>
       </c>
       <c r="G67" t="n">
-        <v>372.42</v>
+        <v>372.76</v>
       </c>
       <c r="H67" t="n">
-        <v>374.34</v>
+        <v>375.25</v>
       </c>
       <c r="I67" t="n">
         <v>371.78</v>
@@ -4111,10 +4111,10 @@
         <v>365.53</v>
       </c>
       <c r="G70" t="n">
-        <v>363.44</v>
+        <v>363.32</v>
       </c>
       <c r="H70" t="n">
-        <v>363.63</v>
+        <v>363.3</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -4160,10 +4160,10 @@
         <v>362.18</v>
       </c>
       <c r="G71" t="n">
-        <v>362.66</v>
+        <v>362.81</v>
       </c>
       <c r="H71" t="n">
-        <v>360.69</v>
+        <v>361.1</v>
       </c>
       <c r="I71" t="n">
         <v>362.92</v>
@@ -4262,10 +4262,10 @@
         <v>348.94</v>
       </c>
       <c r="G73" t="n">
-        <v>345.89</v>
+        <v>346.24</v>
       </c>
       <c r="H73" t="n">
-        <v>346.72</v>
+        <v>347.67</v>
       </c>
       <c r="I73" t="n">
         <v>354.07</v>
@@ -4315,10 +4315,10 @@
         <v>364.37</v>
       </c>
       <c r="G74" t="n">
-        <v>370.37</v>
+        <v>370.74</v>
       </c>
       <c r="H74" t="n">
-        <v>365.16</v>
+        <v>366.14</v>
       </c>
       <c r="I74" t="n">
         <v>368.11</v>
@@ -4362,10 +4362,10 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>365.29</v>
+        <v>365.04</v>
       </c>
       <c r="H75" t="n">
-        <v>360.15</v>
+        <v>359.48</v>
       </c>
       <c r="I75" t="n">
         <v>365.2</v>
@@ -4419,10 +4419,10 @@
         <v>369.43</v>
       </c>
       <c r="G76" t="n">
-        <v>368.16</v>
+        <v>368.09</v>
       </c>
       <c r="H76" t="n">
-        <v>369.28</v>
+        <v>369.1</v>
       </c>
       <c r="I76" t="n">
         <v>371.82</v>
@@ -4474,10 +4474,10 @@
         <v>365.11</v>
       </c>
       <c r="G77" t="n">
-        <v>362.78</v>
+        <v>362.71</v>
       </c>
       <c r="H77" t="n">
-        <v>358.12</v>
+        <v>357.94</v>
       </c>
       <c r="I77" t="n">
         <v>365.51</v>
@@ -4531,10 +4531,10 @@
         <v>350.72</v>
       </c>
       <c r="G78" t="n">
-        <v>355.9</v>
+        <v>356.28</v>
       </c>
       <c r="H78" t="n">
-        <v>359.08</v>
+        <v>360.1</v>
       </c>
       <c r="I78" t="n">
         <v>363.19</v>
@@ -4586,10 +4586,10 @@
         <v>353.26</v>
       </c>
       <c r="G79" t="n">
-        <v>355.53</v>
+        <v>355.39</v>
       </c>
       <c r="H79" t="n">
-        <v>346.29</v>
+        <v>345.91</v>
       </c>
       <c r="I79" t="n">
         <v>354.02</v>
@@ -4638,7 +4638,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>372.52</v>
+        <v>372.97</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -4676,10 +4676,10 @@
         <v>359.9</v>
       </c>
       <c r="G81" t="n">
-        <v>355.95</v>
+        <v>355.84</v>
       </c>
       <c r="H81" t="n">
-        <v>348.87</v>
+        <v>348.56</v>
       </c>
       <c r="I81" t="n">
         <v>354.25</v>
@@ -4733,10 +4733,10 @@
         <v>353.64</v>
       </c>
       <c r="G82" t="n">
-        <v>360.08</v>
+        <v>360.53</v>
       </c>
       <c r="H82" t="n">
-        <v>358.14</v>
+        <v>359.35</v>
       </c>
       <c r="I82" t="n">
         <v>363.69</v>
@@ -4774,10 +4774,10 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>373.44</v>
+        <v>373.48</v>
       </c>
       <c r="H83" t="n">
-        <v>373.53</v>
+        <v>373.65</v>
       </c>
       <c r="I83" t="n">
         <v>379.31</v>
@@ -4831,7 +4831,7 @@
         <v>364.58</v>
       </c>
       <c r="G84" t="n">
-        <v>368.76</v>
+        <v>368.74</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -4880,10 +4880,10 @@
         <v>364.82</v>
       </c>
       <c r="G85" t="n">
-        <v>366.29</v>
+        <v>366.14</v>
       </c>
       <c r="H85" t="n">
-        <v>361.65</v>
+        <v>361.24</v>
       </c>
       <c r="I85" t="n">
         <v>366.73</v>
@@ -4923,10 +4923,10 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>345.2</v>
+        <v>345.36</v>
       </c>
       <c r="H86" t="n">
-        <v>343.92</v>
+        <v>344.34</v>
       </c>
       <c r="I86" t="n">
         <v>346.64</v>
@@ -4980,10 +4980,10 @@
         <v>370.75</v>
       </c>
       <c r="G87" t="n">
-        <v>377.66</v>
+        <v>378</v>
       </c>
       <c r="H87" t="n">
-        <v>374.29</v>
+        <v>375.2</v>
       </c>
       <c r="I87" t="n">
         <v>372.27</v>
@@ -5031,10 +5031,10 @@
         <v>366.26</v>
       </c>
       <c r="G88" t="n">
-        <v>361.91</v>
+        <v>361.51</v>
       </c>
       <c r="H88" t="n">
-        <v>356.16</v>
+        <v>355.07</v>
       </c>
       <c r="I88" t="n">
         <v>360.08</v>
@@ -5088,10 +5088,10 @@
         <v>359.46</v>
       </c>
       <c r="G89" t="n">
-        <v>355.25</v>
+        <v>355.14</v>
       </c>
       <c r="H89" t="n">
-        <v>353.97</v>
+        <v>353.68</v>
       </c>
       <c r="I89" t="n">
         <v>351.04</v>
@@ -5139,10 +5139,10 @@
         <v>365.86</v>
       </c>
       <c r="G90" t="n">
-        <v>361.03</v>
+        <v>360.7</v>
       </c>
       <c r="H90" t="n">
-        <v>358.49</v>
+        <v>357.61</v>
       </c>
       <c r="I90" t="n">
         <v>357.87</v>
@@ -5188,10 +5188,10 @@
         <v>357.71</v>
       </c>
       <c r="G91" t="n">
-        <v>351.94</v>
+        <v>352.26</v>
       </c>
       <c r="H91" t="n">
-        <v>351.47</v>
+        <v>352.33</v>
       </c>
       <c r="I91" t="n">
         <v>353.84</v>
@@ -5245,10 +5245,10 @@
         <v>373.7</v>
       </c>
       <c r="G92" t="n">
-        <v>370.28</v>
+        <v>370.29</v>
       </c>
       <c r="H92" t="n">
-        <v>371.35</v>
+        <v>371.37</v>
       </c>
       <c r="I92" t="n">
         <v>373.59</v>
@@ -5298,10 +5298,10 @@
         <v>372.68</v>
       </c>
       <c r="G93" t="n">
-        <v>366.75</v>
+        <v>366.51</v>
       </c>
       <c r="H93" t="n">
-        <v>368.56</v>
+        <v>367.92</v>
       </c>
       <c r="I93" t="n">
         <v>367.7</v>
@@ -5355,10 +5355,10 @@
         <v>354.79</v>
       </c>
       <c r="G94" t="n">
-        <v>351.29</v>
+        <v>351.14</v>
       </c>
       <c r="H94" t="n">
-        <v>341.02</v>
+        <v>340.62</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -5406,10 +5406,10 @@
         <v>345.8</v>
       </c>
       <c r="G95" t="n">
-        <v>337.09</v>
+        <v>337.25</v>
       </c>
       <c r="H95" t="n">
-        <v>334.31</v>
+        <v>334.73</v>
       </c>
       <c r="I95" t="n">
         <v>335.57</v>
@@ -5449,10 +5449,10 @@
         <v>353.86</v>
       </c>
       <c r="G96" t="n">
-        <v>348.32</v>
+        <v>348.53</v>
       </c>
       <c r="H96" t="n">
-        <v>347.61</v>
+        <v>348.17</v>
       </c>
       <c r="I96" t="n">
         <v>352.04</v>
@@ -5506,10 +5506,10 @@
         <v>363.71</v>
       </c>
       <c r="G97" t="n">
-        <v>368.3</v>
+        <v>368.26</v>
       </c>
       <c r="H97" t="n">
-        <v>360.29</v>
+        <v>360.19</v>
       </c>
       <c r="I97" t="n">
         <v>364.01</v>
@@ -5561,7 +5561,7 @@
         <v>358.19</v>
       </c>
       <c r="G98" t="n">
-        <v>360.51</v>
+        <v>360.94</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -5608,10 +5608,10 @@
         <v>365.91</v>
       </c>
       <c r="G99" t="n">
-        <v>369.75</v>
+        <v>370.21</v>
       </c>
       <c r="H99" t="n">
-        <v>368.62</v>
+        <v>369.87</v>
       </c>
       <c r="I99" t="n">
         <v>375.18</v>
@@ -5743,10 +5743,10 @@
         <v>358.22</v>
       </c>
       <c r="G102" t="n">
-        <v>357.33</v>
+        <v>357.23</v>
       </c>
       <c r="H102" t="n">
-        <v>354.77</v>
+        <v>354.48</v>
       </c>
       <c r="I102" t="n">
         <v>352.87</v>
@@ -5792,10 +5792,10 @@
         <v>366.67</v>
       </c>
       <c r="G103" t="n">
-        <v>361.06</v>
+        <v>361.24</v>
       </c>
       <c r="H103" t="n">
-        <v>358.04</v>
+        <v>358.52</v>
       </c>
       <c r="I103" t="n">
         <v>362.56</v>
@@ -5843,10 +5843,10 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>362.72</v>
+        <v>363.02</v>
       </c>
       <c r="H104" t="n">
-        <v>366.52</v>
+        <v>367.33</v>
       </c>
       <c r="I104" t="n">
         <v>362.83</v>
@@ -5894,10 +5894,10 @@
         <v>366.79</v>
       </c>
       <c r="G105" t="n">
-        <v>361.7</v>
+        <v>362.08</v>
       </c>
       <c r="H105" t="n">
-        <v>356.84</v>
+        <v>357.86</v>
       </c>
       <c r="I105" t="n">
         <v>363.69</v>
@@ -5949,10 +5949,10 @@
         <v>364.29</v>
       </c>
       <c r="G106" t="n">
-        <v>362.46</v>
+        <v>362.3</v>
       </c>
       <c r="H106" t="n">
-        <v>351.58</v>
+        <v>351.16</v>
       </c>
       <c r="I106" t="n">
         <v>358.09</v>
@@ -5994,10 +5994,10 @@
         <v>357.49</v>
       </c>
       <c r="G107" t="n">
-        <v>351.35</v>
+        <v>351.37</v>
       </c>
       <c r="H107" t="n">
-        <v>351.73</v>
+        <v>351.78</v>
       </c>
       <c r="I107" t="n">
         <v>352.94</v>
@@ -6049,10 +6049,10 @@
         <v>371.89</v>
       </c>
       <c r="G108" t="n">
-        <v>369.03</v>
+        <v>368.72</v>
       </c>
       <c r="H108" t="n">
-        <v>361.4</v>
+        <v>360.55</v>
       </c>
       <c r="I108" t="n">
         <v>365.95</v>
@@ -6106,10 +6106,10 @@
         <v>365.93</v>
       </c>
       <c r="G109" t="n">
-        <v>361.76</v>
+        <v>361.51</v>
       </c>
       <c r="H109" t="n">
-        <v>360.8</v>
+        <v>360.13</v>
       </c>
       <c r="I109" t="n">
         <v>361.37</v>
@@ -6163,10 +6163,10 @@
         <v>365.53</v>
       </c>
       <c r="G110" t="n">
-        <v>361.75</v>
+        <v>361.65</v>
       </c>
       <c r="H110" t="n">
-        <v>361.23</v>
+        <v>360.96</v>
       </c>
       <c r="I110" t="n">
         <v>362.76</v>
@@ -6220,10 +6220,10 @@
         <v>360.76</v>
       </c>
       <c r="G111" t="n">
-        <v>352.38</v>
+        <v>352.36</v>
       </c>
       <c r="H111" t="n">
-        <v>351.42</v>
+        <v>351.36</v>
       </c>
       <c r="I111" t="n">
         <v>348.99</v>
@@ -6277,10 +6277,10 @@
         <v>352.34</v>
       </c>
       <c r="G112" t="n">
-        <v>348.89</v>
+        <v>348.61</v>
       </c>
       <c r="H112" t="n">
-        <v>341.98</v>
+        <v>341.23</v>
       </c>
       <c r="I112" t="n">
         <v>343.67</v>
@@ -6332,10 +6332,10 @@
         <v>368.05</v>
       </c>
       <c r="G113" t="n">
-        <v>369.34</v>
+        <v>369.52</v>
       </c>
       <c r="H113" t="n">
-        <v>363.3</v>
+        <v>363.78</v>
       </c>
       <c r="I113" t="n">
         <v>367.51</v>
@@ -6389,10 +6389,10 @@
         <v>369.73</v>
       </c>
       <c r="G114" t="n">
-        <v>368.33</v>
+        <v>368.28</v>
       </c>
       <c r="H114" t="n">
-        <v>367.57</v>
+        <v>367.43</v>
       </c>
       <c r="I114" t="n">
         <v>369.47</v>
@@ -6442,10 +6442,10 @@
         <v>365.62</v>
       </c>
       <c r="G115" t="n">
-        <v>363.19</v>
+        <v>362.81</v>
       </c>
       <c r="H115" t="n">
-        <v>357.9</v>
+        <v>356.88</v>
       </c>
       <c r="I115" t="n">
         <v>364.05</v>
@@ -6499,10 +6499,10 @@
         <v>353.52</v>
       </c>
       <c r="G116" t="n">
-        <v>350.82</v>
+        <v>351.26</v>
       </c>
       <c r="H116" t="n">
-        <v>352.49</v>
+        <v>353.67</v>
       </c>
       <c r="I116" t="n">
         <v>358.85</v>
@@ -6542,10 +6542,10 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>361.18</v>
+        <v>360.85</v>
       </c>
       <c r="H117" t="n">
-        <v>351.37</v>
+        <v>350.49</v>
       </c>
       <c r="I117" t="n">
         <v>357.06</v>
@@ -6599,10 +6599,10 @@
         <v>365.51</v>
       </c>
       <c r="G118" t="n">
-        <v>362.97</v>
+        <v>362.57</v>
       </c>
       <c r="H118" t="n">
-        <v>356.48</v>
+        <v>355.4</v>
       </c>
       <c r="I118" t="n">
         <v>359.46</v>
@@ -6652,10 +6652,10 @@
         <v>372.94</v>
       </c>
       <c r="G119" t="n">
-        <v>374.49</v>
+        <v>374.87</v>
       </c>
       <c r="H119" t="n">
-        <v>375.46</v>
+        <v>376.48</v>
       </c>
       <c r="I119" t="n">
         <v>368.03</v>
@@ -6709,10 +6709,10 @@
         <v>354.27</v>
       </c>
       <c r="G120" t="n">
-        <v>358.76</v>
+        <v>359.17</v>
       </c>
       <c r="H120" t="n">
-        <v>361.83</v>
+        <v>362.93</v>
       </c>
       <c r="I120" t="n">
         <v>361.46</v>
@@ -6764,10 +6764,10 @@
         <v>352.83</v>
       </c>
       <c r="G121" t="n">
-        <v>345.1</v>
+        <v>344.77</v>
       </c>
       <c r="H121" t="n">
-        <v>343.31</v>
+        <v>342.43</v>
       </c>
       <c r="I121" t="n">
         <v>344.56</v>
@@ -6868,10 +6868,10 @@
         <v>362.07</v>
       </c>
       <c r="G123" t="n">
-        <v>361.11</v>
+        <v>361.23</v>
       </c>
       <c r="H123" t="n">
-        <v>356.31</v>
+        <v>356.63</v>
       </c>
       <c r="I123" t="n">
         <v>357.33</v>
@@ -6921,10 +6921,10 @@
         <v>388.1</v>
       </c>
       <c r="G124" t="n">
-        <v>370.12</v>
+        <v>370.28</v>
       </c>
       <c r="H124" t="n">
-        <v>359.71</v>
+        <v>360.13</v>
       </c>
       <c r="I124" t="n">
         <v>366.81</v>
@@ -6978,10 +6978,10 @@
         <v>370.71</v>
       </c>
       <c r="G125" t="n">
-        <v>371.4</v>
+        <v>371.8</v>
       </c>
       <c r="H125" t="n">
-        <v>372.33</v>
+        <v>373.42</v>
       </c>
       <c r="I125" t="n">
         <v>370.68</v>
@@ -7035,10 +7035,10 @@
         <v>372.36</v>
       </c>
       <c r="G126" t="n">
-        <v>372.33</v>
+        <v>372.06</v>
       </c>
       <c r="H126" t="n">
-        <v>366.91</v>
+        <v>366.2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -7080,10 +7080,10 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>360.32</v>
+        <v>360.03</v>
       </c>
       <c r="H127" t="n">
-        <v>360.56</v>
+        <v>359.77</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -7131,10 +7131,10 @@
         <v>372.29</v>
       </c>
       <c r="G128" t="n">
-        <v>370.74</v>
+        <v>370.73</v>
       </c>
       <c r="H128" t="n">
-        <v>372.95</v>
+        <v>372.91</v>
       </c>
       <c r="I128" t="n">
         <v>374.88</v>
@@ -7180,10 +7180,10 @@
         <v>359.97</v>
       </c>
       <c r="G129" t="n">
-        <v>359.99</v>
+        <v>360.01</v>
       </c>
       <c r="H129" t="n">
-        <v>352.53</v>
+        <v>352.58</v>
       </c>
       <c r="I129" t="n">
         <v>358.04</v>
@@ -7235,10 +7235,10 @@
         <v>363.91</v>
       </c>
       <c r="G130" t="n">
-        <v>366.95</v>
+        <v>367.25</v>
       </c>
       <c r="H130" t="n">
-        <v>361.59</v>
+        <v>362.41</v>
       </c>
       <c r="I130" t="n">
         <v>362.71</v>
@@ -7288,10 +7288,10 @@
         <v>369.03</v>
       </c>
       <c r="G131" t="n">
-        <v>364.33</v>
+        <v>363.92</v>
       </c>
       <c r="H131" t="n">
-        <v>363.58</v>
+        <v>362.48</v>
       </c>
       <c r="I131" t="n">
         <v>361.23</v>
@@ -7394,10 +7394,10 @@
         <v>370.5</v>
       </c>
       <c r="G133" t="n">
-        <v>366.36</v>
+        <v>366.06</v>
       </c>
       <c r="H133" t="n">
-        <v>366.91</v>
+        <v>366.12</v>
       </c>
       <c r="I133" t="n">
         <v>365.61</v>
@@ -7451,10 +7451,10 @@
         <v>369.21</v>
       </c>
       <c r="G134" t="n">
-        <v>375.06</v>
+        <v>375.28</v>
       </c>
       <c r="H134" t="n">
-        <v>374.04</v>
+        <v>374.64</v>
       </c>
       <c r="I134" t="n">
         <v>364.88</v>
@@ -7508,10 +7508,10 @@
         <v>355.07</v>
       </c>
       <c r="G135" t="n">
-        <v>356.14</v>
+        <v>356.48</v>
       </c>
       <c r="H135" t="n">
-        <v>351.34</v>
+        <v>352.26</v>
       </c>
       <c r="I135" t="n">
         <v>358.7</v>
@@ -7565,10 +7565,10 @@
         <v>338.69</v>
       </c>
       <c r="G136" t="n">
-        <v>346.72</v>
+        <v>347.24</v>
       </c>
       <c r="H136" t="n">
-        <v>354.21</v>
+        <v>355.61</v>
       </c>
       <c r="I136" t="n">
         <v>360.76</v>
@@ -7620,10 +7620,10 @@
         <v>359.2</v>
       </c>
       <c r="G137" t="n">
-        <v>353.69</v>
+        <v>353.53</v>
       </c>
       <c r="H137" t="n">
-        <v>347.63</v>
+        <v>347.21</v>
       </c>
       <c r="I137" t="n">
         <v>355.86</v>
@@ -7720,10 +7720,10 @@
         <v>370.95</v>
       </c>
       <c r="G139" t="n">
-        <v>371.04</v>
+        <v>370.82</v>
       </c>
       <c r="H139" t="n">
-        <v>369.64</v>
+        <v>369.05</v>
       </c>
       <c r="I139" t="n">
         <v>376.56</v>
@@ -7777,10 +7777,10 @@
         <v>364.91</v>
       </c>
       <c r="G140" t="n">
-        <v>369.13</v>
+        <v>369.58</v>
       </c>
       <c r="H140" t="n">
-        <v>368.99</v>
+        <v>370.2</v>
       </c>
       <c r="I140" t="n">
         <v>368.48</v>
@@ -7828,10 +7828,10 @@
         <v>367.87</v>
       </c>
       <c r="G141" t="n">
-        <v>367.39</v>
+        <v>367.14</v>
       </c>
       <c r="H141" t="n">
-        <v>367.05</v>
+        <v>366.38</v>
       </c>
       <c r="I141" t="n">
         <v>369.79</v>
@@ -7885,10 +7885,10 @@
         <v>362.63</v>
       </c>
       <c r="G142" t="n">
-        <v>359.71</v>
+        <v>359.69</v>
       </c>
       <c r="H142" t="n">
-        <v>357.26</v>
+        <v>357.2</v>
       </c>
       <c r="I142" t="n">
         <v>354.71</v>
@@ -7942,10 +7942,10 @@
         <v>364.21</v>
       </c>
       <c r="G143" t="n">
-        <v>366.23</v>
+        <v>366.41</v>
       </c>
       <c r="H143" t="n">
-        <v>363.96</v>
+        <v>364.44</v>
       </c>
       <c r="I143" t="n">
         <v>361.77</v>
@@ -7999,10 +7999,10 @@
         <v>371.61</v>
       </c>
       <c r="G144" t="n">
-        <v>375.17</v>
+        <v>375.41</v>
       </c>
       <c r="H144" t="n">
-        <v>375.36</v>
+        <v>376</v>
       </c>
       <c r="I144" t="n">
         <v>370.95</v>
@@ -8056,10 +8056,10 @@
         <v>368.07</v>
       </c>
       <c r="G145" t="n">
-        <v>367.99</v>
+        <v>368.06</v>
       </c>
       <c r="H145" t="n">
-        <v>366.51</v>
+        <v>366.69</v>
       </c>
       <c r="I145" t="n">
         <v>365.36</v>
@@ -8110,7 +8110,7 @@
         <v>370.6</v>
       </c>
       <c r="H146" t="n">
-        <v>364.27</v>
+        <v>364.25</v>
       </c>
       <c r="I146" t="n">
         <v>351.71</v>
@@ -8273,10 +8273,10 @@
         <v>364.27</v>
       </c>
       <c r="G150" t="n">
-        <v>361.72</v>
+        <v>361.99</v>
       </c>
       <c r="H150" t="n">
-        <v>362.78</v>
+        <v>363.49</v>
       </c>
       <c r="I150" t="n">
         <v>364.67</v>
@@ -8379,10 +8379,10 @@
         <v>362.08</v>
       </c>
       <c r="G152" t="n">
-        <v>355.77</v>
+        <v>355.5</v>
       </c>
       <c r="H152" t="n">
-        <v>353.16</v>
+        <v>352.43</v>
       </c>
       <c r="I152" t="n">
         <v>353.77</v>
@@ -8432,10 +8432,10 @@
         <v>366.35</v>
       </c>
       <c r="G153" t="n">
-        <v>367.19</v>
+        <v>367.05</v>
       </c>
       <c r="H153" t="n">
-        <v>370.66</v>
+        <v>370.28</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -8532,7 +8532,7 @@
         <v>363.86</v>
       </c>
       <c r="G155" t="n">
-        <v>376.24</v>
+        <v>376.64</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -8581,10 +8581,10 @@
         <v>376.25</v>
       </c>
       <c r="G156" t="n">
-        <v>371.19</v>
+        <v>370.93</v>
       </c>
       <c r="H156" t="n">
-        <v>371.12</v>
+        <v>370.43</v>
       </c>
       <c r="I156" t="n">
         <v>374.23</v>
@@ -8638,10 +8638,10 @@
         <v>364.63</v>
       </c>
       <c r="G157" t="n">
-        <v>363.94</v>
+        <v>363.6</v>
       </c>
       <c r="H157" t="n">
-        <v>358.11</v>
+        <v>357.19</v>
       </c>
       <c r="I157" t="n">
         <v>364.23</v>
@@ -8695,10 +8695,10 @@
         <v>366.73</v>
       </c>
       <c r="G158" t="n">
-        <v>368.94</v>
+        <v>369.14</v>
       </c>
       <c r="H158" t="n">
-        <v>359.84</v>
+        <v>360.36</v>
       </c>
       <c r="I158" t="n">
         <v>366.52</v>
@@ -8752,10 +8752,10 @@
         <v>366.57</v>
       </c>
       <c r="G159" t="n">
-        <v>365.35</v>
+        <v>365.13</v>
       </c>
       <c r="H159" t="n">
-        <v>365.65</v>
+        <v>365.05</v>
       </c>
       <c r="I159" t="n">
         <v>357.74</v>
@@ -8809,10 +8809,10 @@
         <v>377.83</v>
       </c>
       <c r="G160" t="n">
-        <v>367.46</v>
+        <v>367.04</v>
       </c>
       <c r="H160" t="n">
-        <v>362.47</v>
+        <v>361.33</v>
       </c>
       <c r="I160" t="n">
         <v>367.35</v>
@@ -8864,10 +8864,10 @@
         <v>372.11</v>
       </c>
       <c r="G161" t="n">
-        <v>374.92</v>
+        <v>375.11</v>
       </c>
       <c r="H161" t="n">
-        <v>374.99</v>
+        <v>375.49</v>
       </c>
       <c r="I161" t="n">
         <v>369.02</v>
@@ -8970,10 +8970,10 @@
         <v>348.05</v>
       </c>
       <c r="G163" t="n">
-        <v>353.07</v>
+        <v>353.16</v>
       </c>
       <c r="H163" t="n">
-        <v>346.11</v>
+        <v>346.34</v>
       </c>
       <c r="I163" t="n">
         <v>355.56</v>
@@ -9027,10 +9027,10 @@
         <v>365.89</v>
       </c>
       <c r="G164" t="n">
-        <v>367.99</v>
+        <v>367.96</v>
       </c>
       <c r="H164" t="n">
-        <v>370.48</v>
+        <v>370.39</v>
       </c>
       <c r="I164" t="n">
         <v>372.66</v>
@@ -9133,10 +9133,10 @@
         <v>346.86</v>
       </c>
       <c r="G166" t="n">
-        <v>348.54</v>
+        <v>348.89</v>
       </c>
       <c r="H166" t="n">
-        <v>349.97</v>
+        <v>350.91</v>
       </c>
       <c r="I166" t="n">
         <v>358.12</v>
@@ -9186,10 +9186,10 @@
         <v>361.2</v>
       </c>
       <c r="G167" t="n">
-        <v>357.98</v>
+        <v>357.64</v>
       </c>
       <c r="H167" t="n">
-        <v>356.67</v>
+        <v>355.75</v>
       </c>
       <c r="I167" t="n">
         <v>357.93</v>
@@ -9235,10 +9235,10 @@
         <v>354.16</v>
       </c>
       <c r="G168" t="n">
-        <v>349.14</v>
+        <v>348.95</v>
       </c>
       <c r="H168" t="n">
-        <v>346.4</v>
+        <v>345.9</v>
       </c>
       <c r="I168" t="n">
         <v>350.12</v>
@@ -9292,10 +9292,10 @@
         <v>348.1</v>
       </c>
       <c r="G169" t="n">
-        <v>352.22</v>
+        <v>352.4</v>
       </c>
       <c r="H169" t="n">
-        <v>350.86</v>
+        <v>351.34</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -9343,10 +9343,10 @@
         <v>367.93</v>
       </c>
       <c r="G170" t="n">
-        <v>369.2</v>
+        <v>369.66</v>
       </c>
       <c r="H170" t="n">
-        <v>368.22</v>
+        <v>369.47</v>
       </c>
       <c r="I170" t="n">
         <v>370.7</v>
@@ -9396,10 +9396,10 @@
         <v>362.95</v>
       </c>
       <c r="G171" t="n">
-        <v>359.34</v>
+        <v>359.37</v>
       </c>
       <c r="H171" t="n">
-        <v>356.13</v>
+        <v>356.21</v>
       </c>
       <c r="I171" t="n">
         <v>361.95</v>
@@ -9449,10 +9449,10 @@
         <v>365.97</v>
       </c>
       <c r="G172" t="n">
-        <v>364.63</v>
+        <v>364.58</v>
       </c>
       <c r="H172" t="n">
-        <v>365</v>
+        <v>364.87</v>
       </c>
       <c r="I172" t="n">
         <v>366.56</v>
@@ -9496,10 +9496,10 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>359.56</v>
+        <v>359.14</v>
       </c>
       <c r="H173" t="n">
-        <v>350.36</v>
+        <v>349.22</v>
       </c>
       <c r="I173" t="n">
         <v>355.5</v>
@@ -9553,10 +9553,10 @@
         <v>359.58</v>
       </c>
       <c r="G174" t="n">
-        <v>359.88</v>
+        <v>360.28</v>
       </c>
       <c r="H174" t="n">
-        <v>351.74</v>
+        <v>352.8</v>
       </c>
       <c r="I174" t="n">
         <v>360.49</v>
@@ -9610,10 +9610,10 @@
         <v>365.18</v>
       </c>
       <c r="G175" t="n">
-        <v>361.47</v>
+        <v>361.26</v>
       </c>
       <c r="H175" t="n">
-        <v>356.33</v>
+        <v>355.77</v>
       </c>
       <c r="I175" t="n">
         <v>357.14</v>
@@ -9663,10 +9663,10 @@
         <v>372.28</v>
       </c>
       <c r="G176" t="n">
-        <v>370.16</v>
+        <v>370.09</v>
       </c>
       <c r="H176" t="n">
-        <v>372.49</v>
+        <v>372.3</v>
       </c>
       <c r="I176" t="n">
         <v>371.69</v>
@@ -9720,10 +9720,10 @@
         <v>365.23</v>
       </c>
       <c r="G177" t="n">
-        <v>364.7</v>
+        <v>364.37</v>
       </c>
       <c r="H177" t="n">
-        <v>359.04</v>
+        <v>358.14</v>
       </c>
       <c r="I177" t="n">
         <v>363</v>
@@ -9777,10 +9777,10 @@
         <v>348.47</v>
       </c>
       <c r="G178" t="n">
-        <v>346.61</v>
+        <v>346.93</v>
       </c>
       <c r="H178" t="n">
-        <v>349.16</v>
+        <v>350.02</v>
       </c>
       <c r="I178" t="n">
         <v>352.32</v>
@@ -9828,10 +9828,10 @@
         <v>360.39</v>
       </c>
       <c r="G179" t="n">
-        <v>358.24</v>
+        <v>358.33</v>
       </c>
       <c r="H179" t="n">
-        <v>351.7</v>
+        <v>351.93</v>
       </c>
       <c r="I179" t="n">
         <v>357.7</v>
@@ -9881,10 +9881,10 @@
         <v>362.86</v>
       </c>
       <c r="G180" t="n">
-        <v>360.04</v>
+        <v>360.38</v>
       </c>
       <c r="H180" t="n">
-        <v>366.82</v>
+        <v>367.73</v>
       </c>
       <c r="I180" t="n">
         <v>370.24</v>
@@ -9938,10 +9938,10 @@
         <v>356.97</v>
       </c>
       <c r="G181" t="n">
-        <v>353.69</v>
+        <v>353.49</v>
       </c>
       <c r="H181" t="n">
-        <v>351.72</v>
+        <v>351.18</v>
       </c>
       <c r="I181" t="n">
         <v>357.06</v>
@@ -10040,10 +10040,10 @@
         <v>371.21</v>
       </c>
       <c r="G183" t="n">
-        <v>378.4</v>
+        <v>378.89</v>
       </c>
       <c r="H183" t="n">
-        <v>370.7</v>
+        <v>372.02</v>
       </c>
       <c r="I183" t="n">
         <v>384.13</v>
@@ -10097,10 +10097,10 @@
         <v>365.35</v>
       </c>
       <c r="G184" t="n">
-        <v>367.53</v>
+        <v>367.99</v>
       </c>
       <c r="H184" t="n">
-        <v>365.71</v>
+        <v>366.96</v>
       </c>
       <c r="I184" t="n">
         <v>372.97</v>
@@ -10152,7 +10152,7 @@
         <v>362.42</v>
       </c>
       <c r="G185" t="n">
-        <v>363.86</v>
+        <v>363.65</v>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
@@ -10203,10 +10203,10 @@
         <v>367.04</v>
       </c>
       <c r="G186" t="n">
-        <v>368.76</v>
+        <v>368.66</v>
       </c>
       <c r="H186" t="n">
-        <v>366.86</v>
+        <v>366.61</v>
       </c>
       <c r="I186" t="n">
         <v>371.81</v>
@@ -10256,10 +10256,10 @@
         <v>371.87</v>
       </c>
       <c r="G187" t="n">
-        <v>374.83</v>
+        <v>374.91</v>
       </c>
       <c r="H187" t="n">
-        <v>380.75</v>
+        <v>380.96</v>
       </c>
       <c r="I187" t="n">
         <v>385.57</v>
@@ -10313,10 +10313,10 @@
         <v>355.46</v>
       </c>
       <c r="G188" t="n">
-        <v>351.39</v>
+        <v>351.68</v>
       </c>
       <c r="H188" t="n">
-        <v>354.53</v>
+        <v>355.32</v>
       </c>
       <c r="I188" t="n">
         <v>360.39</v>
@@ -10366,10 +10366,10 @@
         <v>367.44</v>
       </c>
       <c r="G189" t="n">
-        <v>366.9</v>
+        <v>366.57</v>
       </c>
       <c r="H189" t="n">
-        <v>364.9</v>
+        <v>364</v>
       </c>
       <c r="I189" t="n">
         <v>367.05</v>
@@ -10423,10 +10423,10 @@
         <v>362.35</v>
       </c>
       <c r="G190" t="n">
-        <v>373.02</v>
+        <v>373.47</v>
       </c>
       <c r="H190" t="n">
-        <v>366.39</v>
+        <v>367.6</v>
       </c>
       <c r="I190" t="n">
         <v>370.12</v>
@@ -10472,10 +10472,10 @@
         <v>367.49</v>
       </c>
       <c r="G191" t="n">
-        <v>364.67</v>
+        <v>364.4</v>
       </c>
       <c r="H191" t="n">
-        <v>367.32</v>
+        <v>366.59</v>
       </c>
       <c r="I191" t="n">
         <v>369.48</v>
@@ -10529,10 +10529,10 @@
         <v>372.65</v>
       </c>
       <c r="G192" t="n">
-        <v>365.55</v>
+        <v>365.21</v>
       </c>
       <c r="H192" t="n">
-        <v>365.8</v>
+        <v>364.89</v>
       </c>
       <c r="I192" t="n">
         <v>366.05</v>
@@ -10586,10 +10586,10 @@
         <v>371.26</v>
       </c>
       <c r="G193" t="n">
-        <v>377.74</v>
+        <v>377.75</v>
       </c>
       <c r="H193" t="n">
-        <v>373.96</v>
+        <v>373.98</v>
       </c>
       <c r="I193" t="n">
         <v>374.75</v>
@@ -10643,10 +10643,10 @@
         <v>368.6</v>
       </c>
       <c r="G194" t="n">
-        <v>371.84</v>
+        <v>372.06</v>
       </c>
       <c r="H194" t="n">
-        <v>366.39</v>
+        <v>366.98</v>
       </c>
       <c r="I194" t="n">
         <v>367.27</v>
@@ -10688,10 +10688,10 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>353.62</v>
+        <v>353.32</v>
       </c>
       <c r="H195" t="n">
-        <v>351.57</v>
+        <v>350.78</v>
       </c>
       <c r="I195" t="n">
         <v>351.17</v>
@@ -10743,10 +10743,10 @@
         <v>371.86</v>
       </c>
       <c r="G196" t="n">
-        <v>374.3</v>
+        <v>374.52</v>
       </c>
       <c r="H196" t="n">
-        <v>376.43</v>
+        <v>377.03</v>
       </c>
       <c r="I196" t="n">
         <v>374.6</v>
@@ -10798,10 +10798,10 @@
         <v>346.42</v>
       </c>
       <c r="G197" t="n">
-        <v>349.27</v>
+        <v>349.64</v>
       </c>
       <c r="H197" t="n">
-        <v>351.17</v>
+        <v>352.17</v>
       </c>
       <c r="I197" t="n">
         <v>361.5</v>
@@ -10851,10 +10851,10 @@
         <v>356.75</v>
       </c>
       <c r="G198" t="n">
-        <v>357.15</v>
+        <v>357.3</v>
       </c>
       <c r="H198" t="n">
-        <v>356.42</v>
+        <v>356.82</v>
       </c>
       <c r="I198" t="n">
         <v>359.03</v>
@@ -10906,10 +10906,10 @@
         <v>339.05</v>
       </c>
       <c r="G199" t="n">
-        <v>349.32</v>
+        <v>349.84</v>
       </c>
       <c r="H199" t="n">
-        <v>353.38</v>
+        <v>354.78</v>
       </c>
       <c r="I199" t="n">
         <v>355.64</v>
@@ -10955,10 +10955,10 @@
         <v>368.99</v>
       </c>
       <c r="G200" t="n">
-        <v>367.71</v>
+        <v>367.46</v>
       </c>
       <c r="H200" t="n">
-        <v>366.65</v>
+        <v>365.97</v>
       </c>
       <c r="I200" t="n">
         <v>367.45</v>
@@ -11012,10 +11012,10 @@
         <v>366.56</v>
       </c>
       <c r="G201" t="n">
-        <v>371.37</v>
+        <v>371.48</v>
       </c>
       <c r="H201" t="n">
-        <v>370.03</v>
+        <v>370.32</v>
       </c>
       <c r="I201" t="n">
         <v>368.46</v>
@@ -11069,10 +11069,10 @@
         <v>367.08</v>
       </c>
       <c r="G202" t="n">
-        <v>364.94</v>
+        <v>364.72</v>
       </c>
       <c r="H202" t="n">
-        <v>361.4</v>
+        <v>360.8</v>
       </c>
       <c r="I202" t="n">
         <v>365.76</v>
@@ -11120,10 +11120,10 @@
         <v>352.11</v>
       </c>
       <c r="G203" t="n">
-        <v>353.19</v>
+        <v>353.54</v>
       </c>
       <c r="H203" t="n">
-        <v>353.39</v>
+        <v>354.34</v>
       </c>
       <c r="I203" t="n">
         <v>362.31</v>
@@ -11177,10 +11177,10 @@
         <v>367.51</v>
       </c>
       <c r="G204" t="n">
-        <v>366.23</v>
+        <v>366.4</v>
       </c>
       <c r="H204" t="n">
-        <v>370.25</v>
+        <v>370.71</v>
       </c>
       <c r="I204" t="n">
         <v>371.03</v>
@@ -11234,10 +11234,10 @@
         <v>366.79</v>
       </c>
       <c r="G205" t="n">
-        <v>367.8</v>
+        <v>368.01</v>
       </c>
       <c r="H205" t="n">
-        <v>368.51</v>
+        <v>369.09</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -11285,10 +11285,10 @@
         <v>373.65</v>
       </c>
       <c r="G206" t="n">
-        <v>367.12</v>
+        <v>366.75</v>
       </c>
       <c r="H206" t="n">
-        <v>365.59</v>
+        <v>364.59</v>
       </c>
       <c r="I206" t="n">
         <v>367.66</v>
@@ -11393,7 +11393,7 @@
         <v>362.2</v>
       </c>
       <c r="G208" t="n">
-        <v>363.95</v>
+        <v>364.37</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -11444,10 +11444,10 @@
         <v>368.79</v>
       </c>
       <c r="G209" t="n">
-        <v>364.9</v>
+        <v>364.63</v>
       </c>
       <c r="H209" t="n">
-        <v>362.19</v>
+        <v>361.48</v>
       </c>
       <c r="I209" t="n">
         <v>364.54</v>
@@ -11504,7 +11504,7 @@
         <v>367.76</v>
       </c>
       <c r="H210" t="n">
-        <v>366.51</v>
+        <v>366.53</v>
       </c>
       <c r="I210" t="n">
         <v>363.35</v>
@@ -11552,10 +11552,10 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>368.06</v>
+        <v>368.02</v>
       </c>
       <c r="H211" t="n">
-        <v>358.9</v>
+        <v>358.78</v>
       </c>
       <c r="I211" t="n">
         <v>367.08</v>
@@ -11601,10 +11601,10 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>361.75</v>
+        <v>361.43</v>
       </c>
       <c r="H212" t="n">
-        <v>357.59</v>
+        <v>356.73</v>
       </c>
       <c r="I212" t="n">
         <v>361.76</v>
@@ -11656,10 +11656,10 @@
         <v>360.65</v>
       </c>
       <c r="G213" t="n">
-        <v>353.49</v>
+        <v>353.2</v>
       </c>
       <c r="H213" t="n">
-        <v>352.58</v>
+        <v>351.81</v>
       </c>
       <c r="I213" t="n">
         <v>357.1</v>
@@ -11709,10 +11709,10 @@
         <v>355.1</v>
       </c>
       <c r="G214" t="n">
-        <v>353.32</v>
+        <v>353.66</v>
       </c>
       <c r="H214" t="n">
-        <v>355.18</v>
+        <v>356.1</v>
       </c>
       <c r="I214" t="n">
         <v>359.57</v>
@@ -11758,10 +11758,10 @@
         <v>359.31</v>
       </c>
       <c r="G215" t="n">
-        <v>353.51</v>
+        <v>353.21</v>
       </c>
       <c r="H215" t="n">
-        <v>349.73</v>
+        <v>348.92</v>
       </c>
       <c r="I215" t="n">
         <v>351.7</v>
@@ -11815,10 +11815,10 @@
         <v>352.14</v>
       </c>
       <c r="G216" t="n">
-        <v>353.12</v>
+        <v>353.07</v>
       </c>
       <c r="H216" t="n">
-        <v>353.46</v>
+        <v>353.32</v>
       </c>
       <c r="I216" t="n">
         <v>353.51</v>
@@ -11872,10 +11872,10 @@
         <v>370.15</v>
       </c>
       <c r="G217" t="n">
-        <v>373.43</v>
+        <v>373.53</v>
       </c>
       <c r="H217" t="n">
-        <v>375.64</v>
+        <v>375.89</v>
       </c>
       <c r="I217" t="n">
         <v>375.57</v>
@@ -11929,10 +11929,10 @@
         <v>372.23</v>
       </c>
       <c r="G218" t="n">
-        <v>371.48</v>
+        <v>371.33</v>
       </c>
       <c r="H218" t="n">
-        <v>370.77</v>
+        <v>370.36</v>
       </c>
       <c r="I218" t="n">
         <v>373.37</v>
@@ -11986,10 +11986,10 @@
         <v>369.56</v>
       </c>
       <c r="G219" t="n">
-        <v>371.28</v>
+        <v>371.34</v>
       </c>
       <c r="H219" t="n">
-        <v>369.11</v>
+        <v>369.26</v>
       </c>
       <c r="I219" t="n">
         <v>372.19</v>
@@ -12043,10 +12043,10 @@
         <v>370.71</v>
       </c>
       <c r="G220" t="n">
-        <v>373.14</v>
+        <v>373.29</v>
       </c>
       <c r="H220" t="n">
-        <v>375.05</v>
+        <v>375.45</v>
       </c>
       <c r="I220" t="n">
         <v>377.49</v>
@@ -12100,10 +12100,10 @@
         <v>371.1</v>
       </c>
       <c r="G221" t="n">
-        <v>376.55</v>
+        <v>376.89</v>
       </c>
       <c r="H221" t="n">
-        <v>379.27</v>
+        <v>380.18</v>
       </c>
       <c r="I221" t="n">
         <v>384.36</v>
@@ -12157,7 +12157,7 @@
         <v>366.98</v>
       </c>
       <c r="G222" t="n">
-        <v>373.26</v>
+        <v>372.97</v>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -12210,10 +12210,10 @@
         <v>368.26</v>
       </c>
       <c r="G223" t="n">
-        <v>365.94</v>
+        <v>365.74</v>
       </c>
       <c r="H223" t="n">
-        <v>363.51</v>
+        <v>362.99</v>
       </c>
       <c r="I223" t="n">
         <v>366.84</v>
@@ -12267,10 +12267,10 @@
         <v>369.86</v>
       </c>
       <c r="G224" t="n">
-        <v>379.79</v>
+        <v>380.15</v>
       </c>
       <c r="H224" t="n">
-        <v>379.03</v>
+        <v>379.99</v>
       </c>
       <c r="I224" t="n">
         <v>384.99</v>
@@ -12381,10 +12381,10 @@
         <v>373.93</v>
       </c>
       <c r="G226" t="n">
-        <v>372.2</v>
+        <v>372.29</v>
       </c>
       <c r="H226" t="n">
-        <v>378.1</v>
+        <v>378.33</v>
       </c>
       <c r="I226" t="n">
         <v>378.02</v>
@@ -12428,10 +12428,10 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>370.36</v>
+        <v>370.61</v>
       </c>
       <c r="H227" t="n">
-        <v>368.97</v>
+        <v>369.64</v>
       </c>
       <c r="I227" t="n">
         <v>365.75</v>
@@ -12481,10 +12481,10 @@
         <v>363.65</v>
       </c>
       <c r="G228" t="n">
-        <v>364.31</v>
+        <v>364.66</v>
       </c>
       <c r="H228" t="n">
-        <v>368.59</v>
+        <v>369.53</v>
       </c>
       <c r="I228" t="n">
         <v>366.68</v>
@@ -12534,10 +12534,10 @@
         <v>367.13</v>
       </c>
       <c r="G229" t="n">
-        <v>364.39</v>
+        <v>364.07</v>
       </c>
       <c r="H229" t="n">
-        <v>361.75</v>
+        <v>360.89</v>
       </c>
       <c r="I229" t="n">
         <v>362.52</v>
@@ -12581,10 +12581,10 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>339.12</v>
+        <v>339.27</v>
       </c>
       <c r="H230" t="n">
-        <v>344.94</v>
+        <v>345.34</v>
       </c>
       <c r="I230" t="n">
         <v>348.59</v>
@@ -12632,10 +12632,10 @@
         <v>365.71</v>
       </c>
       <c r="G231" t="n">
-        <v>364.61</v>
+        <v>364.32</v>
       </c>
       <c r="H231" t="n">
-        <v>357.9</v>
+        <v>357.13</v>
       </c>
       <c r="I231" t="n">
         <v>356.22</v>
@@ -12689,10 +12689,10 @@
         <v>358.52</v>
       </c>
       <c r="G232" t="n">
-        <v>354.48</v>
+        <v>354.52</v>
       </c>
       <c r="H232" t="n">
-        <v>353.87</v>
+        <v>353.97</v>
       </c>
       <c r="I232" t="n">
         <v>377.33</v>
@@ -12791,10 +12791,10 @@
         <v>367.31</v>
       </c>
       <c r="G234" t="n">
-        <v>365.36</v>
+        <v>365</v>
       </c>
       <c r="H234" t="n">
-        <v>365.69</v>
+        <v>364.71</v>
       </c>
       <c r="I234" t="n">
         <v>371.54</v>
@@ -12842,10 +12842,10 @@
         <v>335.43</v>
       </c>
       <c r="G235" t="n">
-        <v>345.59</v>
+        <v>345.91</v>
       </c>
       <c r="H235" t="n">
-        <v>347.88</v>
+        <v>348.74</v>
       </c>
       <c r="I235" t="n">
         <v>353.32</v>
@@ -12897,10 +12897,10 @@
         <v>366.69</v>
       </c>
       <c r="G236" t="n">
-        <v>366.56</v>
+        <v>366.22</v>
       </c>
       <c r="H236" t="n">
-        <v>362.38</v>
+        <v>361.47</v>
       </c>
       <c r="I236" t="n">
         <v>368.46</v>
@@ -12954,10 +12954,10 @@
         <v>373.28</v>
       </c>
       <c r="G237" t="n">
-        <v>370.96</v>
+        <v>370.71</v>
       </c>
       <c r="H237" t="n">
-        <v>370.67</v>
+        <v>369.99</v>
       </c>
       <c r="I237" t="n">
         <v>365.87</v>
@@ -13005,10 +13005,10 @@
         <v>367.5</v>
       </c>
       <c r="G238" t="n">
-        <v>366.01</v>
+        <v>365.78</v>
       </c>
       <c r="H238" t="n">
-        <v>361.51</v>
+        <v>360.89</v>
       </c>
       <c r="I238" t="n">
         <v>365.52</v>
@@ -13056,10 +13056,10 @@
         <v>370.39</v>
       </c>
       <c r="G239" t="n">
-        <v>374.88</v>
+        <v>375.09</v>
       </c>
       <c r="H239" t="n">
-        <v>374.75</v>
+        <v>375.33</v>
       </c>
       <c r="I239" t="n">
         <v>380.58</v>
@@ -13113,10 +13113,10 @@
         <v>368.74</v>
       </c>
       <c r="G240" t="n">
-        <v>368.92</v>
+        <v>368.78</v>
       </c>
       <c r="H240" t="n">
-        <v>369.32</v>
+        <v>368.95</v>
       </c>
       <c r="I240" t="n">
         <v>371.35</v>
@@ -13168,10 +13168,10 @@
         <v>369.75</v>
       </c>
       <c r="G241" t="n">
-        <v>373.93</v>
+        <v>374.12</v>
       </c>
       <c r="H241" t="n">
-        <v>378.97</v>
+        <v>379.47</v>
       </c>
       <c r="I241" t="n">
         <v>379.69</v>
@@ -13225,10 +13225,10 @@
         <v>365.38</v>
       </c>
       <c r="G242" t="n">
-        <v>369.54</v>
+        <v>369.51</v>
       </c>
       <c r="H242" t="n">
-        <v>368.88</v>
+        <v>368.8</v>
       </c>
       <c r="I242" t="n">
         <v>372.32</v>
@@ -13280,10 +13280,10 @@
         <v>370.21</v>
       </c>
       <c r="G243" t="n">
-        <v>371.43</v>
+        <v>371.75</v>
       </c>
       <c r="H243" t="n">
-        <v>377.54</v>
+        <v>378.4</v>
       </c>
       <c r="I243" t="n">
         <v>381.5</v>
@@ -13337,10 +13337,10 @@
         <v>368.63</v>
       </c>
       <c r="G244" t="n">
-        <v>368.06</v>
+        <v>367.91</v>
       </c>
       <c r="H244" t="n">
-        <v>371.2</v>
+        <v>370.79</v>
       </c>
       <c r="I244" t="n">
         <v>372.35</v>
@@ -13386,10 +13386,10 @@
         <v>371.83</v>
       </c>
       <c r="G245" t="n">
-        <v>378.22</v>
+        <v>378.52</v>
       </c>
       <c r="H245" t="n">
-        <v>380.98</v>
+        <v>381.8</v>
       </c>
       <c r="I245" t="n">
         <v>385.12</v>
@@ -13443,10 +13443,10 @@
         <v>369.09</v>
       </c>
       <c r="G246" t="n">
-        <v>362.11</v>
+        <v>361.91</v>
       </c>
       <c r="H246" t="n">
-        <v>364.26</v>
+        <v>363.74</v>
       </c>
       <c r="I246" t="n">
         <v>367.09</v>
@@ -13500,10 +13500,10 @@
         <v>359.01</v>
       </c>
       <c r="G247" t="n">
-        <v>363.81</v>
+        <v>364.11</v>
       </c>
       <c r="H247" t="n">
-        <v>367.62</v>
+        <v>368.41</v>
       </c>
       <c r="I247" t="n">
         <v>373.1</v>
@@ -13555,10 +13555,10 @@
         <v>375.69</v>
       </c>
       <c r="G248" t="n">
-        <v>368.53</v>
+        <v>368.15</v>
       </c>
       <c r="H248" t="n">
-        <v>366.09</v>
+        <v>365.07</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -13641,7 +13641,7 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="n">
-        <v>357.88</v>
+        <v>357.96</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="n">
@@ -13684,10 +13684,10 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>360.02</v>
+        <v>359.98</v>
       </c>
       <c r="H251" t="n">
-        <v>354.03</v>
+        <v>353.91</v>
       </c>
       <c r="I251" t="n">
         <v>359.46</v>
@@ -13735,10 +13735,10 @@
         <v>363.42</v>
       </c>
       <c r="G252" t="n">
-        <v>360.97</v>
+        <v>360.8</v>
       </c>
       <c r="H252" t="n">
-        <v>356.64</v>
+        <v>356.19</v>
       </c>
       <c r="I252" t="n">
         <v>357.92</v>
@@ -13792,10 +13792,10 @@
         <v>367.36</v>
       </c>
       <c r="G253" t="n">
-        <v>365.34</v>
+        <v>364.97</v>
       </c>
       <c r="H253" t="n">
-        <v>353.92</v>
+        <v>352.92</v>
       </c>
       <c r="I253" t="n">
         <v>359.36</v>
@@ -13849,10 +13849,10 @@
         <v>367.32</v>
       </c>
       <c r="G254" t="n">
-        <v>367.27</v>
+        <v>367.77</v>
       </c>
       <c r="H254" t="n">
-        <v>364.71</v>
+        <v>366.06</v>
       </c>
       <c r="I254" t="n">
         <v>369.71</v>
@@ -13906,10 +13906,10 @@
         <v>369.07</v>
       </c>
       <c r="G255" t="n">
-        <v>373.24</v>
+        <v>373.35</v>
       </c>
       <c r="H255" t="n">
-        <v>376.39</v>
+        <v>376.7</v>
       </c>
       <c r="I255" t="n">
         <v>381.36</v>
@@ -13998,10 +13998,10 @@
         <v>368.24</v>
       </c>
       <c r="G257" t="n">
-        <v>365.95</v>
+        <v>365.69</v>
       </c>
       <c r="H257" t="n">
-        <v>362.19</v>
+        <v>361.5</v>
       </c>
       <c r="I257" t="n">
         <v>367.2</v>
@@ -14055,10 +14055,10 @@
         <v>362.61</v>
       </c>
       <c r="G258" t="n">
-        <v>364.29</v>
+        <v>364.77</v>
       </c>
       <c r="H258" t="n">
-        <v>365.71</v>
+        <v>367</v>
       </c>
       <c r="I258" t="n">
         <v>371.22</v>
@@ -14110,10 +14110,10 @@
         <v>362.94</v>
       </c>
       <c r="G259" t="n">
-        <v>360.98</v>
+        <v>360.83</v>
       </c>
       <c r="H259" t="n">
-        <v>357.21</v>
+        <v>356.8</v>
       </c>
       <c r="I259" t="n">
         <v>357.36</v>
@@ -14167,10 +14167,10 @@
         <v>371.45</v>
       </c>
       <c r="G260" t="n">
-        <v>373.23</v>
+        <v>373.28</v>
       </c>
       <c r="H260" t="n">
-        <v>377.46</v>
+        <v>377.6</v>
       </c>
       <c r="I260" t="n">
         <v>376.8</v>
@@ -14224,10 +14224,10 @@
         <v>371.7</v>
       </c>
       <c r="G261" t="n">
-        <v>371.74</v>
+        <v>371.77</v>
       </c>
       <c r="H261" t="n">
-        <v>372.24</v>
+        <v>372.32</v>
       </c>
       <c r="I261" t="n">
         <v>375.02</v>
@@ -14281,10 +14281,10 @@
         <v>386.46</v>
       </c>
       <c r="G262" t="n">
-        <v>371.14</v>
+        <v>370.77</v>
       </c>
       <c r="H262" t="n">
-        <v>365.97</v>
+        <v>364.97</v>
       </c>
       <c r="I262" t="n">
         <v>368.02</v>
@@ -14338,10 +14338,10 @@
         <v>364.47</v>
       </c>
       <c r="G263" t="n">
-        <v>367.08</v>
+        <v>367.45</v>
       </c>
       <c r="H263" t="n">
-        <v>361.82</v>
+        <v>362.8</v>
       </c>
       <c r="I263" t="n">
         <v>365.18</v>
@@ -14395,10 +14395,10 @@
         <v>362.85</v>
       </c>
       <c r="G264" t="n">
-        <v>368.49</v>
+        <v>368.98</v>
       </c>
       <c r="H264" t="n">
-        <v>361.81</v>
+        <v>363.12</v>
       </c>
       <c r="I264" t="n">
         <v>367.46</v>
@@ -14452,10 +14452,10 @@
         <v>360.67</v>
       </c>
       <c r="G265" t="n">
-        <v>365.53</v>
+        <v>365.8</v>
       </c>
       <c r="H265" t="n">
-        <v>360.03</v>
+        <v>360.74</v>
       </c>
       <c r="I265" t="n">
         <v>367.29</v>
@@ -14509,10 +14509,10 @@
         <v>366.92</v>
       </c>
       <c r="G266" t="n">
-        <v>366.77</v>
+        <v>366.51</v>
       </c>
       <c r="H266" t="n">
-        <v>366.51</v>
+        <v>365.8</v>
       </c>
       <c r="I266" t="n">
         <v>369.24</v>
@@ -14566,10 +14566,10 @@
         <v>372.66</v>
       </c>
       <c r="G267" t="n">
-        <v>369.95</v>
+        <v>369.92</v>
       </c>
       <c r="H267" t="n">
-        <v>371.89</v>
+        <v>371.8</v>
       </c>
       <c r="I267" t="n">
         <v>376.25</v>
@@ -14621,10 +14621,10 @@
         <v>362.73</v>
       </c>
       <c r="G268" t="n">
-        <v>366.23</v>
+        <v>366.15</v>
       </c>
       <c r="H268" t="n">
-        <v>356.09</v>
+        <v>355.88</v>
       </c>
       <c r="I268" t="n">
         <v>360.28</v>
@@ -14678,10 +14678,10 @@
         <v>371.83</v>
       </c>
       <c r="G269" t="n">
-        <v>373.61</v>
+        <v>373.78</v>
       </c>
       <c r="H269" t="n">
-        <v>373.96</v>
+        <v>374.41</v>
       </c>
       <c r="I269" t="n">
         <v>377.59</v>
@@ -14733,10 +14733,10 @@
         <v>364.23</v>
       </c>
       <c r="G270" t="n">
-        <v>359.5</v>
+        <v>359.3</v>
       </c>
       <c r="H270" t="n">
-        <v>355.44</v>
+        <v>354.92</v>
       </c>
       <c r="I270" t="n">
         <v>358.58</v>
@@ -14790,10 +14790,10 @@
         <v>370.7</v>
       </c>
       <c r="G271" t="n">
-        <v>371.87</v>
+        <v>371.79</v>
       </c>
       <c r="H271" t="n">
-        <v>368.51</v>
+        <v>368.3</v>
       </c>
       <c r="I271" t="n">
         <v>370.8</v>
@@ -14847,10 +14847,10 @@
         <v>369.88</v>
       </c>
       <c r="G272" t="n">
-        <v>367.7</v>
+        <v>367.41</v>
       </c>
       <c r="H272" t="n">
-        <v>363.63</v>
+        <v>362.84</v>
       </c>
       <c r="I272" t="n">
         <v>361.77</v>
@@ -14904,10 +14904,10 @@
         <v>374.66</v>
       </c>
       <c r="G273" t="n">
-        <v>374.29</v>
+        <v>374.34</v>
       </c>
       <c r="H273" t="n">
-        <v>376.01</v>
+        <v>376.14</v>
       </c>
       <c r="I273" t="n">
         <v>375.38</v>
@@ -14961,10 +14961,10 @@
         <v>369.32</v>
       </c>
       <c r="G274" t="n">
-        <v>369.31</v>
+        <v>369.29</v>
       </c>
       <c r="H274" t="n">
-        <v>362.97</v>
+        <v>362.91</v>
       </c>
       <c r="I274" t="n">
         <v>364.64</v>
@@ -15018,10 +15018,10 @@
         <v>378.95</v>
       </c>
       <c r="G275" t="n">
-        <v>372.42</v>
+        <v>372.41</v>
       </c>
       <c r="H275" t="n">
-        <v>375.97</v>
+        <v>375.95</v>
       </c>
       <c r="I275" t="n">
         <v>374.44</v>
@@ -15075,10 +15075,10 @@
         <v>369.12</v>
       </c>
       <c r="G276" t="n">
-        <v>372.24</v>
+        <v>372.36</v>
       </c>
       <c r="H276" t="n">
-        <v>366.28</v>
+        <v>366.61</v>
       </c>
       <c r="I276" t="n">
         <v>365</v>
@@ -15132,10 +15132,10 @@
         <v>376.36</v>
       </c>
       <c r="G277" t="n">
-        <v>377.02</v>
+        <v>377.22</v>
       </c>
       <c r="H277" t="n">
-        <v>382.86</v>
+        <v>383.41</v>
       </c>
       <c r="I277" t="n">
         <v>382.26</v>
@@ -15232,10 +15232,10 @@
         <v>360.64</v>
       </c>
       <c r="G279" t="n">
-        <v>353.96</v>
+        <v>353.64</v>
       </c>
       <c r="H279" t="n">
-        <v>343.71</v>
+        <v>342.85</v>
       </c>
       <c r="I279" t="n">
         <v>346.98</v>
@@ -15287,10 +15287,10 @@
         <v>371.71</v>
       </c>
       <c r="G280" t="n">
-        <v>377.99</v>
+        <v>378.29</v>
       </c>
       <c r="H280" t="n">
-        <v>376.87</v>
+        <v>377.68</v>
       </c>
       <c r="I280" t="n">
         <v>382.24</v>
@@ -15344,10 +15344,10 @@
         <v>367.73</v>
       </c>
       <c r="G281" t="n">
-        <v>362.17</v>
+        <v>361.79</v>
       </c>
       <c r="H281" t="n">
-        <v>356.92</v>
+        <v>355.9</v>
       </c>
       <c r="I281" t="n">
         <v>363.17</v>
@@ -15391,10 +15391,10 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>365.6</v>
+        <v>365.75</v>
       </c>
       <c r="H282" t="n">
-        <v>357.86</v>
+        <v>358.27</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -15430,10 +15430,10 @@
         <v>353.36</v>
       </c>
       <c r="G283" t="n">
-        <v>336.93</v>
+        <v>337</v>
       </c>
       <c r="H283" t="n">
-        <v>337.84</v>
+        <v>338.02</v>
       </c>
       <c r="I283" t="n">
         <v>344.79</v>
@@ -15474,7 +15474,7 @@
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="n">
-        <v>368.24</v>
+        <v>367.64</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -15522,10 +15522,10 @@
         <v>373.07</v>
       </c>
       <c r="G285" t="n">
-        <v>366.94</v>
+        <v>366.67</v>
       </c>
       <c r="H285" t="n">
-        <v>364.69</v>
+        <v>363.96</v>
       </c>
       <c r="I285" t="n">
         <v>367.94</v>
@@ -15618,10 +15618,10 @@
         <v>371.31</v>
       </c>
       <c r="G287" t="n">
-        <v>368.65</v>
+        <v>369.19</v>
       </c>
       <c r="H287" t="n">
-        <v>360.5</v>
+        <v>361.96</v>
       </c>
       <c r="I287" t="n">
         <v>368.87</v>
@@ -15675,10 +15675,10 @@
         <v>362.76</v>
       </c>
       <c r="G288" t="n">
-        <v>360.42</v>
+        <v>360.15</v>
       </c>
       <c r="H288" t="n">
-        <v>355.19</v>
+        <v>354.48</v>
       </c>
       <c r="I288" t="n">
         <v>353.44</v>
@@ -15757,10 +15757,10 @@
         <v>369.3</v>
       </c>
       <c r="G290" t="n">
-        <v>369.07</v>
+        <v>369.06</v>
       </c>
       <c r="H290" t="n">
-        <v>363.42</v>
+        <v>363.4</v>
       </c>
       <c r="I290" t="n">
         <v>358.41</v>
@@ -15812,10 +15812,10 @@
         <v>385.63</v>
       </c>
       <c r="G291" t="n">
-        <v>375.93</v>
+        <v>375.91</v>
       </c>
       <c r="H291" t="n">
-        <v>375.48</v>
+        <v>375.43</v>
       </c>
       <c r="I291" t="n">
         <v>363.31</v>
@@ -15855,10 +15855,10 @@
         <v>369.33</v>
       </c>
       <c r="G292" t="n">
-        <v>373.08</v>
+        <v>373.24</v>
       </c>
       <c r="H292" t="n">
-        <v>371.99</v>
+        <v>372.43</v>
       </c>
       <c r="I292" t="n">
         <v>365.11</v>
@@ -15912,10 +15912,10 @@
         <v>371.82</v>
       </c>
       <c r="G293" t="n">
-        <v>373.27</v>
+        <v>373.47</v>
       </c>
       <c r="H293" t="n">
-        <v>373.6</v>
+        <v>374.12</v>
       </c>
       <c r="I293" t="n">
         <v>367.91</v>
@@ -15963,10 +15963,10 @@
         <v>369.47</v>
       </c>
       <c r="G294" t="n">
-        <v>366.05</v>
+        <v>365.82</v>
       </c>
       <c r="H294" t="n">
-        <v>367.04</v>
+        <v>366.42</v>
       </c>
       <c r="I294" t="n">
         <v>359.17</v>
@@ -16010,10 +16010,10 @@
         <v>374.66</v>
       </c>
       <c r="G295" t="n">
-        <v>367.69</v>
+        <v>367.55</v>
       </c>
       <c r="H295" t="n">
-        <v>368.53</v>
+        <v>368.16</v>
       </c>
       <c r="I295" t="n">
         <v>370.93</v>
@@ -16063,10 +16063,10 @@
         <v>367.73</v>
       </c>
       <c r="G296" t="n">
-        <v>364.24</v>
+        <v>364.44</v>
       </c>
       <c r="H296" t="n">
-        <v>366.61</v>
+        <v>367.13</v>
       </c>
       <c r="I296" t="n">
         <v>361.11</v>
@@ -16110,10 +16110,10 @@
         <v>369.27</v>
       </c>
       <c r="G297" t="n">
-        <v>371.98</v>
+        <v>372.34</v>
       </c>
       <c r="H297" t="n">
-        <v>367.71</v>
+        <v>368.69</v>
       </c>
       <c r="I297" t="n">
         <v>365.43</v>
@@ -16157,10 +16157,10 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>383.43</v>
+        <v>383.31</v>
       </c>
       <c r="H298" t="n">
-        <v>374.82</v>
+        <v>374.49</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
@@ -16229,10 +16229,10 @@
         <v>371.35</v>
       </c>
       <c r="G300" t="n">
-        <v>374.74</v>
+        <v>374.9</v>
       </c>
       <c r="H300" t="n">
-        <v>372.36</v>
+        <v>372.8</v>
       </c>
       <c r="I300" t="n">
         <v>369.16</v>
@@ -16286,10 +16286,10 @@
         <v>357.78</v>
       </c>
       <c r="G301" t="n">
-        <v>355.54</v>
+        <v>355.24</v>
       </c>
       <c r="H301" t="n">
-        <v>357.69</v>
+        <v>356.9</v>
       </c>
       <c r="I301" t="n">
         <v>355.46</v>
@@ -16337,10 +16337,10 @@
         <v>372.43</v>
       </c>
       <c r="G302" t="n">
-        <v>376.2</v>
+        <v>376.27</v>
       </c>
       <c r="H302" t="n">
-        <v>375.7</v>
+        <v>375.88</v>
       </c>
       <c r="I302" t="n">
         <v>376.79</v>
@@ -16394,10 +16394,10 @@
         <v>370.66</v>
       </c>
       <c r="G303" t="n">
-        <v>371.36</v>
+        <v>371.34</v>
       </c>
       <c r="H303" t="n">
-        <v>372.78</v>
+        <v>372.73</v>
       </c>
       <c r="I303" t="n">
         <v>370.82</v>
@@ -16449,10 +16449,10 @@
         <v>374.04</v>
       </c>
       <c r="G304" t="n">
-        <v>366.05</v>
+        <v>365.73</v>
       </c>
       <c r="H304" t="n">
-        <v>362.43</v>
+        <v>361.57</v>
       </c>
       <c r="I304" t="n">
         <v>364.37</v>
@@ -16506,10 +16506,10 @@
         <v>371.13</v>
       </c>
       <c r="G305" t="n">
-        <v>366.09</v>
+        <v>365.79</v>
       </c>
       <c r="H305" t="n">
-        <v>366.27</v>
+        <v>365.46</v>
       </c>
       <c r="I305" t="n">
         <v>364.24</v>
@@ -16563,10 +16563,10 @@
         <v>374.03</v>
       </c>
       <c r="G306" t="n">
-        <v>377.56</v>
+        <v>378.01</v>
       </c>
       <c r="H306" t="n">
-        <v>370.58</v>
+        <v>371.79</v>
       </c>
       <c r="I306" t="n">
         <v>373.04</v>
@@ -16618,10 +16618,10 @@
         <v>371.14</v>
       </c>
       <c r="G307" t="n">
-        <v>367.27</v>
+        <v>366.97</v>
       </c>
       <c r="H307" t="n">
-        <v>356.74</v>
+        <v>355.92</v>
       </c>
       <c r="I307" t="n">
         <v>359.16</v>
@@ -16665,10 +16665,10 @@
         <v>369.49</v>
       </c>
       <c r="G308" t="n">
-        <v>375.05</v>
+        <v>375.34</v>
       </c>
       <c r="H308" t="n">
-        <v>365.01</v>
+        <v>365.8</v>
       </c>
       <c r="I308" t="n">
         <v>365.33</v>
@@ -16755,10 +16755,10 @@
         <v>366.55</v>
       </c>
       <c r="G310" t="n">
-        <v>362.91</v>
+        <v>363.07</v>
       </c>
       <c r="H310" t="n">
-        <v>356.67</v>
+        <v>357.11</v>
       </c>
       <c r="I310" t="n">
         <v>358.35</v>
@@ -16804,10 +16804,10 @@
         <v>365.77</v>
       </c>
       <c r="G311" t="n">
-        <v>363.08</v>
+        <v>362.78</v>
       </c>
       <c r="H311" t="n">
-        <v>359.48</v>
+        <v>358.69</v>
       </c>
       <c r="I311" t="n">
         <v>354.85</v>
@@ -16859,10 +16859,10 @@
         <v>363.65</v>
       </c>
       <c r="G312" t="n">
-        <v>364.05</v>
+        <v>363.76</v>
       </c>
       <c r="H312" t="n">
-        <v>358.33</v>
+        <v>357.56</v>
       </c>
       <c r="I312" t="n">
         <v>356.47</v>
@@ -16916,10 +16916,10 @@
         <v>374.2</v>
       </c>
       <c r="G313" t="n">
-        <v>375.08</v>
+        <v>375.26</v>
       </c>
       <c r="H313" t="n">
-        <v>383.09</v>
+        <v>383.57</v>
       </c>
       <c r="I313" t="n">
         <v>384.53</v>
@@ -16973,10 +16973,10 @@
         <v>364.74</v>
       </c>
       <c r="G314" t="n">
-        <v>362.84</v>
+        <v>362.98</v>
       </c>
       <c r="H314" t="n">
-        <v>363.22</v>
+        <v>363.59</v>
       </c>
       <c r="I314" t="n">
         <v>366.07</v>
@@ -17028,7 +17028,7 @@
         <v>372.54</v>
       </c>
       <c r="G315" t="n">
-        <v>363.62</v>
+        <v>363.56</v>
       </c>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
@@ -17073,10 +17073,10 @@
         <v>369.71</v>
       </c>
       <c r="G316" t="n">
-        <v>371.91</v>
+        <v>371.95</v>
       </c>
       <c r="H316" t="n">
-        <v>373.64</v>
+        <v>373.74</v>
       </c>
       <c r="I316" t="n">
         <v>374.64</v>
@@ -17122,10 +17122,10 @@
         <v>369.14</v>
       </c>
       <c r="G317" t="n">
-        <v>372.73</v>
+        <v>373.19</v>
       </c>
       <c r="H317" t="n">
-        <v>371.24</v>
+        <v>372.49</v>
       </c>
       <c r="I317" t="n">
         <v>387.24</v>
@@ -17171,10 +17171,10 @@
         <v>369.56</v>
       </c>
       <c r="G318" t="n">
-        <v>374.75</v>
+        <v>375</v>
       </c>
       <c r="H318" t="n">
-        <v>371.64</v>
+        <v>372.32</v>
       </c>
       <c r="I318" t="n">
         <v>374.39</v>
@@ -17228,10 +17228,10 @@
         <v>356.91</v>
       </c>
       <c r="G319" t="n">
-        <v>359.01</v>
+        <v>359.39</v>
       </c>
       <c r="H319" t="n">
-        <v>355.42</v>
+        <v>356.44</v>
       </c>
       <c r="I319" t="n">
         <v>361.85</v>
@@ -17285,10 +17285,10 @@
         <v>364.72</v>
       </c>
       <c r="G320" t="n">
-        <v>371.06</v>
+        <v>371.6</v>
       </c>
       <c r="H320" t="n">
-        <v>371.86</v>
+        <v>373.32</v>
       </c>
       <c r="I320" t="n">
         <v>374.31</v>
@@ -17340,10 +17340,10 @@
         <v>369.42</v>
       </c>
       <c r="G321" t="n">
-        <v>369.54</v>
+        <v>369.34</v>
       </c>
       <c r="H321" t="n">
-        <v>367</v>
+        <v>366.46</v>
       </c>
       <c r="I321" t="n">
         <v>370.5</v>
@@ -17397,10 +17397,10 @@
         <v>370.66</v>
       </c>
       <c r="G322" t="n">
-        <v>366.26</v>
+        <v>365.98</v>
       </c>
       <c r="H322" t="n">
-        <v>367.5</v>
+        <v>366.75</v>
       </c>
       <c r="I322" t="n">
         <v>366.95</v>
@@ -17454,10 +17454,10 @@
         <v>372.08</v>
       </c>
       <c r="G323" t="n">
-        <v>374.56</v>
+        <v>374.73</v>
       </c>
       <c r="H323" t="n">
-        <v>379.53</v>
+        <v>379.98</v>
       </c>
       <c r="I323" t="n">
         <v>383.38</v>
@@ -17511,10 +17511,10 @@
         <v>368.28</v>
       </c>
       <c r="G324" t="n">
-        <v>369.73</v>
+        <v>369.72</v>
       </c>
       <c r="H324" t="n">
-        <v>373.13</v>
+        <v>373.11</v>
       </c>
       <c r="I324" t="n">
         <v>374.84</v>
@@ -17568,10 +17568,10 @@
         <v>380.66</v>
       </c>
       <c r="G325" t="n">
-        <v>365.78</v>
+        <v>365.93</v>
       </c>
       <c r="H325" t="n">
-        <v>376.39</v>
+        <v>376.8</v>
       </c>
       <c r="I325" t="n">
         <v>368.57</v>
@@ -17625,10 +17625,10 @@
         <v>370.88</v>
       </c>
       <c r="G326" t="n">
-        <v>367.99</v>
+        <v>367.68</v>
       </c>
       <c r="H326" t="n">
-        <v>367.52</v>
+        <v>366.69</v>
       </c>
       <c r="I326" t="n">
         <v>368.94</v>
@@ -17682,10 +17682,10 @@
         <v>371.46</v>
       </c>
       <c r="G327" t="n">
-        <v>376.55</v>
+        <v>376.92</v>
       </c>
       <c r="H327" t="n">
-        <v>373.94</v>
+        <v>374.92</v>
       </c>
       <c r="I327" t="n">
         <v>377.3</v>
@@ -17739,10 +17739,10 @@
         <v>369.08</v>
       </c>
       <c r="G328" t="n">
-        <v>373.19</v>
+        <v>373.5</v>
       </c>
       <c r="H328" t="n">
-        <v>348.34</v>
+        <v>349.19</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -17780,10 +17780,10 @@
         <v>373.06</v>
       </c>
       <c r="G329" t="n">
-        <v>372.35</v>
+        <v>372.45</v>
       </c>
       <c r="H329" t="n">
-        <v>376.94</v>
+        <v>377.23</v>
       </c>
       <c r="I329" t="n">
         <v>376.43</v>
@@ -17840,7 +17840,7 @@
         <v>370.78</v>
       </c>
       <c r="H330" t="n">
-        <v>371.36</v>
+        <v>371.38</v>
       </c>
       <c r="I330" t="n">
         <v>364.48</v>
@@ -17894,10 +17894,10 @@
         <v>366.02</v>
       </c>
       <c r="G331" t="n">
-        <v>368.11</v>
+        <v>368.21</v>
       </c>
       <c r="H331" t="n">
-        <v>363.38</v>
+        <v>363.65</v>
       </c>
       <c r="I331" t="n">
         <v>366.83</v>
@@ -17951,10 +17951,10 @@
         <v>368.67</v>
       </c>
       <c r="G332" t="n">
-        <v>364.88</v>
+        <v>364.57</v>
       </c>
       <c r="H332" t="n">
-        <v>361.91</v>
+        <v>361.08</v>
       </c>
       <c r="I332" t="n">
         <v>357.96</v>
@@ -18045,10 +18045,10 @@
         <v>369.53</v>
       </c>
       <c r="G334" t="n">
-        <v>372.71</v>
+        <v>372.88</v>
       </c>
       <c r="H334" t="n">
-        <v>374.52</v>
+        <v>374.97</v>
       </c>
       <c r="I334" t="n">
         <v>369.46</v>
@@ -18102,10 +18102,10 @@
         <v>368.76</v>
       </c>
       <c r="G335" t="n">
-        <v>367.12</v>
+        <v>366.93</v>
       </c>
       <c r="H335" t="n">
-        <v>365.47</v>
+        <v>364.97</v>
       </c>
       <c r="I335" t="n">
         <v>360.99</v>
@@ -18159,10 +18159,10 @@
         <v>369.97</v>
       </c>
       <c r="G336" t="n">
-        <v>365.59</v>
+        <v>365.35</v>
       </c>
       <c r="H336" t="n">
-        <v>364.57</v>
+        <v>363.92</v>
       </c>
       <c r="I336" t="n">
         <v>367.56</v>
@@ -18216,10 +18216,10 @@
         <v>370.65</v>
       </c>
       <c r="G337" t="n">
-        <v>368.65</v>
+        <v>369.07</v>
       </c>
       <c r="H337" t="n">
-        <v>367.62</v>
+        <v>368.76</v>
       </c>
       <c r="I337" t="n">
         <v>370.19</v>
@@ -18273,10 +18273,10 @@
         <v>369.57</v>
       </c>
       <c r="G338" t="n">
-        <v>368.44</v>
+        <v>368.14</v>
       </c>
       <c r="H338" t="n">
-        <v>365.42</v>
+        <v>364.63</v>
       </c>
       <c r="I338" t="n">
         <v>369.1</v>
@@ -18330,10 +18330,10 @@
         <v>367.54</v>
       </c>
       <c r="G339" t="n">
-        <v>374.82</v>
+        <v>375.09</v>
       </c>
       <c r="H339" t="n">
-        <v>375.97</v>
+        <v>376.68</v>
       </c>
       <c r="I339" t="n">
         <v>373.4</v>
@@ -18387,10 +18387,10 @@
         <v>363.21</v>
       </c>
       <c r="G340" t="n">
-        <v>365.18</v>
+        <v>365.35</v>
       </c>
       <c r="H340" t="n">
-        <v>364.89</v>
+        <v>365.34</v>
       </c>
       <c r="I340" t="n">
         <v>369.02</v>
@@ -18501,10 +18501,10 @@
         <v>373.86</v>
       </c>
       <c r="G342" t="n">
-        <v>376.79</v>
+        <v>377.09</v>
       </c>
       <c r="H342" t="n">
-        <v>374.11</v>
+        <v>374.9</v>
       </c>
       <c r="I342" t="n">
         <v>377.17</v>
@@ -18593,10 +18593,10 @@
         <v>368.37</v>
       </c>
       <c r="G344" t="n">
-        <v>366.71</v>
+        <v>366.88</v>
       </c>
       <c r="H344" t="n">
-        <v>358.92</v>
+        <v>359.37</v>
       </c>
       <c r="I344" t="n">
         <v>367.96</v>
@@ -18650,10 +18650,10 @@
         <v>365.68</v>
       </c>
       <c r="G345" t="n">
-        <v>364.57</v>
+        <v>364.94</v>
       </c>
       <c r="H345" t="n">
-        <v>357.51</v>
+        <v>358.51</v>
       </c>
       <c r="I345" t="n">
         <v>362.72</v>
@@ -18707,10 +18707,10 @@
         <v>365.78</v>
       </c>
       <c r="G346" t="n">
-        <v>359.48</v>
+        <v>359.15</v>
       </c>
       <c r="H346" t="n">
-        <v>359.54</v>
+        <v>358.66</v>
       </c>
       <c r="I346" t="n">
         <v>361.46</v>
@@ -18764,10 +18764,10 @@
         <v>368.76</v>
       </c>
       <c r="G347" t="n">
-        <v>362.23</v>
+        <v>361.81</v>
       </c>
       <c r="H347" t="n">
-        <v>359.43</v>
+        <v>358.3</v>
       </c>
       <c r="I347" t="n">
         <v>361.44</v>
@@ -18821,10 +18821,10 @@
         <v>368.07</v>
       </c>
       <c r="G348" t="n">
-        <v>368.16</v>
+        <v>368.06</v>
       </c>
       <c r="H348" t="n">
-        <v>369.49</v>
+        <v>369.24</v>
       </c>
       <c r="I348" t="n">
         <v>362.55</v>
@@ -18878,10 +18878,10 @@
         <v>370</v>
       </c>
       <c r="G349" t="n">
-        <v>369.41</v>
+        <v>369.71</v>
       </c>
       <c r="H349" t="n">
-        <v>370.13</v>
+        <v>370.92</v>
       </c>
       <c r="I349" t="n">
         <v>364</v>
@@ -18935,10 +18935,10 @@
         <v>366.7</v>
       </c>
       <c r="G350" t="n">
-        <v>366.19</v>
+        <v>366.35</v>
       </c>
       <c r="H350" t="n">
-        <v>367.12</v>
+        <v>367.56</v>
       </c>
       <c r="I350" t="n">
         <v>364.73</v>
@@ -23275,7 +23275,7 @@
         <v>0.1229</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2192701642806873</v>
+        <v>0.2194957937057544</v>
       </c>
       <c r="J7" t="n">
         <v>350</v>
@@ -23284,19 +23284,19 @@
         <v>316</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04077830644733649</v>
+        <v>0.04060292304868296</v>
       </c>
       <c r="M7" t="n">
-        <v>5.994862139125985</v>
+        <v>6.032478037879027</v>
       </c>
       <c r="N7" t="n">
-        <v>61.30474190237618</v>
+        <v>61.70760240364849</v>
       </c>
       <c r="O7" t="n">
-        <v>7.829734472022419</v>
+        <v>7.855418665077533</v>
       </c>
       <c r="P7" t="n">
-        <v>361.6120538711152</v>
+        <v>361.6331130639922</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23353,7 +23353,7 @@
         <v>0.074</v>
       </c>
       <c r="I8" t="n">
-        <v>0.223073796982971</v>
+        <v>0.2237360118951925</v>
       </c>
       <c r="J8" t="n">
         <v>350</v>
@@ -23362,19 +23362,19 @@
         <v>310</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03265235291204627</v>
+        <v>0.03170381062465299</v>
       </c>
       <c r="M8" t="n">
-        <v>7.318096128187493</v>
+        <v>7.48366844429226</v>
       </c>
       <c r="N8" t="n">
-        <v>80.97812551459626</v>
+        <v>83.97906694255332</v>
       </c>
       <c r="O8" t="n">
-        <v>8.998784668753679</v>
+        <v>9.164009326847792</v>
       </c>
       <c r="P8" t="n">
-        <v>359.8432955817055</v>
+        <v>359.8932176018174</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24203,12 +24203,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-36.72312937696615,175.72150738086395</t>
+          <t>-36.72313220368744,175.7215085239891</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-36.72299890205454,175.72239793945366</t>
+          <t>-36.7230066367815,175.72240095805984</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -24290,12 +24290,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-36.72319284970419,175.7215330492402</t>
+          <t>-36.723193192337035,175.72153318780104</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-36.72304006798897,175.72241400515412</t>
+          <t>-36.72304092740302,175.72241434055516</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -24377,12 +24377,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-36.723101623701695,175.72149615745863</t>
+          <t>-36.723099225271355,175.7214951875351</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-36.722880904484,175.72235188901982</t>
+          <t>-36.72287445887672,175.7223493735234</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -24464,12 +24464,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-36.723091002081574,175.72149186208358</t>
+          <t>-36.72309254392966,175.72149248560567</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-36.722904538376746,175.72236111251044</t>
+          <t>-36.722908663565185,175.72236272242944</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -24551,12 +24551,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-36.72309477104358,175.72149338624877</t>
+          <t>-36.723096741182786,175.72149418297155</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-36.72287428699386,175.72234930644353</t>
+          <t>-36.72287961536256,175.72235138592052</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -24638,12 +24638,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-36.72311995456172,175.7215035704476</t>
+          <t>-36.723122695624845,175.72150467893226</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-36.72297509628309,175.72238864885867</t>
+          <t>-36.722982573186144,175.7223915668427</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -24725,12 +24725,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-36.72320004499383,175.72153595901847</t>
+          <t>-36.723197817880376,175.72153505837275</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-36.72301205109031,175.72240307108459</t>
+          <t>-36.72300612113304,175.7224007568194</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -24812,12 +24812,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-36.72319833182963,175.7215352662141</t>
+          <t>-36.72319773222216,175.72153502373254</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-36.72297801829121,175.7223897892202</t>
+          <t>-36.72297647134574,175.72238918549937</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -24899,12 +24899,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-36.72308603390433,175.72148985295695</t>
+          <t>-36.72308123704351,175.72148791311085</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-36.72286861485937,175.7223470928071</t>
+          <t>-36.72285572364442,175.72234206181648</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -24982,12 +24982,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-36.723148478749145,175.7215151056202</t>
+          <t>-36.72314565202793,175.72151396249458</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-36.72294054783315,175.7223751657679</t>
+          <t>-36.722932813105245,175.72237214716725</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -25069,12 +25069,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-36.723071557663495,175.7214839987793</t>
+          <t>-36.72307241424581,175.72148434518024</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-36.722876951178215,175.72235034618197</t>
+          <t>-36.722879099713964,175.72235118468078</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -25144,12 +25144,12 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-36.7230853486385,175.72148957583607</t>
+          <t>-36.72308577692966,175.72148974903664</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-36.72294553243552,175.72237711108863</t>
+          <t>-36.72294664967396,175.72237754710883</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -25231,12 +25231,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-36.72303241185044,175.7214681682633</t>
+          <t>-36.723030784343926,175.72146751010214</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-36.72278000923576,175.72231251316808</t>
+          <t>-36.72277554028056,175.72231076909546</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -25302,12 +25302,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-36.72308689048662,175.72149019935807</t>
+          <t>-36.723088517992956,175.72149085752025</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-36.722922070427416,175.72236795466745</t>
+          <t>-36.72292653938142,175.72236969874723</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -25389,12 +25389,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-36.72300354502357,175.72145649456778</t>
+          <t>-36.723000290010354,175.72145517824663</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-36.722749671904474,175.72230067360232</t>
+          <t>-36.72274090587641,175.72229725253985</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -25479,12 +25479,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-36.723132717636766,175.72150873183</t>
+          <t>-36.72313014789014,175.72150769262535</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-36.72289551452691,175.72235759081332</t>
+          <t>-36.722888467329796,175.72235484053616</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -25566,12 +25566,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-36.723097512106825,175.72149449473264</t>
+          <t>-36.72309888263845,175.72149504897465</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-36.72289388163978,175.7223569535539</t>
+          <t>-36.7228976630626,175.72235842931258</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -25653,12 +25653,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-36.72319053693248,175.72153211395442</t>
+          <t>-36.72319284970419,175.7215330492402</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-36.72301995769989,175.72240615677205</t>
+          <t>-36.72302605953982,175.7224085381183</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -25740,12 +25740,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-36.72304800164943,175.72147447275555</t>
+          <t>-36.72304663111768,175.7214739185144</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-36.72286354431486,175.72234511395058</t>
+          <t>-36.72285993477468,175.7223437052732</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -25823,12 +25823,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-36.72318642533833,175.72153045122434</t>
+          <t>-36.72318805284436,175.7215311093883</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-36.72300526171894,175.72240042141868</t>
+          <t>-36.72300973067226,175.72240216550253</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -25890,12 +25890,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-36.7231492496731,175.72151541738174</t>
+          <t>-36.72315199073606,175.72151652586732</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-36.723002855359454,175.72239948229674</t>
+          <t>-36.72301033226211,175.72240240028304</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -25977,12 +25977,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-36.72301202518949,175.72145992393138</t>
+          <t>-36.72301408098728,175.72146075529236</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-36.7228015805383,175.72232093167563</t>
+          <t>-36.72280716673204,175.72232311176805</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -26064,12 +26064,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-36.72311892666305,175.72150315476586</t>
+          <t>-36.723117813106136,175.72150270444402</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-36.72293822741478,175.72237426018762</t>
+          <t>-36.72293513352363,175.72237305274737</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -26123,12 +26123,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-36.7230258161661,175.72146550097892</t>
+          <t>-36.72302538787492,175.72146532777865</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-36.72282976933074,175.72233193276085</t>
+          <t>-36.722828566150596,175.72233146320215</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -26210,12 +26210,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-36.72309228695499,175.72149238168532</t>
+          <t>-36.723093486170164,175.721492866647</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-36.72293848523905,175.72237436080766</t>
+          <t>-36.722941751013025,175.72237563532804</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -26281,12 +26281,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-36.723109247283745,175.72149924043023</t>
+          <t>-36.723111560055806,175.72150017571386</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-36.72289405352264,175.72235702063386</t>
+          <t>-36.72290015536399,175.72235940197174</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -26360,12 +26360,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-36.72309168734738,175.7214921392045</t>
+          <t>-36.72309245827144,175.72149245096557</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-36.72291055427654,175.72236346030905</t>
+          <t>-36.72291253092932,175.72236423172868</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -26431,12 +26431,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-36.723238162895605,175.72155137392514</t>
+          <t>-36.7232379915792,175.7215513046446</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-36.72299555033948,175.72239663139118</t>
+          <t>-36.72299503469102,175.7223964301508</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -26518,12 +26518,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-36.72311849837192,175.72150298156518</t>
+          <t>-36.72311687086569,175.72150232340246</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-36.7228670679136,175.72234648908812</t>
+          <t>-36.72286277084197,175.7223448120911</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -26589,12 +26589,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-36.72312971959904,175.72150751942456</t>
+          <t>-36.72313100447236,175.7215080390269</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-36.72294957168222,175.72237868746944</t>
+          <t>-36.72295300933898,175.72238002907028</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -26676,12 +26676,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-36.72314950664776,175.72151552130228</t>
+          <t>-36.723151134153895,175.72151617946554</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-36.72295507193302,175.72238083403084</t>
+          <t>-36.72295954088675,175.72238257811222</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -26759,12 +26759,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-36.72315550272298,175.72151794611455</t>
+          <t>-36.7231516481032,175.7215163873066</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-36.72293186774961,175.72237177822723</t>
+          <t>-36.722921468837455,175.7223677198875</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -26818,12 +26818,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-36.72312989091547,175.7215075887049</t>
+          <t>-36.72312697853595,175.72150641093972</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-36.72287497452531,175.72234957476311</t>
+          <t>-36.7228670679136,175.72234648908812</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -26905,12 +26905,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-36.72310110975234,175.72149594961786</t>
+          <t>-36.72310307989154,175.7214967463408</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-36.72291115586653,175.72236369508892</t>
+          <t>-36.72291657017629,175.72236580810804</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -26992,12 +26992,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-36.72314590900259,175.7215140664151</t>
+          <t>-36.72314633729369,175.72151423961594</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-36.722950345155,175.72237898932963</t>
+          <t>-36.722951462393446,175.72237942534989</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -27079,12 +27079,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-36.723042176889436,175.72147211723063</t>
+          <t>-36.72304063504117,175.7214714937094</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-36.72280020547521,175.72232039503757</t>
+          <t>-36.72279608028594,175.72231878512346</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -27158,12 +27158,12 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-36.72320698330874,175.72153876487667</t>
+          <t>-36.723208696472916,175.72153945768125</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-36.72303276296952,175.7224111542456</t>
+          <t>-36.72303740380542,175.72241296541094</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -27233,12 +27233,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-36.72315550272298,175.72151794611455</t>
+          <t>-36.72315336126755,175.72151708011012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-36.72297776046696,175.72238968860003</t>
+          <t>-36.722971916450724,175.72238740787714</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -27320,12 +27320,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-36.723073699119276,175.72148486478176</t>
+          <t>-36.72307164332173,175.7214840334194</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-36.7228936238155,175.722356852934</t>
+          <t>-36.72288812356408,175.7223547063763</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -27407,12 +27407,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-36.72297956071513,175.721446795362</t>
+          <t>-36.722977847550204,175.72144610256186</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-36.72275654722049,175.72230335678915</t>
+          <t>-36.722751906382186,175.72230154563798</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -27494,12 +27494,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-36.72299951908616,175.72145486648637</t>
+          <t>-36.72300037566858,175.72145521288664</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-36.72285864565317,175.7223432021742</t>
+          <t>-36.72286113795475,175.7223441748323</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -27581,12 +27581,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-36.72318659665476,175.72153052050476</t>
+          <t>-36.723185911389066,175.72153024338309</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-36.72302021552412,175.7224062573923</t>
+          <t>-36.72301841075455,175.72240555305052</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -27660,12 +27660,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-36.723101623701695,175.72149615745863</t>
+          <t>-36.72310487871427,175.7214974737835</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-36.7229544703431,175.72238059925064</t>
+          <t>-36.72296323636768,175.72238402033352</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -27747,12 +27747,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-36.72315918602629,175.72151943564228</t>
+          <t>-36.7231614131399,175.72152033628706</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-36.72296856473551,175.72238609981562</t>
+          <t>-36.72297466657602,175.72238848115845</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -27818,12 +27818,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-36.72311318756207,175.72150083387646</t>
+          <t>-36.72311233097983,175.7215004874751</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-36.72287162280949,175.72234826670515</t>
+          <t>-36.72286930239082,175.72234736112665</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -27905,12 +27905,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-36.72314830743271,175.72151503633984</t>
+          <t>-36.723145223736836,175.72151378929374</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-36.72288030289399,175.72235165424016</t>
+          <t>-36.72287205251664,175.72234843440486</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -27992,12 +27992,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-36.72317820214995,175.7215271257647</t>
+          <t>-36.72317811649174,175.72152709112453</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-36.72301308238721,175.7224034735655</t>
+          <t>-36.7230129105044,175.72240340648537</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -28146,12 +28146,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-36.723058537612225,175.7214787334854</t>
+          <t>-36.72306059340982,175.72147956484747</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-36.72287798247538,175.7223507486614</t>
+          <t>-36.72288356866833,175.72235292875845</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -28213,12 +28213,12 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-36.72305768102991,175.72147838708455</t>
+          <t>-36.72305528259936,175.72147741716225</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-36.722864489670634,175.7223454828899</t>
+          <t>-36.722858044063145,175.72234296739464</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -28300,12 +28300,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-36.72302495958372,175.7214651545784</t>
+          <t>-36.72302547353315,175.7214653624187</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-36.72283930883029,175.72233565569104</t>
+          <t>-36.72284059795183,175.7223361587898</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -28387,12 +28387,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-36.72304277649708,175.72147235971116</t>
+          <t>-36.72304114899059,175.72147170154983</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-36.722814643637406,175.72232602973844</t>
+          <t>-36.722810174682486,175.72232428566411</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -28454,12 +28454,12 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-36.72332176529494,175.72158518285622</t>
+          <t>-36.72331859594194,175.72158390116374</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-36.723104266214484,175.722439059634</t>
+          <t>-36.723095672074976,175.72243570561804</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -28584,12 +28584,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-36.72315944300093,175.72151953956285</t>
+          <t>-36.723160470899515,175.72151995524504</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-36.7229970113435,175.72239720157222</t>
+          <t>-36.72299984741007,175.72239830839436</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -28647,12 +28647,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-36.7231501919135,175.72151579842364</t>
+          <t>-36.72315070586281,175.72151600626466</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-36.72295008733074,175.72237888870956</t>
+          <t>-36.72295137645203,175.72237939180985</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -28734,12 +28734,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-36.723091173398025,175.7214919313638</t>
+          <t>-36.723089031942315,175.7214910653609</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-36.72287136498519,175.7223481660853</t>
+          <t>-36.722865520967815,175.72234588536918</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -28813,12 +28813,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-36.72321846150852,175.72154340666796</t>
+          <t>-36.723214949522045,175.72154198641823</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-36.723051154430074,175.72241833182815</t>
+          <t>-36.723041700875676,175.7224146424161</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -28900,12 +28900,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-36.7231501919135,175.72151579842364</t>
+          <t>-36.723152419027144,175.7215166990682</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-36.72298901879216,175.72239408234668</t>
+          <t>-36.72299494874961,175.72239639661075</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -29018,12 +29018,12 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-36.72311541467589,175.72150173452007</t>
+          <t>-36.72311687086569,175.72150232340246</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-36.7229892766164,175.72239418296687</t>
+          <t>-36.722993229921364,175.72239572580952</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -29093,12 +29093,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-36.723075155309196,175.72148545366346</t>
+          <t>-36.723073442144575,175.72148476086144</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-36.72287119310233,175.72234809900544</t>
+          <t>-36.72286672414786,175.72234635492836</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -29168,12 +29168,12 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-36.72311755613147,175.7215026005236</t>
+          <t>-36.723119440612386,175.72150336260674</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-36.72295094674492,175.72237922410977</t>
+          <t>-36.72295601728862,175.7223812029711</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -29231,12 +29231,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-36.72305022876355,175.72147537339754</t>
+          <t>-36.72304731638355,175.72147419563495</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-36.722828308326285,175.72233136258242</t>
+          <t>-36.72282048765533,175.72232831045136</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -29460,12 +29460,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-36.72312714985239,175.72150648022</t>
+          <t>-36.72312817775104,175.72150689590183</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-36.72292035159894,175.72236728386758</t>
+          <t>-36.722923187665934,175.72236839068736</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -29531,12 +29531,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-36.72313383119363,175.72150918215203</t>
+          <t>-36.72313254632033,175.7215086625497</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-36.72294561837693,175.72237714462864</t>
+          <t>-36.72294209477871,175.72237576948808</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -29681,12 +29681,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-36.723277480009294,175.72156727381224</t>
+          <t>-36.72327448197241,175.72156606140192</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-36.72306567852698,175.7224240001086</t>
+          <t>-36.723057514093846,175.72242081379684</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -29760,12 +29760,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-36.72306778870133,175.72148247461507</t>
+          <t>-36.72306461934674,175.72148119293163</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-36.72290720256096,175.7223621522498</t>
+          <t>-36.72289878030115,175.72235886533218</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -29827,12 +29827,12 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-36.723111303081126,175.72150007179346</t>
+          <t>-36.72311344453674,175.7215009377969</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-36.722950259213576,175.7223789557896</t>
+          <t>-36.72295601728862,175.7223812029711</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -29914,12 +29914,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-36.723086719170155,175.72149013007785</t>
+          <t>-36.723087318777765,175.72149037255866</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-36.72287179469235,175.72234833378505</t>
+          <t>-36.722873341638106,175.7223489375041</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -29997,12 +29997,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-36.723132803294995,175.72150876647015</t>
+          <t>-36.72313340290253,175.72150900895124</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-36.722967705321345,175.72238576441526</t>
+          <t>-36.72296925226686,175.72238636813591</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -30084,12 +30084,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-36.72319173614744,175.7215325989174</t>
+          <t>-36.723188481135416,175.72153128258935</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-36.72295945494535,175.72238254457218</t>
+          <t>-36.72295068892067,175.7223791234897</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -30167,12 +30167,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-36.723194905501224,175.72153388060536</t>
+          <t>-36.72319610471618,175.7215343655684</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-36.72306937400719,175.72242544233418</t>
+          <t>-36.72307263978038,175.7224267168592</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -30243,7 +30243,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-36.72284394966784,175.72233746684662</t>
+          <t>-36.722840082303215,175.72233595755029</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -30293,12 +30293,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-36.72319130785638,175.72153242571633</t>
+          <t>-36.72319225009671,175.7215328067587</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-36.723047201125524,175.722416788983</t>
+          <t>-36.723049865309015,175.72241782872646</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -30380,12 +30380,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-36.72315593101406,175.72151811931545</t>
+          <t>-36.72315207639429,175.72151656050747</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-36.72296753343852,175.7223856973352</t>
+          <t>-36.722957134527064,175.72238163899144</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -30435,12 +30435,12 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-36.72304149162354,175.7214718401101</t>
+          <t>-36.72304114899059,175.72147170154983</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-36.72283526958274,175.72233407931506</t>
+          <t>-36.72283423828551,175.72233367683614</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -30522,7 +30522,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-36.72308157967644,175.7214880516713</t>
+          <t>-36.72308175099288,175.72148812095148</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -30593,12 +30593,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-36.72310273725863,175.7214966077803</t>
+          <t>-36.72310402213203,175.7214971273822</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-36.72293736800057,175.72237392478755</t>
+          <t>-36.722940891598824,175.72237529992793</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -30652,12 +30652,12 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-36.72328339042481,175.72156966399285</t>
+          <t>-36.72328201989368,175.72156910974806</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-36.72308974211862,175.7224333913475</t>
+          <t>-36.723086132579944,175.72243198266125</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -30739,12 +30739,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-36.72300534384666,175.72145722200847</t>
+          <t>-36.72300243146642,175.72145604424736</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-36.72282873803348,175.72233153028196</t>
+          <t>-36.72282091736253,175.72232847815084</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -30814,12 +30814,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-36.72314025556013,175.7215117801641</t>
+          <t>-36.72314368188891,175.72151316577072</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-36.722984549838685,175.7223923382639</t>
+          <t>-36.72299391745266,175.72239599413</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -30901,12 +30901,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-36.7231973039311,175.72153485053144</t>
+          <t>-36.723198246171435,175.72153523157385</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-36.72300337100791,175.72239968353716</t>
+          <t>-36.723005863308806,175.7224006561992</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -30976,12 +30976,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-36.7231477934834,175.7215148284988</t>
+          <t>-36.723150620204585,175.7215159716245</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-36.72296452548894,175.722384523434</t>
+          <t>-36.72297208833356,175.7223874749572</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -31047,12 +31047,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-36.7232256567978,175.72154631644833</t>
+          <t>-36.72322291573523,175.7215452079605</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-36.72302485636011,175.72240806855703</t>
+          <t>-36.723017465399046,175.72240518410962</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -31134,12 +31134,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-36.7230685596254,175.72148278637593</t>
+          <t>-36.72306847396718,175.72148275173583</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-36.722854004815744,175.72234139101786</t>
+          <t>-36.72285383293287,175.722341323938</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -31213,12 +31213,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-36.72309879698023,175.7214950143345</t>
+          <t>-36.72310085277766,175.7214958456975</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-36.72287798247538,175.7223507486614</t>
+          <t>-36.7228834827269,175.7223528952185</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -31300,12 +31300,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-36.723231224581106,175.7215485680645</t>
+          <t>-36.72323250945417,175.72154908766828</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-36.723114665123134,175.7224431179944</t>
+          <t>-36.723118102778834,175.72244445960143</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -31375,12 +31375,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-36.72335285921661,175.72159775730455</t>
+          <t>-36.72335148868566,175.72159720305865</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-36.72317233179468,175.7224656234689</t>
+          <t>-36.72316872225655,175.7224642147794</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -31434,12 +31434,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-36.72325666506714,175.7215588562228</t>
+          <t>-36.72325486624493,175.72155812877702</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-36.72305802974226,175.72242101503755</t>
+          <t>-36.72305321702373,175.72241913679093</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -31521,12 +31521,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-36.72308551995496,175.7214896451163</t>
+          <t>-36.72308586258788,175.72148978367673</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-36.72294905603371,175.72237848622933</t>
+          <t>-36.722949915447906,175.72237882162955</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -31604,7 +31604,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-36.72315224771072,175.72151662978783</t>
+          <t>-36.72314856440735,175.72151514026038</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -31671,12 +31671,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-36.72307309951166,175.72148462230103</t>
+          <t>-36.72306915923303,175.7214830288566</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-36.7228774668268,175.72235054742168</t>
+          <t>-36.72286672414786,175.72234635492836</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -31860,12 +31860,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-36.72317948702314,175.72152764536773</t>
+          <t>-36.72318034360527,175.72152799176976</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-36.722996495695035,175.72239700033188</t>
+          <t>-36.72299898799596,175.72239797299375</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -31931,12 +31931,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-36.72314753650874,175.7215147245783</t>
+          <t>-36.723145994660804,175.72151410105525</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-36.72296839285268,175.72238603273559</t>
+          <t>-36.722964267664686,175.72238442281392</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -32006,12 +32006,12 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-36.72313331724431,175.7215089743111</t>
+          <t>-36.72313074749768,175.72150793510642</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>-36.72289551452691,175.72235759081332</t>
+          <t>-36.72288855327122,175.72235487407613</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -32081,12 +32081,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-36.72314205438275,175.72151250760754</t>
+          <t>-36.723138799370396,175.7215111912813</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>-36.72297870582251,175.72239005754057</t>
+          <t>-36.72296993979817,175.72238663645624</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -32164,12 +32164,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>-36.72313554435804,175.72150987495522</t>
+          <t>-36.72313691488956,175.72151042919776</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>-36.723023911004645,175.72240769961604</t>
+          <t>-36.72302752054374,175.72240910829984</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -32227,12 +32227,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-36.72323071063188,175.721548360223</t>
+          <t>-36.72323053931548,175.72154829094248</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>-36.72302262188354,175.72240719651472</t>
+          <t>-36.7230221921765,175.72240702881427</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -32310,12 +32310,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-36.723079266904236,175.7214871163884</t>
+          <t>-36.723081922309355,175.72148819023172</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>-36.7229395165361,175.72237476328777</t>
+          <t>-36.7229468215568,175.72237761418887</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -32397,12 +32397,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-36.72314154043343,175.72151229976654</t>
+          <t>-36.72314368188891,175.72151316577072</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>-36.722944673021324,175.72237677568847</t>
+          <t>-36.72295043109642,175.72237902286963</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -32484,12 +32484,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-36.723141626091646,175.72151233440673</t>
+          <t>-36.723142482673836,175.7215126808084</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>-36.722940977540254,175.72237533346794</t>
+          <t>-36.722943297958594,175.72237623904826</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -32571,12 +32571,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-36.72322188783677,175.7215447922776</t>
+          <t>-36.72322205915317,175.72154486155807</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>-36.72302528606715,175.72240823625748</t>
+          <t>-36.7230258017156,175.72240843749802</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -32658,12 +32658,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-36.7232517825497,175.7215568817272</t>
+          <t>-36.72325418097933,175.7215578516548</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>-36.72310641474935,175.72243989813813</t>
+          <t>-36.72311286035388,175.7224424136508</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -32741,12 +32741,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-36.7230766114991,175.7214860425452</t>
+          <t>-36.72307506965095,175.72148541902334</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>-36.722923187665934,175.72236839068736</t>
+          <t>-36.722919062477594,175.72236678076774</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -32828,12 +32828,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-36.723085262980284,175.72148954119595</t>
+          <t>-36.723085691271415,175.7214897143965</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>-36.72288649067693,175.72235406911705</t>
+          <t>-36.72288769385694,175.7223545386765</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -32907,12 +32907,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-36.72312929130792,175.7215073462238</t>
+          <t>-36.72313254632033,175.7215086625497</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>-36.7229695960325,175.72238650229608</t>
+          <t>-36.722978362056864,175.72238992338035</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -32994,12 +32994,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>-36.723235250516694,175.72155019615641</t>
+          <t>-36.72323148155572,175.72154867198526</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-36.72301609033652,175.72240464746832</t>
+          <t>-36.72300594925022,175.72240068973926</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -33053,12 +33053,12 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-36.72314650861012,175.72151430889627</t>
+          <t>-36.723149335331314,175.72151545202192</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-36.7230257157742,175.72240840395793</t>
+          <t>-36.723033278617955,175.72241135548617</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -33140,12 +33140,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>-36.723131175788794,175.7215081083072</t>
+          <t>-36.723134602117625,175.7215094939135</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>-36.72298179971343,175.72239126498226</t>
+          <t>-36.72299108138606,175.72239488730804</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -33219,12 +33219,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-36.72303249750867,175.72146820290334</t>
+          <t>-36.723029242495635,175.7214668865811</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-36.72281868288509,175.7223276061135</t>
+          <t>-36.722809916858175,175.72232418504447</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -33306,12 +33306,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-36.72316723789856,175.72152269181979</t>
+          <t>-36.72316372591174,175.72152127157207</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>-36.72293582105499,175.7223733210674</t>
+          <t>-36.72292636749857,175.72236963166722</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -33389,12 +33389,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-36.72328424700677,175.72157001039588</t>
+          <t>-36.72328707372721,175.7215711535259</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>-36.723094984543806,175.7224354372968</t>
+          <t>-36.723102547386596,175.72243838883077</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -33543,12 +33543,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-36.72314710821765,175.72151455137745</t>
+          <t>-36.72314608031903,175.72151413569543</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-36.72298326071747,175.72239183516314</t>
+          <t>-36.722980510592215,175.72239076188154</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -33622,12 +33622,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>-36.723069930157116,175.72148334061745</t>
+          <t>-36.7230685596254,175.72148278637593</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>-36.722954040636,175.72238043155053</t>
+          <t>-36.72295043109642,175.72237902286963</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -33709,12 +33709,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>-36.72305896590339,175.72147890668583</t>
+          <t>-36.72305553957405,175.72147752108248</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>-36.722845582555124,175.72233810410512</t>
+          <t>-36.72283621493855,175.72233444825412</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -33796,12 +33796,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>-36.72305099968765,175.72147568515823</t>
+          <t>-36.723053312459975,175.72147662044037</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>-36.72289216281122,175.72235628275462</t>
+          <t>-36.7228982646526,175.72235866409235</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -33859,12 +33859,12 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-36.72315387521685,175.72151728795117</t>
+          <t>-36.72315635930514,175.72151829251632</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>-36.722946735615395,175.72237758064884</t>
+          <t>-36.722953524987496,175.72238023031042</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -33934,12 +33934,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-36.72306461934674,175.72148119293163</t>
+          <t>-36.72306470500498,175.72148122757173</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>-36.72284025418608,175.72233602463012</t>
+          <t>-36.72284059795183,175.7223361587898</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -34005,12 +34005,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>-36.72315670193801,175.72151843107704</t>
+          <t>-36.72315653062158,175.7215183617967</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>-36.72301574657089,175.722404513308</t>
+          <t>-36.723015316863844,175.7224043456076</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -34088,12 +34088,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>-36.723097083815695,175.72149432153202</t>
+          <t>-36.7230945140689,175.72149328232842</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>-36.722937883649095,175.72237412602757</t>
+          <t>-36.72293083645254,175.7223713757472</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -34167,12 +34167,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>-36.72311952627061,175.7215033972469</t>
+          <t>-36.72312303825773,175.72150481749287</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>-36.72292078130607,175.72236745156755</t>
+          <t>-36.72293023486259,175.72237114096717</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -34325,12 +34325,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>-36.723102137651054,175.7214963652994</t>
+          <t>-36.723104707397816,175.72149740450325</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>-36.72289216281122,175.72235628275462</t>
+          <t>-36.722898952184,175.7223589324121</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -34412,12 +34412,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>-36.723027614989114,175.72146622842007</t>
+          <t>-36.723025730507864,175.72146546633886</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>-36.722830886569426,175.72233236877966</t>
+          <t>-36.72282573008312,175.7223303563853</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -34499,12 +34499,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-36.72318968035037,175.7215317675523</t>
+          <t>-36.723186767971185,175.72153058978517</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>-36.72302597359842,175.7224085045782</t>
+          <t>-36.72301806698891,175.7224054188902</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -34586,12 +34586,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-36.723270370378934,175.72156439866797</t>
+          <t>-36.72326591615265,175.72156259737307</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>-36.72300130841405,175.72239887857552</t>
+          <t>-36.7229892766164,175.72239418296687</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -34669,12 +34669,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-36.72321066661168,175.72154025440656</t>
+          <t>-36.72321203714301,175.72154080865027</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>-36.723057857859466,175.72242094795732</t>
+          <t>-36.72306146739833,175.72242235664243</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -34815,12 +34815,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-36.723062049599775,175.72148015372898</t>
+          <t>-36.7230639340809,175.72148091581093</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>-36.7228687008008,175.72234712634702</t>
+          <t>-36.72287377134526,175.72234910520382</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -34902,12 +34902,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>-36.72307841032194,175.72148676998737</t>
+          <t>-36.72307455570157,175.72148521118277</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>-36.72287428699386,175.72234930644353</t>
+          <t>-36.722863888080596,175.72234524811032</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -34977,12 +34977,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-36.72309331485371,175.72149279736675</t>
+          <t>-36.72309545630938,175.72149366336973</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>-36.722890959631215,175.7223558131951</t>
+          <t>-36.722896717706895,175.72235806037287</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -35064,12 +35064,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-36.723159100368065,175.7215194010021</t>
+          <t>-36.7231592716845,175.7215194702825</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>-36.72297509628309,175.72238864885867</t>
+          <t>-36.72297561193158,175.72238885009892</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -35151,12 +35151,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-36.72310325120799,175.72149681562107</t>
+          <t>-36.723101709359916,175.72149619209875</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>-36.72291751553195,175.7223661770479</t>
+          <t>-36.72291339034359,175.72236456712852</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -35238,12 +35238,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-36.723026672748496,175.72146584737945</t>
+          <t>-36.72302461695077,175.72146501601816</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>-36.7228195422995,175.72232794151248</t>
+          <t>-36.722814042047325,175.7223257949592</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -35325,12 +35325,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-36.72308817536005,175.72149071895979</t>
+          <t>-36.72308757575245,175.72149047647898</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>-36.72289560046834,175.7223576243533</t>
+          <t>-36.72289405352264,175.72235702063386</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -35405,7 +35405,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>-36.7229148513478,175.7223651373083</t>
+          <t>-36.72291502323064,175.72236520438824</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -35624,12 +35624,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-36.7231418830663,175.7215124383272</t>
+          <t>-36.72313957029438,175.7215115030428</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>-36.722927656619916,175.7223701347672</t>
+          <t>-36.72292155477887,175.72236775342748</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -35782,12 +35782,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-36.72319284970419,175.7215330492402</t>
+          <t>-36.72319516247586,175.72153398452602</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>-36.72301033226211,175.72240240028304</t>
+          <t>-36.723016605984974,175.7224048487088</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -35861,12 +35861,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-36.72309502801826,175.72149349016914</t>
+          <t>-36.72309622723343,175.7214939751308</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>-36.72285993477468,175.7223437052732</t>
+          <t>-36.722863200549135,175.7223449797908</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -36007,7 +36007,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-36.72301750731688,175.72146214089412</t>
+          <t>-36.72301408098728,175.72146075529236</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -36078,12 +36078,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-36.723060764726284,175.72147963412766</t>
+          <t>-36.72306299184033,175.72148053476994</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>-36.72285598146872,175.7223421624363</t>
+          <t>-36.722861911427636,175.72234447669175</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -36165,12 +36165,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-36.723122866941296,175.72150474821254</t>
+          <t>-36.72312577932084,175.7215059259776</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>-36.72296779126277,175.7223857979553</t>
+          <t>-36.722975697873004,175.72238888363896</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -36252,12 +36252,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-36.7230800378283,175.72148742814937</t>
+          <t>-36.7230783246637,175.72148673534724</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>-36.72295292339756,175.72237999553025</t>
+          <t>-36.72294845444378,175.72237825144921</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -36339,12 +36339,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-36.72311078913179,175.72149986395266</t>
+          <t>-36.72311267361272,175.72150062603563</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>-36.72290299143107,175.7223605087909</t>
+          <t>-36.722908147916634,175.72236252118958</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -36426,12 +36426,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-36.72309271524611,175.7214925548859</t>
+          <t>-36.72309631289166,175.72149400977094</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>-36.72293032080401,175.72237117450717</t>
+          <t>-36.72294011812606,175.72237499806783</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -36509,12 +36509,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-36.72302881420445,175.72146671338083</t>
+          <t>-36.72302718669793,175.7214660552198</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>-36.72282272213277,175.72232918248875</t>
+          <t>-36.72281842506079,175.72232750549384</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -36667,12 +36667,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-36.72321597742052,175.72154240210108</t>
+          <t>-36.72321520649668,175.72154209033894</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>-36.72307092095239,175.72242604605654</t>
+          <t>-36.72306894430018,175.7224252746335</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -36754,12 +36754,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-36.72308817536005,175.72149071895979</t>
+          <t>-36.723088432334734,175.72149082288013</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>-36.72286148172047,175.72234430899206</t>
+          <t>-36.72286225519337,175.7223446108515</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -36912,12 +36912,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>-36.72325478058673,175.72155809413673</t>
+          <t>-36.7232517825497,175.7215568817272</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>-36.723037747571034,175.72241309957136</t>
+          <t>-36.7230296690789,175.72240994680217</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -36991,12 +36991,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>-36.72317391923928,175.72152539375483</t>
+          <t>-36.72317683161854,175.72152657152154</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>-36.72298016682657,175.72239062772135</t>
+          <t>-36.72298807343661,175.7223937134061</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -37062,12 +37062,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-36.72324964109469,175.72155601572044</t>
+          <t>-36.7232512686005,175.72155667388557</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>-36.723068428651786,175.72242507339274</t>
+          <t>-36.72307272572179,175.72242675039934</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -37149,12 +37149,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-36.72322325836806,175.7215453465215</t>
+          <t>-36.72322171652035,175.72154472299712</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>-36.72303009878594,175.72241011450265</t>
+          <t>-36.72302597359842,175.7224085045782</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -37224,12 +37224,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-36.72307781071434,175.72148652750664</t>
+          <t>-36.72307387043574,175.72148493406195</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>-36.722880904484,175.72235188901982</t>
+          <t>-36.72287016180514,175.72234769652607</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -37303,12 +37303,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-36.72316226972206,175.7215206826889</t>
+          <t>-36.723162012747416,175.72152057876835</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>-36.72298480766292,175.72239243888404</t>
+          <t>-36.722984120131606,175.72239217056364</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -37382,12 +37382,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-36.72311695652391,175.72150235804259</t>
+          <t>-36.72311738481503,175.72150253124332</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>-36.72290857762376,175.7223626888895</t>
+          <t>-36.72290969486229,175.72236312490924</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -37449,12 +37449,12 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>-36.723160385241314,175.72151992060483</t>
+          <t>-36.72316398288638,175.7215213754926</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>-36.723034395856224,175.72241179150745</t>
+          <t>-36.72304419317638,175.7224156150792</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -37536,12 +37536,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-36.72315764417839,175.72151881211903</t>
+          <t>-36.72315421784972,175.72151742651187</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>-36.72302253594212,175.72240716297463</t>
+          <t>-36.72301342615286,175.72240360772582</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -37623,12 +37623,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-36.72314402452178,175.72151330433138</t>
+          <t>-36.72314582334437,175.72151403177492</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>-36.722983088834646,175.722391768083</t>
+          <t>-36.722987901553786,175.72239364632597</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -37702,12 +37702,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-36.72306958752418,175.72148320205707</t>
+          <t>-36.723070187131796,175.72148344453774</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>-36.72284420749215,175.72233756746638</t>
+          <t>-36.722845840379435,175.7223382047249</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -37789,12 +37789,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>-36.723116356916336,175.7215021155616</t>
+          <t>-36.72311918363771,175.7215032586863</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>-36.722959798711,175.7223826787323</t>
+          <t>-36.72296753343852,175.7223856973352</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -37876,12 +37876,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>-36.72327131261911,175.72156477971117</t>
+          <t>-36.72326857155679,175.72156367122193</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>-36.72304470882481,175.72241581631982</t>
+          <t>-36.72303731786402,175.72241293187085</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -37951,12 +37951,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>-36.72317169212572,175.72152449310974</t>
+          <t>-36.723170921201785,175.721524181348</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>-36.723022879707756,175.722407297135</t>
+          <t>-36.723020903055385,175.722406525713</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -38030,12 +38030,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-36.72315627364693,175.72151825787614</t>
+          <t>-36.72315336126755,175.72151708011012</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>-36.72289293628407,175.7223565846143</t>
+          <t>-36.72288511561406,175.7223535324777</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -38117,12 +38117,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-36.72321066661168,175.72154025440656</t>
+          <t>-36.72321237977583,175.72154094721122</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>-36.72302270782494,175.7224072300548</t>
+          <t>-36.72302734866092,175.72240904121966</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -38267,12 +38267,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-36.72299900513671,175.7214546586462</t>
+          <t>-36.72299480788276,175.7214529612849</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>-36.72285959100894,175.72234357111347</t>
+          <t>-36.722848246739616,175.72233914384276</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -38354,12 +38354,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>-36.72309211563852,175.72149231240508</t>
+          <t>-36.72308817536005,175.72149071895979</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>-36.722902475782504,175.72236030755104</t>
+          <t>-36.722891733104085,175.72235611505477</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -38437,7 +38437,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>-36.72312355220706,175.72150502533373</t>
+          <t>-36.72312535102972,175.72150575277684</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -38512,12 +38512,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-36.72308157967644,175.7214880516713</t>
+          <t>-36.72308243625872,175.72148839807232</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>-36.72289259251837,175.72235645045444</t>
+          <t>-36.72289474105408,175.7223572889536</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -38591,12 +38591,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>-36.7230295851286,175.72146702514135</t>
+          <t>-36.72302889986268,175.7214667480209</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>-36.72277321986149,175.72230986351934</t>
+          <t>-36.72277141509108,175.72230915918243</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -38678,12 +38678,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>-36.723230367999065,175.72154822166198</t>
+          <t>-36.723227883911136,175.72154721709475</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>-36.72299855828891,175.72239780529338</t>
+          <t>-36.72299176891737,175.72239515562853</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -38757,12 +38757,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>-36.723097512106825,175.72149449473264</t>
+          <t>-36.72310033882832,175.72149563785675</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>-36.72290943703801,175.72236302428928</t>
+          <t>-36.72291717176626,175.72236604288796</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -38844,12 +38844,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-36.723045089269434,175.72147329499305</t>
+          <t>-36.72304123464884,175.7214717361899</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>-36.72289663176547,175.72235802683292</t>
+          <t>-36.722886232852645,175.72235396849717</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -38915,12 +38915,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-36.72311661389102,175.72150221948203</t>
+          <t>-36.72311892666305,175.72150315476586</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>-36.722888639212655,175.72235490761608</t>
+          <t>-36.72289491293692,175.72235735603354</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -39002,12 +39002,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>-36.723109075967294,175.72149917114996</t>
+          <t>-36.723111988346936,175.72150034891456</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>-36.72290170230968,175.72236000569126</t>
+          <t>-36.72290952297946,175.72236305782926</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -39089,12 +39089,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>-36.72300465858072,175.7214569448882</t>
+          <t>-36.72300457292248,175.72145691024815</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>-36.72283157410094,175.7223326370989</t>
+          <t>-36.722831402218056,175.72233257001912</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -39176,12 +39176,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>-36.723055196941125,175.72147738252215</t>
+          <t>-36.723053312459975,175.72147662044037</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>-36.72289663176547,175.72235802683292</t>
+          <t>-36.722891561221225,175.72235604797484</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -39239,12 +39239,12 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-36.723211266219145,175.72154049688817</t>
+          <t>-36.72321383596537,175.72154153609517</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>-36.72302399694604,175.72240773315613</t>
+          <t>-36.723030786317175,175.7224103828234</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -39322,12 +39322,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>-36.72303412501519,175.72146886106452</t>
+          <t>-36.72303224053396,175.72146809898317</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>-36.72281034656537,175.7223243527439</t>
+          <t>-36.722805190078866,175.7223223403507</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -39405,12 +39405,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-36.72324852753806,175.72155556539695</t>
+          <t>-36.723245358184606,175.7215542837071</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>-36.723027434602336,175.72240907475975</t>
+          <t>-36.7230188404616,175.72240572075094</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -39484,12 +39484,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-36.723181028870975,175.7215282688914</t>
+          <t>-36.72317974399778,175.72152774928836</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>-36.722982315361904,175.72239146622255</t>
+          <t>-36.72297887770535,175.72239012462063</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -39567,12 +39567,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>-36.72324809924706,175.72155539219563</t>
+          <t>-36.72324364502056,175.7215535909018</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>-36.72300844155111,175.72240166240138</t>
+          <t>-36.722996409753605,175.7223969667918</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -39638,12 +39638,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-36.72309057379042,175.721491688883</t>
+          <t>-36.72309271524611,175.7214925548859</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>-36.72289439728836,175.7223571547937</t>
+          <t>-36.72290024130541,175.7223594355117</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -39725,12 +39725,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>-36.7230592228781,175.7214790106061</t>
+          <t>-36.723058280637524,175.72147862956515</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>-36.722865349084955,175.72234581828928</t>
+          <t>-36.7228628567834,175.72234484563106</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -39812,12 +39812,12 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-36.723114301118976,175.72150128419824</t>
+          <t>-36.723116185599885,175.72150204628133</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>-36.7229395165361,175.72237476328777</t>
+          <t>-36.722944673021324,175.72237677568847</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -39887,12 +39887,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>-36.723214949522045,175.72154198641823</t>
+          <t>-36.72321195148481,175.72154077401004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>-36.7230083556097,175.72240162886132</t>
+          <t>-36.72300019117571,175.72239844255463</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -39974,12 +39974,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>-36.72310325120799,175.72149681562107</t>
+          <t>-36.72310179501815,175.72149622673888</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>-36.722863458373446,175.72234508041063</t>
+          <t>-36.72285950506751,175.72234353757352</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -40061,12 +40061,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>-36.723089802866376,175.72149137712196</t>
+          <t>-36.72308800404358,175.72149064967954</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>-36.722878412182524,175.72235091636117</t>
+          <t>-36.72287342757954,175.72234897104403</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
@@ -40136,12 +40136,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-36.72309562762583,175.72149373264998</t>
+          <t>-36.72309879698023,175.7214950143345</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>-36.722903507079636,175.72236071003076</t>
+          <t>-36.7229121012222,175.72236406402877</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -40298,7 +40298,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-36.72312278128307,175.72150471357241</t>
+          <t>-36.72311918363771,175.7215032586863</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -40373,12 +40373,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-36.72311464375188,175.72150142275882</t>
+          <t>-36.72311695652391,175.72150235804259</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>-36.72293272716383,175.72237211362724</t>
+          <t>-36.722938829004725,175.72237449496768</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -40465,7 +40465,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>-36.72289560046834,175.7223576243533</t>
+          <t>-36.72289542858549,175.72235755727334</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -40535,12 +40535,12 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
-          <t>-36.72308757575245,175.72149047647898</t>
+          <t>-36.72308791838537,175.72149061503944</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>-36.72296100189085,175.7223831482927</t>
+          <t>-36.722962033187855,175.72238355077306</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -40606,12 +40606,12 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
         <is>
-          <t>-36.723141626091646,175.72151233440673</t>
+          <t>-36.72314436715465,175.72151344289205</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>-36.72297226021638,175.7223875420373</t>
+          <t>-36.722979651178086,175.72239042648107</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -40689,12 +40689,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>-36.72321237977583,175.72154094721122</t>
+          <t>-36.723214863863845,175.72154195177802</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>-36.723015316863844,175.7224043456076</t>
+          <t>-36.72302193435228,175.72240692819403</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -40768,12 +40768,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>-36.72321383596537,175.72154153609517</t>
+          <t>-36.723210923586315,175.72154035832727</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>-36.72299297209713,175.72239562518936</t>
+          <t>-36.72298506548715,175.7223925395042</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -40839,12 +40839,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>-36.723212208459415,175.72154087793075</t>
+          <t>-36.72321477820564,175.72154191713778</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>-36.72303981016476,175.7224139045338</t>
+          <t>-36.7230467714185,175.72241662128246</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -40926,12 +40926,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-36.723215549129506,175.7215422288999</t>
+          <t>-36.72321597742052,175.72154240210108</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>-36.72300775401984,175.7224013940808</t>
+          <t>-36.723008957199575,175.72240186364186</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -41013,12 +41013,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>-36.723041577281776,175.72147187475016</t>
+          <t>-36.72304072069942,175.7214715283495</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>-36.72281713593918,175.72232700239536</t>
+          <t>-36.72281498740318,175.72232616389803</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -41100,12 +41100,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>-36.723058280637524,175.72147862956515</t>
+          <t>-36.723059565511015,175.7214791491664</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>-36.7228589894189,175.72234333633392</t>
+          <t>-36.72286251301766,175.7223447114713</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -41187,12 +41187,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>-36.72305999380219,175.72147932236686</t>
+          <t>-36.72305947985279,175.72147911452635</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>-36.72287325569669,175.72234890396416</t>
+          <t>-36.722871966575205,175.72234840086495</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -41274,12 +41274,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>-36.7230440613706,175.72147287931222</t>
+          <t>-36.72304277649708,175.72147235971116</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>-36.72282220648414,175.72232898124935</t>
+          <t>-36.72281876882654,175.7223276396534</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -41361,12 +41361,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>-36.72301485191144,175.72146106705273</t>
+          <t>-36.723011939531254,175.7214598892913</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>-36.72278593919552,175.72231482741867</t>
+          <t>-36.722778118523955,175.7223117752912</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -41448,7 +41448,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>-36.72304303347179,175.72147246363133</t>
+          <t>-36.72304551756062,175.72147346819344</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -41527,12 +41527,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>-36.72310573529652,175.7214978201848</t>
+          <t>-36.72310744846102,175.7214985129874</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>-36.722921382896025,175.7223676863475</t>
+          <t>-36.722925851850036,175.72236943042722</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -41614,12 +41614,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>-36.72298709864077,175.7214498436831</t>
+          <t>-36.722984014943926,175.72144859664257</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>-36.72278800179019,175.72231563237548</t>
+          <t>-36.72277975141143,175.72231241254852</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -41788,12 +41788,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>-36.723052113244684,175.72147613547926</t>
+          <t>-36.72305134232058,175.72147582371855</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>-36.72279599434449,175.72231875158357</t>
+          <t>-36.7227940176913,175.72231798016645</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -41855,12 +41855,12 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr">
         <is>
-          <t>-36.72306787435955,175.72148250925517</t>
+          <t>-36.72306573290377,175.72148164325284</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>-36.72287445887672,175.7223493735234</t>
+          <t>-36.7228687008008,175.72234712634702</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -41934,12 +41934,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>-36.72311969758705,175.72150346652717</t>
+          <t>-36.72311669954924,175.72150225412219</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>-36.722877724651084,175.72235064804156</t>
+          <t>-36.72286964615655,175.7223474952864</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -42013,12 +42013,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>-36.72311901232126,175.72150318940604</t>
+          <t>-36.72312175338439,175.72150429789065</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>-36.722936508586365,175.72237358938747</t>
+          <t>-36.722943899548525,175.72237647382838</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -42080,12 +42080,12 @@
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
         <is>
-          <t>-36.723335470605,175.72159072531144</t>
+          <t>-36.72333418573219,175.72159020570618</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>-36.72308097609608,175.7224299702526</t>
+          <t>-36.72307753844013,175.72242862864698</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -42155,12 +42155,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>-36.723117127840354,175.7215024273229</t>
+          <t>-36.72311961192884,175.72150343188704</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>-36.7229695960325,175.72238650229608</t>
+          <t>-36.722976213521484,175.72238908487924</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -42242,12 +42242,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-36.72320389961324,175.72153751782852</t>
+          <t>-36.723203556980394,175.72153737926763</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>-36.72300423042201,175.72240001893783</t>
+          <t>-36.72300337100791,175.72239968353716</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -42392,12 +42392,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-36.72311070347356,175.7214998293125</t>
+          <t>-36.72311378716964,175.7215010763574</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>-36.72290264766536,175.72236037463097</t>
+          <t>-36.72291106992511,175.72236366154894</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -42467,12 +42467,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>-36.723280049755175,175.72156831302115</t>
+          <t>-36.72327730869289,175.72156720453165</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>-36.72305570932441,175.72242010945433</t>
+          <t>-36.723048318363766,175.72241722500445</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -42550,12 +42550,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-36.72310042448653,175.72149567249684</t>
+          <t>-36.72310333686621,175.72149685026116</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>-36.722931094276795,175.7223714763672</t>
+          <t>-36.722938914946155,175.7223745285077</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -42637,12 +42637,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-36.723062734865636,175.72148043084968</t>
+          <t>-36.723064876321445,175.72148129685192</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>-36.722859848833245,175.72234367173326</t>
+          <t>-36.72286569285068,175.72234595244905</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -42712,12 +42712,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-36.72310513568894,175.7214975777039</t>
+          <t>-36.72310710582813,175.7214983744269</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>-36.722938571180464,175.72237439434767</t>
+          <t>-36.722943899548525,175.72237647382838</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -42787,12 +42787,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>-36.723029156837406,175.72146685194107</t>
+          <t>-36.7230273580144,175.7214661244999</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>-36.72282478472731,175.7223299874464</t>
+          <t>-36.72281980012382,175.72232804213218</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -42874,12 +42874,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-36.72308020914475,175.72148749742956</t>
+          <t>-36.723081408359974,175.72148798239107</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>-36.72287145092662,175.72234819962526</t>
+          <t>-36.72287463075958,175.72234944060332</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -42957,12 +42957,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-36.72303729436995,175.72147014274682</t>
+          <t>-36.723035666863446,175.7214694845856</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>-36.722788517438865,175.7223158336147</t>
+          <t>-36.72278422036662,175.72231415662137</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -43044,12 +43044,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>-36.723074898334495,175.72148534974315</t>
+          <t>-36.723075155309196,175.72148545366346</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>-36.722875232349594,175.72234967538296</t>
+          <t>-36.72287591988104,175.72234994370257</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -43127,12 +43127,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>-36.7230587089287,175.72147880276557</t>
+          <t>-36.72305596786522,175.72147769428287</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>-36.72280080706531,175.72232062981672</t>
+          <t>-36.72279341610119,175.72231774538733</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -43214,12 +43214,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>-36.72308757575245,175.72149047647898</t>
+          <t>-36.72308886062587,175.7214909960807</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>-36.72285529393725,175.72234189411682</t>
+          <t>-36.72285881753604,175.72234326925405</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -43285,12 +43285,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>-36.72300054698508,175.7214552821667</t>
+          <t>-36.72299797723778,175.72145424296588</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>-36.7227712432082,175.72230909210273</t>
+          <t>-36.72276419600947,175.72230634183512</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -43372,12 +43372,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>-36.72313854239574,175.72151108736082</t>
+          <t>-36.72314025556013,175.7215117801641</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>-36.72291493728922,175.72236517084826</t>
+          <t>-36.722919406243285,175.72236691492768</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -43459,12 +43459,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>-36.72312398049818,175.7215051985345</t>
+          <t>-36.7231214107515,175.72150415933007</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>-36.72288606096978,175.72235390141725</t>
+          <t>-36.722879271596824,175.7223512517607</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -43542,12 +43542,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>-36.7230835498157,175.72148884839376</t>
+          <t>-36.7230868048284,175.72149016471798</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>-36.72289921000829,175.72235903303203</t>
+          <t>-36.72290797603378,175.7223624541096</t>
         </is>
       </c>
       <c r="I248" t="inlineStr"/>
@@ -43660,7 +43660,7 @@
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr">
         <is>
-          <t>-36.72317477582142,175.72152574015678</t>
+          <t>-36.7231740905557,175.72152546303522</t>
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
@@ -43719,12 +43719,12 @@
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-36.72315644496336,175.72151832715653</t>
+          <t>-36.72315678759624,175.72151846571722</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>-36.723002855359454,175.72239948229674</t>
+          <t>-36.72300388665637,175.72239988477756</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -43794,12 +43794,12 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>-36.72314830743271,175.72151503633984</t>
+          <t>-36.72314976362241,175.72151562522276</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>-36.7229804246508,175.7223907283415</t>
+          <t>-36.722984292014424,175.72239223764373</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -43881,12 +43881,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>-36.72311087479001,175.72149989859278</t>
+          <t>-36.72311404414432,175.72150118027784</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>-36.723003800714956,175.7223998512375</t>
+          <t>-36.72301239485594,175.7224032052449</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -43968,12 +43968,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>-36.72309434275244,175.72149321304818</t>
+          <t>-36.72309005984106,175.72149148104228</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>-36.72291106992511,175.72236366154894</t>
+          <t>-36.72289946783256,175.72235913365193</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -44055,12 +44055,12 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>-36.72304320478827,175.7214725329115</t>
+          <t>-36.723042262547665,175.72147215187073</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>-36.72281069033114,175.72232448690346</t>
+          <t>-36.72280802614645,175.72232344716693</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -44185,12 +44185,12 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>-36.72310564963829,175.72149778554467</t>
+          <t>-36.72310787675215,175.72149868618808</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>-36.72293272716383,175.72237211362724</t>
+          <t>-36.7229386571219,175.72237442788767</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -44272,12 +44272,12 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>-36.723119868903495,175.72150353580747</t>
+          <t>-36.72311575730878,175.72150187308063</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>-36.722902475782504,175.72236030755104</t>
+          <t>-36.722891389338365,175.72235598089492</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -44355,12 +44355,12 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>-36.72314822177448,175.7215150016997</t>
+          <t>-36.72314950664776,175.72151552130228</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>-36.72297552599017,175.7223888165589</t>
+          <t>-36.72297904958817,175.72239019170073</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -44442,12 +44442,12 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>-36.72304329044649,175.72147256755156</t>
+          <t>-36.72304286215532,175.7214723943512</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>-36.72280149459685,175.72232089813576</t>
+          <t>-36.722800291416654,175.72232042857746</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -44529,12 +44529,12 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>-36.72305605352346,175.721477728923</t>
+          <t>-36.72305579654876,175.7214776250027</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>-36.72284635602805,175.72233840596445</t>
+          <t>-36.72284566849656,175.72233813764504</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -44616,12 +44616,12 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>-36.72306119301745,175.72147980732808</t>
+          <t>-36.72306436237205,175.72148108901138</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>-36.72290024130541,175.7223594355117</t>
+          <t>-36.72290883544803,175.72236278950942</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -44703,12 +44703,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>-36.723095970258754,175.72149387121044</t>
+          <t>-36.723092800904354,175.721492589526</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>-36.722935906996426,175.7223733546074</t>
+          <t>-36.72292748473707,175.7223700676872</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -44790,12 +44790,12 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>-36.723083892448614,175.7214889869542</t>
+          <t>-36.72307969519538,175.72148728958894</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>-36.72293599293784,175.72237338814742</t>
+          <t>-36.72292473461153,175.72236899440728</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -44877,12 +44877,12 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-36.723109247283745,175.72149924043023</t>
+          <t>-36.723106934511684,175.72149830514664</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>-36.722951290510615,175.72237935826985</t>
+          <t>-36.72294518866983,175.7223769769286</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -44964,12 +44964,12 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>-36.723098625663766,175.72149494505425</t>
+          <t>-36.72310085277766,175.7214958456975</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>-36.72289560046834,175.7223576243533</t>
+          <t>-36.72290170230968,175.72236000569126</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -45051,12 +45051,12 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>-36.723071386347044,175.7214839294991</t>
+          <t>-36.72307164332173,175.7214840334194</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>-36.72284936397826,175.72233957986177</t>
+          <t>-36.72285013745118,175.7223398817211</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -45134,12 +45134,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-36.72310325120799,175.72149681562107</t>
+          <t>-36.7231039364738,175.72149709274208</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>-36.72298515142856,175.72239257304426</t>
+          <t>-36.72298695619824,175.72239327738538</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -45221,12 +45221,12 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>-36.72304003543353,175.72147125122893</t>
+          <t>-36.72303857924351,175.7214706623478</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>-36.72283157410094,175.7223326370989</t>
+          <t>-36.72282770673622,175.7223311278031</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -45304,12 +45304,12 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>-36.72316089919061,175.72152012844595</t>
+          <t>-36.72316261235493,175.72152082124964</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>-36.72299073762041,175.72239475314782</t>
+          <t>-36.72299520657385,175.7223964972309</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -45391,12 +45391,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>-36.72305493996642,175.7214772786019</t>
+          <t>-36.723055625232284,175.72147755572257</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>-36.722878412182524,175.72235091636117</t>
+          <t>-36.72288021695257,175.72235162070018</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -45478,12 +45478,12 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-36.72309065944865,175.72149172352312</t>
+          <t>-36.72309314353726,175.7214927280865</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>-36.72292035159894,175.72236728386758</t>
+          <t>-36.72292714097138,175.72236993352718</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -45565,12 +45565,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>-36.723034210673426,175.72146889570456</t>
+          <t>-36.72303378238224,175.72146872250426</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>-36.72281395610589,175.7223257614193</t>
+          <t>-36.722812838867156,175.7223253254007</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -45652,12 +45652,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>-36.723076868473804,175.72148614646548</t>
+          <t>-36.72307703979025,175.7214862157457</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>-36.72292602373288,175.72236949750723</t>
+          <t>-36.72292653938142,175.72236969874723</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -45739,12 +45739,12 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>-36.72305022876355,175.72147537339754</t>
+          <t>-36.72305031442177,175.72147540803763</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>-36.72281429987164,175.72232589557888</t>
+          <t>-36.72281447175453,175.72232596265866</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -45826,12 +45826,12 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>-36.723051770611754,175.72147599691894</t>
+          <t>-36.72305074271295,175.721475581238</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>-36.72289757712118,175.72235839577257</t>
+          <t>-36.72289474105408,175.7223572889536</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -45913,12 +45913,12 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>-36.723010825974114,175.7214594389708</t>
+          <t>-36.72300911280929,175.72145874617004</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>-36.722755086215855,175.72230278661192</t>
+          <t>-36.72275035943606,175.722300941921</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -46059,12 +46059,12 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>-36.723208353840086,175.72153931912032</t>
+          <t>-36.72321109490272,175.72154042760772</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>-36.72309154688794,175.72243409569066</t>
+          <t>-36.723098937848,175.72243698014404</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -46142,12 +46142,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-36.72300251712466,175.7214560788874</t>
+          <t>-36.722999947377374,175.7214550396865</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>-36.72280656514195,175.72232287698884</t>
+          <t>-36.722799603885115,175.7223201602584</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -46229,12 +46229,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-36.72313802844643,175.72151087951985</t>
+          <t>-36.72314128345877,175.72151219584606</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>-36.72297801829121,175.7223897892202</t>
+          <t>-36.72298678431542,175.72239321030526</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -46296,12 +46296,12 @@
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr">
         <is>
-          <t>-36.72310864767618,175.72149899794928</t>
+          <t>-36.723107362802814,175.72149847834729</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>-36.72296993979817,175.72238663645624</t>
+          <t>-36.72296641620011,175.72238526131474</t>
         </is>
       </c>
       <c r="I282" t="inlineStr"/>
@@ -46347,12 +46347,12 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>-36.72335422974755,175.72159831155045</t>
+          <t>-36.72335363014026,175.72159806906785</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>-36.723141994485374,175.72245378377366</t>
+          <t>-36.72314044754037,175.72245318005008</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -46407,7 +46407,7 @@
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr">
         <is>
-          <t>-36.722880732601155,175.7223518219399</t>
+          <t>-36.722885889086925,175.72235383433733</t>
         </is>
       </c>
       <c r="I284" t="inlineStr"/>
@@ -46477,12 +46477,12 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-36.72309716947392,175.72149435617217</t>
+          <t>-36.72309948224604,175.72149529145548</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>-36.722911241807964,175.72236372862892</t>
+          <t>-36.72291751553195,175.7223661770479</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -46615,12 +46615,12 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-36.72308252191696,175.72148843271245</t>
+          <t>-36.72307789637256,175.72148656214674</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>-36.7229472512639,175.72237778188895</t>
+          <t>-36.72293470381652,175.72237288504732</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -46702,12 +46702,12 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-36.72315301863468,175.7215169415494</t>
+          <t>-36.72315533140654,175.7215178768342</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>-36.72299288615572,175.7223955916493</t>
+          <t>-36.72299898799596,175.72239797299375</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -46812,12 +46812,12 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>-36.72307892427132,175.721486977828</t>
+          <t>-36.72307900992954,175.7214870124681</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>-36.722922156368845,175.72236798820742</t>
+          <t>-36.722922328251684,175.7223680552874</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -46895,12 +46895,12 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>-36.72302016272233,175.72146321473556</t>
+          <t>-36.72302033403881,175.72146328401567</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>-36.722818511002224,175.72232753903373</t>
+          <t>-36.722818940709416,175.72232770673318</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -46954,12 +46954,12 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>-36.723044575320024,175.72147308715262</t>
+          <t>-36.72304320478827,175.7214725329115</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>-36.72284850456392,175.72233924446252</t>
+          <t>-36.722844723140774,175.7223377687059</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -47041,12 +47041,12 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>-36.72304294781356,175.7214724289913</t>
+          <t>-36.72304123464884,175.7214717361899</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>-36.72283466799269,175.72233384453568</t>
+          <t>-36.72283019903792,175.7223321004604</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -47116,12 +47116,12 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-36.72310479305604,175.72149743914335</t>
+          <t>-36.72310676319521,175.7214982358664</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>-36.72289104557266,175.72235584673507</t>
+          <t>-36.72289637394119,175.72235792621302</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -47183,12 +47183,12 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>-36.72309074510687,175.7214917581632</t>
+          <t>-36.72309194432207,175.72149224312486</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>-36.72287824029968,175.72235084928124</t>
+          <t>-36.72288142013259,175.72235209025956</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -47262,12 +47262,12 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>-36.7231202971946,175.72150370900818</t>
+          <t>-36.72311858403015,175.7215030162053</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>-36.72289474105408,175.7223572889536</t>
+          <t>-36.722890272099804,175.7223555448754</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -47329,12 +47329,12 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-36.72305399772585,175.721476897561</t>
+          <t>-36.72305091402941,175.72147565051816</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>-36.722885287496915,175.7223535995576</t>
+          <t>-36.722876865236785,175.72235031264202</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -47396,12 +47396,12 @@
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
-          <t>-36.72295591903858,175.72143723472263</t>
+          <t>-36.72295694693758,175.7214376504025</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>-36.72282418313723,175.72232975266706</t>
+          <t>-36.72282701920471,175.72233085948386</t>
         </is>
       </c>
       <c r="I298" t="inlineStr"/>
@@ -47486,12 +47486,12 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>-36.72303035605274,175.72146733690187</t>
+          <t>-36.72302898552093,175.72146678266094</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>-36.72284532473081,175.72233800348536</t>
+          <t>-36.72284154330764,175.72233652772888</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -47573,12 +47573,12 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>-36.72319481984303,175.72153384596515</t>
+          <t>-36.72319738958932,175.72153488517168</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>-36.72297140080224,175.7223872066369</t>
+          <t>-36.722978190174025,175.72238985630028</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -47648,12 +47648,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>-36.72301784994985,175.7214622794543</t>
+          <t>-36.723017250342174,175.72146203697397</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>-36.72281662029054,175.722326801156</t>
+          <t>-36.72281507334461,175.72232619743792</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -47735,12 +47735,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>-36.72305930853632,175.72147904524618</t>
+          <t>-36.72305947985279,175.72147911452635</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>-36.72284171519051,175.72233659480872</t>
+          <t>-36.72284214489769,175.72233676250832</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -47818,12 +47818,12 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>-36.72310479305604,175.72149743914335</t>
+          <t>-36.72310753411926,175.72149854762756</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>-36.722930664569695,175.7223713086672</t>
+          <t>-36.72293805553195,175.7223741931076</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -47905,12 +47905,12 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>-36.72310445042314,175.72149730058285</t>
+          <t>-36.723107020169905,175.7214983397868</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>-36.7228976630626,175.72235842931258</t>
+          <t>-36.72290462431816,175.72236114605045</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -47992,12 +47992,12 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>-36.72300620042907,175.7214575684088</t>
+          <t>-36.72300234580817,175.72145600960732</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>-36.72286062230614,175.7223439735927</t>
+          <t>-36.72285022339262,175.72233991526102</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -48075,12 +48075,12 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>-36.72309434275244,175.72149321304818</t>
+          <t>-36.72309691249925,175.7214942522518</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>-36.72297956523665,175.722390392941</t>
+          <t>-36.7229866124326,175.72239314322513</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -48142,12 +48142,12 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>-36.72302770064735,175.7214662630601</t>
+          <t>-36.723025216558426,175.72146525849854</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>-36.72290849168235,175.72236265534949</t>
+          <t>-36.72290170230968,175.72236000569126</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -48268,12 +48268,12 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>-36.7231316897381,175.72150831614812</t>
+          <t>-36.72313031920658,175.72150776190566</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>-36.72298016682657,175.72239062772135</t>
+          <t>-36.72297638540432,175.7223891519593</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -48339,12 +48339,12 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>-36.72313023354835,175.7215077272655</t>
+          <t>-36.723132803294995,175.72150876647015</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>-36.72295601728862,175.7223812029711</t>
+          <t>-36.722962806660604,175.72238385263336</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -48422,12 +48422,12 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-36.72312192470084,175.72150436717095</t>
+          <t>-36.72312440878929,175.72150537173522</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>-36.72296590055161,175.72238506007452</t>
+          <t>-36.722972518040635,175.72238764265742</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -48509,12 +48509,12 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-36.72302744367263,175.72146615913994</t>
+          <t>-36.72302590182434,175.72146553561896</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>-36.72275310956249,175.72230201519568</t>
+          <t>-36.72274898437286,175.72230040528365</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -48596,12 +48596,12 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>-36.72313228934567,175.72150855862924</t>
+          <t>-36.72313109013057,175.72150807366702</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>-36.7229238751973,175.72236865900732</t>
+          <t>-36.722920695364635,175.72236741802757</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -48679,7 +48679,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>-36.7231256080044,175.7215058566973</t>
+          <t>-36.72312612195373,175.7215060645382</t>
         </is>
       </c>
       <c r="H315" t="inlineStr"/>
@@ -48742,12 +48742,12 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>-36.72305459733349,175.72147714004157</t>
+          <t>-36.72305425470055,175.72147700148125</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>-36.72283432422694,175.72233371037603</t>
+          <t>-36.72283346481256,175.72233337497693</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -48813,12 +48813,12 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>-36.72304757335826,175.72147429955518</t>
+          <t>-36.723043633079435,175.72147270611185</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>-36.72285495017152,175.7223417599571</t>
+          <t>-36.72284420749215,175.72233756746638</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -48884,12 +48884,12 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>-36.723030270394496,175.7214673022618</t>
+          <t>-36.72302812893855,175.72146643626039</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>-36.72285151251415,175.72234041835995</t>
+          <t>-36.72284566849656,175.72233813764504</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -48971,12 +48971,12 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>-36.72316509644318,175.72152182581507</t>
+          <t>-36.72316184143098,175.721520509488</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>-36.72299090950323,175.72239482022795</t>
+          <t>-36.72298214347908,175.72239139914245</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -49058,12 +49058,12 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>-36.72306187828331,175.72148008444879</t>
+          <t>-36.723057252738734,175.72147821388413</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>-36.72284962180258,175.72233968048155</t>
+          <t>-36.722837074352945,175.72233478365325</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -49141,12 +49141,12 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>-36.723074898334495,175.72148534974315</t>
+          <t>-36.7230766114991,175.7214860425452</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>-36.722891389338365,175.72235598089492</t>
+          <t>-36.72289603017548,175.72235779205312</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -49228,12 +49228,12 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>-36.7231029942333,175.72149671170067</t>
+          <t>-36.723105392663626,175.72149768162427</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>-36.72288709226694,175.7223543038968</t>
+          <t>-36.722893537874064,175.72235681939407</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -49315,12 +49315,12 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>-36.72303189790101,175.72146796042293</t>
+          <t>-36.72303044171097,175.72146737154193</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>-36.722783704717926,175.7223139553822</t>
+          <t>-36.722779837352874,175.72231244608838</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -49402,12 +49402,12 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>-36.723073270828124,175.72148469158125</t>
+          <t>-36.72307335648635,175.72148472622135</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>-36.72283870724023,175.72233542091163</t>
+          <t>-36.7228388791231,175.72233548799147</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -49489,12 +49489,12 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>-36.72310710582813,175.7214983744269</t>
+          <t>-36.72310582095475,175.72149785482495</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>-36.72281069033114,175.72232448690346</t>
+          <t>-36.72280716673204,175.72232311176805</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -49576,12 +49576,12 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-36.72308817536005,175.72149071895979</t>
+          <t>-36.72309083076511,175.72149179280333</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>-36.72288692038408,175.72235423681687</t>
+          <t>-36.72289405352264,175.72235702063386</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -49663,12 +49663,12 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-36.72301485191144,175.72146106705273</t>
+          <t>-36.72301168255653,175.7214597853712</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>-36.722831745983804,175.72233270417874</t>
+          <t>-36.72282332372284,175.72232941726804</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -49750,12 +49750,12 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>-36.723043633079435,175.72147270611185</t>
+          <t>-36.723040977674124,175.7214716322697</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>-36.723051756019885,175.72241856660898</t>
+          <t>-36.7230444510006,175.72241571569953</t>
         </is>
       </c>
       <c r="I328" t="inlineStr"/>
@@ -49805,12 +49805,12 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-36.723050828371186,175.72147561587806</t>
+          <t>-36.72304997178883,175.72147526947728</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>-36.72280596355184,175.72232264220966</t>
+          <t>-36.72280347125003,175.72232166955305</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -49897,7 +49897,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>-36.72285391887431,175.72234135747794</t>
+          <t>-36.72285374699145,175.72234129039808</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -49979,12 +49979,12 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-36.7230871474613,175.72149030327842</t>
+          <t>-36.72308629087903,175.7214899568773</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>-36.72292250013454,175.7223681223674</t>
+          <t>-36.722920179716105,175.7223672167876</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -50066,12 +50066,12 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-36.723114815068314,175.7215014920391</t>
+          <t>-36.723117470473255,175.72150256588344</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>-36.72293513352363,175.72237305274737</t>
+          <t>-36.72294226666155,175.7223758365681</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -50200,12 +50200,12 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>-36.72304774467473,175.72147436883532</t>
+          <t>-36.72304628848474,175.72147377995407</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>-36.7228267613804,175.72233075886416</t>
+          <t>-36.72282289401565,175.72232924956853</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -50287,12 +50287,12 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>-36.72309562762583,175.72149373264998</t>
+          <t>-36.72309725513214,175.72149439081227</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>-36.722904538376746,175.72236111251044</t>
+          <t>-36.72290883544803,175.72236278950942</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -50374,12 +50374,12 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>-36.72310873333439,175.72149903258943</t>
+          <t>-36.72311078913179,175.72149986395266</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>-36.72291227310505,175.72236413110872</t>
+          <t>-36.72291785929765,175.72236631120785</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -50461,12 +50461,12 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-36.72308252191696,175.72148843271245</t>
+          <t>-36.72307892427132,175.721486977828</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>-36.72288606096978,175.72235390141725</t>
+          <t>-36.722876263646775,175.72235007786236</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -50548,12 +50548,12 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>-36.72308432073977,175.72148916015473</t>
+          <t>-36.72308689048662,175.72149019935807</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>-36.72290496808387,175.72236128021035</t>
+          <t>-36.7229117574565,175.7223639298688</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -50635,12 +50635,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>-36.72302967078683,175.72146705978142</t>
+          <t>-36.7230273580144,175.7214661244999</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>-36.72281429987164,175.72232589557888</t>
+          <t>-36.72280819802934,175.7223235142467</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -50722,12 +50722,12 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>-36.723112245321595,175.72150045283496</t>
+          <t>-36.72311078913179,175.72149986395266</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>-36.72290952297946,175.72236305782926</t>
+          <t>-36.72290565561528,175.72236154853016</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -50896,12 +50896,12 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>-36.72301279611366,175.72146023569172</t>
+          <t>-36.72301022636643,175.7214591964905</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>-36.72283028497937,175.7223321340003</t>
+          <t>-36.722823495605724,175.72232948434785</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -51026,12 +51026,12 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>-36.72309913961313,175.721495152895</t>
+          <t>-36.723097683423276,175.7214945640129</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>-36.722960830008006,175.72238308121263</t>
+          <t>-36.72295696264422,175.7223815719114</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -51113,12 +51113,12 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>-36.723117470473255,175.72150256588344</t>
+          <t>-36.723114301118976,175.72150128419824</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>-36.72297294774772,175.72238781035762</t>
+          <t>-36.72296435360612,175.72238445635392</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -51200,12 +51200,12 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>-36.72316107050705,175.72152019772633</t>
+          <t>-36.72316389722816,175.72152134085243</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>-36.72295550164011,175.72238100173098</t>
+          <t>-36.72296306448486,175.72238395325343</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -51287,12 +51287,12 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>-36.72313751449712,175.7215106716789</t>
+          <t>-36.723141112142336,175.72151212656573</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>-36.7229564469957,175.72238137067123</t>
+          <t>-36.72296615837586,175.7223851606946</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -51374,12 +51374,12 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>-36.723086719170155,175.72149013007785</t>
+          <t>-36.72308757575245,175.72149047647898</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>-36.72286998992229,175.7223476294462</t>
+          <t>-36.72287213845808,175.72234846794484</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -51461,12 +51461,12 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>-36.72307601189149,175.72148580006447</t>
+          <t>-36.723073442144575,175.72148476086144</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>-36.722864489670634,175.7223454828899</t>
+          <t>-36.72285770029741,175.7223428332349</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -51548,12 +51548,12 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>-36.72310359384089,175.72149695418156</t>
+          <t>-36.72310222330927,175.7214963999395</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>-36.72289035804123,175.72235557841535</t>
+          <t>-36.72288657661837,175.72235410265702</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
